--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/va/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773C785-DA33-9946-BEC6-451AA7B186B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD955EF-6633-2D4E-956E-FC0EBE60C4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7041,16 +7041,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>2.8879999999999999E-3</v>
+        <v>1.362816616770287E-3</v>
       </c>
       <c r="C4" s="10">
-        <v>4.5399999999999998E-4</v>
+        <v>1.79343314551659E-3</v>
       </c>
       <c r="D4" s="11">
-        <v>6.0700000000000001E-4</v>
+        <v>1.5590676482152321E-4</v>
       </c>
       <c r="E4" s="11">
-        <v>6.3699999999999998E-4</v>
+        <v>8.0444857169030375E-4</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="11">
-        <v>0</v>
+        <v>2.4133457150709108E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
@@ -7093,16 +7093,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>1.7899999999999999E-3</v>
+        <v>1.397782879998018E-3</v>
       </c>
       <c r="C6" s="10">
-        <v>1.951E-3</v>
+        <v>4.8101686276135923E-4</v>
       </c>
       <c r="D6" s="10">
-        <v>1.951E-3</v>
+        <v>4.8101686276135923E-4</v>
       </c>
       <c r="E6" s="11">
-        <v>1.951E-3</v>
+        <v>4.8101686276135923E-4</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <v>5.8529999999999997E-3</v>
+        <v>1.4430505882840775E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -7197,25 +7197,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="14">
-        <v>3.6491154123730247E-4</v>
+        <v>0</v>
       </c>
       <c r="C12" s="14">
-        <v>1.1460031873568179E-4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="14">
-        <v>1.1460031873568179E-4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="14">
-        <v>1.1460031873568179E-4</v>
+        <v>0</v>
       </c>
       <c r="F12" s="14">
-        <v>2.5227149111157316E-4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14">
-        <v>8.8815247020153392E-5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
-        <v>3.438009562070453E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15">
@@ -7275,16 +7275,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="14">
-        <v>5.8902990158970474E-3</v>
+        <v>5.8899633596941527E-3</v>
       </c>
       <c r="C15" s="14">
-        <v>1.833E-3</v>
+        <v>1.832895547268781E-3</v>
       </c>
       <c r="D15" s="14">
-        <v>1.833E-3</v>
+        <v>1.832895547268781E-3</v>
       </c>
       <c r="E15" s="14">
-        <v>1.833E-3</v>
+        <v>1.832895547268781E-3</v>
       </c>
       <c r="F15" s="14">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="14">
-        <v>5.4989999999999995E-3</v>
+        <v>5.4986866418063425E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
@@ -7301,16 +7301,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="14">
-        <v>0.11579302198625165</v>
+        <v>1.580720948786267E-2</v>
       </c>
       <c r="C16" s="14">
-        <v>3.6033588231764058E-2</v>
+        <v>4.9190397487553798E-3</v>
       </c>
       <c r="D16" s="14">
-        <v>3.6033588231764058E-2</v>
+        <v>4.9190397487553798E-3</v>
       </c>
       <c r="E16" s="14">
-        <v>3.6033588231764058E-2</v>
+        <v>4.9190397487553798E-3</v>
       </c>
       <c r="F16" s="14">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="14">
-        <v>0.10810076469529216</v>
+        <v>1.4757119246266137E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15">

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -6921,7 +6921,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-virginia\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/va/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D33E7-9D23-AB49-8BAB-81031F94ED9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" tabRatio="742"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1043,160 +1044,160 @@
     <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="153" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 12" xfId="153"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 12" xfId="153" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1439,6 +1440,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1474,6 +1492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1649,14 +1684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="BH73" sqref="BH73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="107.33203125" customWidth="1"/>
@@ -1728,7 +1763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1738,12 +1773,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -2812,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2822,12 +2857,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -3896,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3906,12 +3941,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -4021,135 +4056,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!F31</f>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -4158,135 +4193,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!F32</f>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -4295,135 +4330,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!F33</f>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -4432,135 +4467,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!F34</f>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -4843,135 +4878,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!F37</f>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
     </row>
   </sheetData>
@@ -4980,7 +5015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4990,12 +5025,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -5105,135 +5140,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!G22</f>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -5242,135 +5277,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!G23</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -5379,135 +5414,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!G24</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -5516,135 +5551,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!G25</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -5653,135 +5688,135 @@
       </c>
       <c r="B6" s="2">
         <f>SYFAFE!G26</f>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -5790,135 +5825,135 @@
       </c>
       <c r="B7" s="2">
         <f>SYFAFE!G27</f>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AE7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AF7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -5927,135 +5962,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!G28</f>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6064,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6074,12 +6109,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -6917,18 +6952,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="8" customWidth="1"/>
@@ -6937,7 +6972,7 @@
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="14.25">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="15">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
@@ -6949,7 +6984,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:8" ht="28.5">
+    <row r="2" spans="1:8" ht="32">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -6975,7 +7010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7001,21 +7036,21 @@
         <v>8.3199999999999995E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="C4" s="10">
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="D4" s="11">
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="E4" s="11">
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -7024,10 +7059,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="11">
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7053,21 +7088,21 @@
         <v>1.3979999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="C6" s="10">
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="D6" s="10">
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="E6" s="11">
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7076,10 +7111,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7105,33 +7140,33 @@
         <v>2.1378171339705042E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="10">
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="C8" s="10">
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="D8" s="11">
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="E8" s="11">
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="F8" s="11">
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="H8" s="11">
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
@@ -7157,7 +7192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -7183,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
@@ -7209,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -7235,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
@@ -7261,21 +7296,21 @@
         <v>5.4986866418063425E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="14">
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="C16" s="14">
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="D16" s="14">
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="E16" s="14">
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="F16" s="14">
         <v>0</v>
@@ -7284,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="14">
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -7325,7 +7360,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="28.5">
+    <row r="21" spans="1:8" ht="32">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -7348,7 +7383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
@@ -7358,7 +7393,7 @@
       </c>
       <c r="C22" s="10">
         <f>B4</f>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="D22" s="10">
         <f>B5</f>
@@ -7366,7 +7401,7 @@
       </c>
       <c r="E22" s="10">
         <f>B6</f>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="F22" s="10">
         <f>B7</f>
@@ -7374,10 +7409,10 @@
       </c>
       <c r="G22" s="10">
         <f>B8</f>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="9" t="s">
         <v>3</v>
       </c>
@@ -7387,7 +7422,7 @@
       </c>
       <c r="C23" s="10">
         <f>C4</f>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="D23" s="10">
         <f>C5</f>
@@ -7395,7 +7430,7 @@
       </c>
       <c r="E23" s="10">
         <f>C6</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F23" s="10">
         <f>C7</f>
@@ -7403,10 +7438,10 @@
       </c>
       <c r="G23" s="10">
         <f>C8</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
@@ -7416,7 +7451,7 @@
       </c>
       <c r="C24" s="11">
         <f>D4</f>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="D24" s="10">
         <f>D5</f>
@@ -7424,7 +7459,7 @@
       </c>
       <c r="E24" s="10">
         <f>D6</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F24" s="10">
         <f>D7</f>
@@ -7432,10 +7467,10 @@
       </c>
       <c r="G24" s="11">
         <f>D8</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
@@ -7445,7 +7480,7 @@
       </c>
       <c r="C25" s="11">
         <f>E4</f>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="D25" s="11">
         <f>E5</f>
@@ -7453,7 +7488,7 @@
       </c>
       <c r="E25" s="11">
         <f>E6</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F25" s="11">
         <f>E7</f>
@@ -7461,10 +7496,10 @@
       </c>
       <c r="G25" s="11">
         <f>E8</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="9" t="s">
         <v>6</v>
       </c>
@@ -7490,10 +7525,10 @@
       </c>
       <c r="G26" s="11">
         <f>F8</f>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="9" t="s">
         <v>20</v>
       </c>
@@ -7519,10 +7554,10 @@
       </c>
       <c r="G27" s="11">
         <f>G8</f>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7567,7 @@
       </c>
       <c r="C28" s="11">
         <f>H4</f>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="D28" s="11">
         <f>H5</f>
@@ -7540,7 +7575,7 @@
       </c>
       <c r="E28" s="11">
         <f>H6</f>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="F28" s="11">
         <f>H7</f>
@@ -7548,10 +7583,10 @@
       </c>
       <c r="G28" s="11">
         <f>H8</f>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.5">
+    <row r="30" spans="1:8" ht="32">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -7574,7 +7609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="14" t="s">
         <v>2</v>
       </c>
@@ -7596,14 +7631,14 @@
       </c>
       <c r="F31" s="14">
         <f>B16</f>
-        <v>1.580720948786267E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="G31" s="14">
         <f>B17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="14" t="s">
         <v>3</v>
       </c>
@@ -7625,14 +7660,14 @@
       </c>
       <c r="F32" s="14">
         <f>C16</f>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G32" s="14">
         <f>C17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25">
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="14" t="s">
         <v>4</v>
       </c>
@@ -7654,14 +7689,14 @@
       </c>
       <c r="F33" s="14">
         <f>D16</f>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G33" s="14">
         <f>D17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -7683,14 +7718,14 @@
       </c>
       <c r="F34" s="14">
         <f>E16</f>
-        <v>4.9190397487553798E-3</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G34" s="14">
         <f>E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -7719,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="14" t="s">
         <v>20</v>
       </c>
@@ -7748,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="14" t="s">
         <v>21</v>
       </c>
@@ -7770,7 +7805,7 @@
       </c>
       <c r="F37" s="14">
         <f>H16</f>
-        <v>1.4757119246266137E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="G37" s="14">
         <f>H17</f>
@@ -7784,7 +7819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7794,12 +7829,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -8868,7 +8903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8878,12 +8913,12 @@
       <selection activeCell="B2" sqref="B2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -9721,7 +9756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9731,12 +9766,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -9846,135 +9881,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!C22</f>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -9983,135 +10018,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!C23</f>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -10120,135 +10155,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!C24</f>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -10257,135 +10292,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!C25</f>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -10668,135 +10703,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!C28</f>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
     </row>
   </sheetData>
@@ -10805,7 +10840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10815,12 +10850,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -11889,7 +11924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11899,12 +11934,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -12973,7 +13008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12983,12 +13018,12 @@
       <selection activeCell="B2" sqref="B2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -13826,7 +13861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13836,12 +13871,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -13951,135 +13986,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!E22</f>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -14088,135 +14123,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!E23</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -14225,135 +14260,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!E24</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -14362,135 +14397,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E25</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -14773,135 +14808,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!E28</f>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/va/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D33E7-9D23-AB49-8BAB-81031F94ED9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF7F961-6198-D644-A500-B5DD20D06187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4056,135 +4056,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!F31</f>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -4193,135 +4193,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!F32</f>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -4330,135 +4330,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!F33</f>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -4467,135 +4467,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!F34</f>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -4878,135 +4878,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!F37</f>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7093,16 +7093,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="C6" s="10">
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D6" s="10">
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E6" s="11">
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -7301,16 +7301,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="14">
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="C16" s="14">
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="D16" s="14">
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="E16" s="14">
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="F16" s="14">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="14">
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E22" s="10">
         <f>B6</f>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="F22" s="10">
         <f>B7</f>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="E23" s="10">
         <f>C6</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F23" s="10">
         <f>C7</f>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="E24" s="10">
         <f>D6</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F24" s="10">
         <f>D7</f>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="E25" s="11">
         <f>E6</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F25" s="11">
         <f>E7</f>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="E28" s="11">
         <f>H6</f>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="F28" s="11">
         <f>H7</f>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F31" s="14">
         <f>B16</f>
-        <v>0.10723822440351093</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="G31" s="14">
         <f>B17</f>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="F32" s="14">
         <f>C16</f>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G32" s="14">
         <f>C17</f>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="F33" s="14">
         <f>D16</f>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G33" s="14">
         <f>D17</f>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="F34" s="14">
         <f>E16</f>
-        <v>3.337142389565087E-2</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G34" s="14">
         <f>E17</f>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F37" s="14">
         <f>H16</f>
-        <v>0.1001142716869526</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="G37" s="14">
         <f>H17</f>
@@ -13986,135 +13986,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!E22</f>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.360594417697611E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -14123,135 +14123,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!E23</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -14260,135 +14260,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!E24</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -14397,135 +14397,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E25</f>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6821925469029281E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -14808,135 +14808,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!E28</f>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4046577640708783E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/va/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF7F961-6198-D644-A500-B5DD20D06187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D33E7-9D23-AB49-8BAB-81031F94ED9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4056,135 +4056,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!F31</f>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -4193,135 +4193,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!F32</f>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -4330,135 +4330,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!F33</f>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -4467,135 +4467,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!F34</f>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -4878,135 +4878,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!F37</f>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
     </row>
   </sheetData>
@@ -7093,16 +7093,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="C6" s="10">
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="D6" s="10">
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="E6" s="11">
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -7301,16 +7301,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="14">
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="C16" s="14">
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="D16" s="14">
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="E16" s="14">
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="F16" s="14">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="14">
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E22" s="10">
         <f>B6</f>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="F22" s="10">
         <f>B7</f>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="E23" s="10">
         <f>C6</f>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F23" s="10">
         <f>C7</f>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="E24" s="10">
         <f>D6</f>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F24" s="10">
         <f>D7</f>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="E25" s="11">
         <f>E6</f>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F25" s="11">
         <f>E7</f>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="E28" s="11">
         <f>H6</f>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="F28" s="11">
         <f>H7</f>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F31" s="14">
         <f>B16</f>
-        <v>5.303186743167481E-2</v>
+        <v>0.10723822440351093</v>
       </c>
       <c r="G31" s="14">
         <f>B17</f>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="F32" s="14">
         <f>C16</f>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G32" s="14">
         <f>C17</f>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="F33" s="14">
         <f>D16</f>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G33" s="14">
         <f>D17</f>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="F34" s="14">
         <f>E16</f>
-        <v>1.6502967462247921E-2</v>
+        <v>3.337142389565087E-2</v>
       </c>
       <c r="G34" s="14">
         <f>E17</f>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F37" s="14">
         <f>H16</f>
-        <v>4.9508902386743756E-2</v>
+        <v>0.1001142716869526</v>
       </c>
       <c r="G37" s="14">
         <f>H17</f>
@@ -13986,135 +13986,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!E22</f>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.2523003446111029E-3</v>
+        <v>1.360594417697611E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -14123,135 +14123,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!E23</f>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -14260,135 +14260,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!E24</f>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -14397,135 +14397,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E25</f>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3095218264560222E-4</v>
+        <v>4.6821925469029281E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -14808,135 +14808,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!E28</f>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2928565479368064E-3</v>
+        <v>1.4046577640708783E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-virginia\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/va/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF7F961-6198-D644-A500-B5DD20D06187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" tabRatio="742"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1043,160 +1044,160 @@
     <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="153" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 12" xfId="153"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 12" xfId="153" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1439,6 +1440,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1474,6 +1492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1649,14 +1684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="BH73" sqref="BH73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="107.33203125" customWidth="1"/>
@@ -1728,7 +1763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1738,12 +1773,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -2812,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2822,12 +2857,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -3896,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3906,12 +3941,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -4021,135 +4056,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!F31</f>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -4158,135 +4193,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!F32</f>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -4295,135 +4330,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!F33</f>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -4432,135 +4467,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!F34</f>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -4843,135 +4878,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!F37</f>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4980,7 +5015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4990,12 +5025,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -5105,135 +5140,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!G22</f>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -5242,135 +5277,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!G23</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -5379,135 +5414,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!G24</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -5516,135 +5551,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!G25</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -5653,135 +5688,135 @@
       </c>
       <c r="B6" s="2">
         <f>SYFAFE!G26</f>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="0"/>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -5790,135 +5825,135 @@
       </c>
       <c r="B7" s="2">
         <f>SYFAFE!G27</f>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AE7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AF7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="0"/>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -5927,135 +5962,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!G28</f>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6064,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6074,12 +6109,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -6917,18 +6952,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="8" customWidth="1"/>
@@ -6937,7 +6972,7 @@
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="14.25">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="15">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
@@ -6949,7 +6984,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:8" ht="28.5">
+    <row r="2" spans="1:8" ht="32">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -6975,7 +7010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7001,21 +7036,21 @@
         <v>8.3199999999999995E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="C4" s="10">
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="D4" s="11">
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="E4" s="11">
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -7024,10 +7059,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="11">
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7053,21 +7088,21 @@
         <v>1.3979999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="C6" s="10">
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D6" s="10">
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E6" s="11">
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7076,10 +7111,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7105,33 +7140,33 @@
         <v>2.1378171339705042E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="10">
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
       <c r="C8" s="10">
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="D8" s="11">
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="E8" s="11">
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
       <c r="F8" s="11">
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
       <c r="H8" s="11">
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
@@ -7157,7 +7192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -7183,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
@@ -7209,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -7235,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
@@ -7261,21 +7296,21 @@
         <v>5.4986866418063425E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="14">
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="C16" s="14">
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="D16" s="14">
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="E16" s="14">
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="F16" s="14">
         <v>0</v>
@@ -7284,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="14">
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -7325,7 +7360,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="28.5">
+    <row r="21" spans="1:8" ht="32">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -7348,7 +7383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
@@ -7358,7 +7393,7 @@
       </c>
       <c r="C22" s="10">
         <f>B4</f>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="D22" s="10">
         <f>B5</f>
@@ -7366,7 +7401,7 @@
       </c>
       <c r="E22" s="10">
         <f>B6</f>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="F22" s="10">
         <f>B7</f>
@@ -7374,10 +7409,10 @@
       </c>
       <c r="G22" s="10">
         <f>B8</f>
-        <v>6.7858445582245526E-3</v>
+        <v>2.8218046646878922E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="9" t="s">
         <v>3</v>
       </c>
@@ -7387,7 +7422,7 @@
       </c>
       <c r="C23" s="10">
         <f>C4</f>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="D23" s="10">
         <f>C5</f>
@@ -7395,7 +7430,7 @@
       </c>
       <c r="E23" s="10">
         <f>C6</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F23" s="10">
         <f>C7</f>
@@ -7403,10 +7438,10 @@
       </c>
       <c r="G23" s="10">
         <f>C8</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
@@ -7416,7 +7451,7 @@
       </c>
       <c r="C24" s="11">
         <f>D4</f>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="D24" s="10">
         <f>D5</f>
@@ -7424,7 +7459,7 @@
       </c>
       <c r="E24" s="10">
         <f>D6</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F24" s="10">
         <f>D7</f>
@@ -7432,10 +7467,10 @@
       </c>
       <c r="G24" s="11">
         <f>D8</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
@@ -7445,7 +7480,7 @@
       </c>
       <c r="C25" s="11">
         <f>E4</f>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="D25" s="11">
         <f>E5</f>
@@ -7453,7 +7488,7 @@
       </c>
       <c r="E25" s="11">
         <f>E6</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F25" s="11">
         <f>E7</f>
@@ -7461,10 +7496,10 @@
       </c>
       <c r="G25" s="11">
         <f>E8</f>
-        <v>2.1310916794424219E-3</v>
+        <v>8.8618658891024735E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="9" t="s">
         <v>6</v>
       </c>
@@ -7490,10 +7525,10 @@
       </c>
       <c r="G26" s="11">
         <f>F8</f>
-        <v>4.6912057627725937E-3</v>
+        <v>1.950776530587952E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="9" t="s">
         <v>20</v>
       </c>
@@ -7519,10 +7554,10 @@
       </c>
       <c r="G27" s="11">
         <f>G8</f>
-        <v>1.6515960515678771E-3</v>
+        <v>6.8679460640544171E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7567,7 @@
       </c>
       <c r="C28" s="11">
         <f>H4</f>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="D28" s="11">
         <f>H5</f>
@@ -7540,7 +7575,7 @@
       </c>
       <c r="E28" s="11">
         <f>H6</f>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="F28" s="11">
         <f>H7</f>
@@ -7548,10 +7583,10 @@
       </c>
       <c r="G28" s="11">
         <f>H8</f>
-        <v>6.3932750383272645E-3</v>
+        <v>2.6585597667307418E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.5">
+    <row r="30" spans="1:8" ht="32">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -7574,7 +7609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="14" t="s">
         <v>2</v>
       </c>
@@ -7596,14 +7631,14 @@
       </c>
       <c r="F31" s="14">
         <f>B16</f>
-        <v>1.580720948786267E-2</v>
+        <v>5.303186743167481E-2</v>
       </c>
       <c r="G31" s="14">
         <f>B17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="14" t="s">
         <v>3</v>
       </c>
@@ -7625,14 +7660,14 @@
       </c>
       <c r="F32" s="14">
         <f>C16</f>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G32" s="14">
         <f>C17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25">
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="14" t="s">
         <v>4</v>
       </c>
@@ -7654,14 +7689,14 @@
       </c>
       <c r="F33" s="14">
         <f>D16</f>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G33" s="14">
         <f>D17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="14" t="s">
         <v>5</v>
       </c>
@@ -7683,14 +7718,14 @@
       </c>
       <c r="F34" s="14">
         <f>E16</f>
-        <v>4.9190397487553798E-3</v>
+        <v>1.6502967462247921E-2</v>
       </c>
       <c r="G34" s="14">
         <f>E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -7719,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="14" t="s">
         <v>20</v>
       </c>
@@ -7748,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="14" t="s">
         <v>21</v>
       </c>
@@ -7770,7 +7805,7 @@
       </c>
       <c r="F37" s="14">
         <f>H16</f>
-        <v>1.4757119246266137E-2</v>
+        <v>4.9508902386743756E-2</v>
       </c>
       <c r="G37" s="14">
         <f>H17</f>
@@ -7784,7 +7819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7794,12 +7829,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -8868,7 +8903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8878,12 +8913,12 @@
       <selection activeCell="B2" sqref="B2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -9721,7 +9756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9731,12 +9766,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -9846,135 +9881,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!C22</f>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.362816616770287E-3</v>
+        <v>7.9588997630576728E-4</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -9983,135 +10018,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!C23</f>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>1.79343314551659E-3</v>
+        <v>1.792469118457498E-3</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -10120,135 +10155,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!C24</f>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5590676482152321E-4</v>
+        <v>1.559080400922843E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -10257,135 +10292,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!C25</f>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>8.0444857169030375E-4</v>
+        <v>8.0410948504312872E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -10668,135 +10703,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!C28</f>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4133457150709108E-3</v>
+        <v>2.4123284551293856E-3</v>
       </c>
     </row>
   </sheetData>
@@ -10805,7 +10840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10815,12 +10850,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -11889,7 +11924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11899,12 +11934,12 @@
       <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -12973,7 +13008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12983,12 +13018,12 @@
       <selection activeCell="B2" sqref="B2:AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -13826,7 +13861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13836,12 +13871,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -13951,135 +13986,135 @@
       </c>
       <c r="B2" s="2">
         <f>SYFAFE!E22</f>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="C2" s="2">
         <f>B2</f>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:AH8" si="0">C2</f>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="0"/>
-        <v>1.397782879998018E-3</v>
+        <v>1.2523003446111029E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -14088,135 +14123,135 @@
       </c>
       <c r="B3" s="2">
         <f>SYFAFE!E23</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -14225,135 +14260,135 @@
       </c>
       <c r="B4" s="2">
         <f>SYFAFE!E24</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -14362,135 +14397,135 @@
       </c>
       <c r="B5" s="2">
         <f>SYFAFE!E25</f>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="0"/>
-        <v>4.8101686276135923E-4</v>
+        <v>4.3095218264560222E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -14773,135 +14808,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!E28</f>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4430505882840775E-3</v>
+        <v>1.2928565479368064E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/va/trans/bhnvfeal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/projects/state-eps-data-repository/va/trans/bhnvfeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF7F961-6198-D644-A500-B5DD20D06187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D3BDE-BFA7-5346-B684-C3E6B7CF5A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12640" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7033,7 +7033,7 @@
         <v>3.1500000000000001E-4</v>
       </c>
       <c r="H3" s="11">
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
@@ -7241,7 +7241,7 @@
         <v>7.7499999999999997E-4</v>
       </c>
       <c r="H13" s="14">
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="B28" s="11">
         <f>H3</f>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="C28" s="11">
         <f>H4</f>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="C37" s="14">
         <f>H13</f>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="D37" s="14">
         <f>H14</f>
@@ -8766,135 +8766,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!H3</f>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3199999999999995E-4</v>
+        <v>7.8299999999999984E-4</v>
       </c>
     </row>
   </sheetData>
@@ -11787,135 +11787,135 @@
       </c>
       <c r="B8" s="2">
         <f>SYFAFE!C37</f>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9949999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3DED37-FC00-4EC5-A853-115506CE5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="13035" yWindow="315" windowWidth="15690" windowHeight="17025" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,6 +52,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,14 +60,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -382,15 +384,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -1283,7 +1284,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1292,26 +1293,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1321,180 +1313,176 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="155" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Comma" xfId="154" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="Percent" xfId="155" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1524,7 +1512,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1776,133 +1763,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.2092630056054029E-4</c:v>
+                  <c:v>3.1859095271137485E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.2760273948888828E-4</c:v>
+                  <c:v>3.2293204379055739E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.3427917841723627E-4</c:v>
+                  <c:v>3.2727313486973994E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.4095561734558426E-4</c:v>
+                  <c:v>3.3161422594892248E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.4763205627393225E-4</c:v>
+                  <c:v>3.3595531702810503E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.5430849520228023E-4</c:v>
+                  <c:v>3.4029640810728757E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.6098493413062822E-4</c:v>
+                  <c:v>3.4463749918647011E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.6766137305897621E-4</c:v>
+                  <c:v>3.4897859026565266E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.743378119873242E-4</c:v>
+                  <c:v>3.533196813448352E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8101425091567219E-4</c:v>
+                  <c:v>3.5766077242401775E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.8769068984402017E-4</c:v>
+                  <c:v>3.6200186350320029E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.9436712877236816E-4</c:v>
+                  <c:v>3.6634295458238284E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.010435677007162E-4</c:v>
+                  <c:v>3.7068404566156505E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.1543936179917892E-4</c:v>
+                  <c:v>3.8286968063361244E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.232456921304615E-4</c:v>
+                  <c:v>3.8999540362380768E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.284224989356039E-4</c:v>
+                  <c:v>3.9439145706872869E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.3223887309206766E-4</c:v>
+                  <c:v>3.9758791642567675E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.3661930301858122E-4</c:v>
+                  <c:v>4.1670440259151796E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.4073837767711228E-4</c:v>
+                  <c:v>4.5449874343080136E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.4130433819121803E-4</c:v>
+                  <c:v>4.5571840174311271E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.4139330713525239E-4</c:v>
+                  <c:v>4.5632492494806224E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.4143859386227608E-4</c:v>
+                  <c:v>4.5682343934192723E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.4252278985937798E-4</c:v>
+                  <c:v>4.5864796428233097E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.4258101673758966E-4</c:v>
+                  <c:v>4.5942511490356416E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.4262644410952699E-4</c:v>
+                  <c:v>4.6038567019040524E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.4263525674443374E-4</c:v>
+                  <c:v>4.6137990440500237E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.428907913418545E-4</c:v>
+                  <c:v>4.627584500454361E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.4235185104972023E-4</c:v>
+                  <c:v>4.6332164296180965E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.4180682000362565E-4</c:v>
+                  <c:v>4.6388593065941057E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.415169210975881E-4</c:v>
+                  <c:v>4.6479081055883617E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.4141525513386555E-4</c:v>
+                  <c:v>4.6598088096797761E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.4094858868260617E-4</c:v>
+                  <c:v>4.6672534660756901E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.406528424788466E-4</c:v>
+                  <c:v>4.6768413007742366E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.4046477188487546E-4</c:v>
+                  <c:v>4.6835837126328925E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.4016736396697124E-4</c:v>
+                  <c:v>4.6888408232764332E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.3991921468742256E-4</c:v>
+                  <c:v>4.6949898925199146E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.3980677282836695E-4</c:v>
+                  <c:v>4.7032072339820558E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.3981133028276362E-4</c:v>
+                  <c:v>4.7135545011319722E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.3960459654073496E-4</c:v>
+                  <c:v>4.7215508696463892E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.3945697770705547E-4</c:v>
+                  <c:v>4.730119981602886E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.3919624527100954E-4</c:v>
+                  <c:v>4.737905892831368E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.3913823303573507E-4</c:v>
+                  <c:v>4.7491927991846777E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.3909651675542918E-4</c:v>
+                  <c:v>4.7615242132589445E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,7 +1975,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2988,7 +2974,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3452,7 +3437,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3961,7 +3945,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4470,7 +4453,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4967,7 +4949,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5464,7 +5445,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5713,199 +5693,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>3.952522554130269E-4</c:v>
+                  <c:v>3.9525225541302687E-5</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>3.9505622007027588E-4</c:v>
+                  <c:v>3.9505622007027585E-5</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>3.9486018472752486E-4</c:v>
+                  <c:v>3.9486018472752483E-5</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3.9466414938477384E-4</c:v>
+                  <c:v>3.9466414938477381E-5</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>3.9446811404202282E-4</c:v>
+                  <c:v>3.9446811404202279E-5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>3.942720786992718E-4</c:v>
+                  <c:v>3.9427207869927177E-5</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>3.9407604335652078E-4</c:v>
+                  <c:v>3.9407604335652075E-5</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>3.9388000801376976E-4</c:v>
+                  <c:v>3.9388000801376973E-5</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.9368397267101874E-4</c:v>
+                  <c:v>3.9368397267101871E-5</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>3.9348793732826772E-4</c:v>
+                  <c:v>3.9348793732826769E-5</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>3.9329190198551675E-4</c:v>
+                  <c:v>3.9329190198551674E-5</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>3.9309586664276573E-4</c:v>
+                  <c:v>3.9309586664276572E-5</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>3.9289983130001471E-4</c:v>
+                  <c:v>3.928998313000147E-5</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>3.9270379595726369E-4</c:v>
+                  <c:v>3.9270379595726368E-5</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>3.9250776061451267E-4</c:v>
+                  <c:v>3.9250776061451266E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.9231172527176165E-4</c:v>
+                  <c:v>3.9231172527176164E-5</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.9211568992901063E-4</c:v>
+                  <c:v>3.9211568992901062E-5</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.9191965458625961E-4</c:v>
+                  <c:v>3.919196545862596E-5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.9172361924350859E-4</c:v>
+                  <c:v>3.9172361924350858E-5</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.9152758390075757E-4</c:v>
+                  <c:v>3.9152758390075756E-5</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.9133154855800655E-4</c:v>
+                  <c:v>3.9133154855800654E-5</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.9113551321525553E-4</c:v>
+                  <c:v>3.9113551321525552E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.9093947787250451E-4</c:v>
+                  <c:v>3.909394778725045E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.9074344252975349E-4</c:v>
+                  <c:v>3.9074344252975348E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.9054740718700247E-4</c:v>
+                  <c:v>3.9054740718700246E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.9035137184425145E-4</c:v>
+                  <c:v>3.9035137184425144E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.9015533650150043E-4</c:v>
+                  <c:v>3.9015533650150042E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.8995930115874941E-4</c:v>
+                  <c:v>3.899593011587494E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.8976326581599839E-4</c:v>
+                  <c:v>3.8976326581599838E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.8956723047324737E-4</c:v>
+                  <c:v>3.8956723047324736E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.8937119513049635E-4</c:v>
+                  <c:v>3.8937119513049634E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8917515978774533E-4</c:v>
+                  <c:v>3.8917515978774532E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.8897912444499431E-4</c:v>
+                  <c:v>3.889791244449943E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.8878308910224329E-4</c:v>
+                  <c:v>3.8878308910224328E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.8868922094850749E-4</c:v>
+                  <c:v>3.8868922094850746E-5</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.8835964956971156E-4</c:v>
+                  <c:v>3.8835964956971156E-5</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.8810530909215343E-4</c:v>
+                  <c:v>3.8810530909215343E-5</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.8794345419032003E-4</c:v>
+                  <c:v>3.8794345419032002E-5</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.8779756085887974E-4</c:v>
+                  <c:v>3.8779756085887973E-5</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8768659775611613E-4</c:v>
+                  <c:v>3.8768659775611612E-5</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.8756372155893972E-4</c:v>
+                  <c:v>3.8756372155893972E-5</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.8743413448561116E-4</c:v>
+                  <c:v>3.8743413448561118E-5</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.8741625203614658E-4</c:v>
+                  <c:v>3.8741625203614656E-5</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.8738694289951122E-4</c:v>
+                  <c:v>3.873869428995112E-5</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.8727323156960051E-4</c:v>
+                  <c:v>3.8727323156960051E-5</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.872801832305252E-4</c:v>
+                  <c:v>3.872801832305252E-5</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.8723285633958973E-4</c:v>
+                  <c:v>3.8723285633958972E-5</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.8719654146009873E-4</c:v>
+                  <c:v>3.8719654146009875E-5</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.8712836957078314E-4</c:v>
+                  <c:v>3.8712836957078314E-5</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.8710174375942578E-4</c:v>
+                  <c:v>3.871017437594258E-5</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.8701959513390749E-4</c:v>
+                  <c:v>3.8701959513390746E-5</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.8693459130790495E-4</c:v>
+                  <c:v>3.8693459130790492E-5</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.8684314096127021E-4</c:v>
+                  <c:v>3.8684314096127021E-5</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.8675224209457141E-4</c:v>
+                  <c:v>3.8675224209457144E-5</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.8662639724460569E-4</c:v>
+                  <c:v>3.8662639724460569E-5</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.8650753548999096E-4</c:v>
+                  <c:v>3.8650753548999096E-5</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.8637937383671609E-4</c:v>
+                  <c:v>3.8637937383671609E-5</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.8623677194928995E-4</c:v>
+                  <c:v>3.8623677194928998E-5</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.8608334518532407E-4</c:v>
+                  <c:v>3.8608334518532409E-5</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.8590701122559256E-4</c:v>
+                  <c:v>3.8590701122559256E-5</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.8573556454320505E-4</c:v>
+                  <c:v>3.8573556454320506E-5</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.8555651429608934E-4</c:v>
+                  <c:v>3.8555651429608931E-5</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.8536129241038667E-4</c:v>
+                  <c:v>3.8536129241038666E-5</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.8512787391125356E-4</c:v>
+                  <c:v>3.8512787391125357E-5</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.8487689875144672E-4</c:v>
+                  <c:v>3.8487689875144674E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5992,7 +5972,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6241,199 +6220,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>2.6319489092741927E-3</c:v>
+                  <c:v>2.6319489092741909E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.6568304193548414E-3</c:v>
+                  <c:v>2.656830419354838E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.6817119294354833E-3</c:v>
+                  <c:v>2.681711929435485E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.706593439516132E-3</c:v>
+                  <c:v>2.706593439516132E-4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.7314749495967738E-3</c:v>
+                  <c:v>2.7314749495967704E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.7563564596774226E-3</c:v>
+                  <c:v>2.7563564596774174E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.7812379697580644E-3</c:v>
+                  <c:v>2.7812379697580644E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.8061194798387132E-3</c:v>
+                  <c:v>2.8061194798387114E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>2.831000989919355E-3</c:v>
+                  <c:v>2.8310009899193585E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>2.8558824999999968E-3</c:v>
+                  <c:v>2.8558824999999968E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>2.8807640100806456E-3</c:v>
+                  <c:v>2.8807640100806439E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>2.9056455201612874E-3</c:v>
+                  <c:v>2.9056455201612909E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>2.9305270302419362E-3</c:v>
+                  <c:v>2.9305270302419379E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>2.955408540322578E-3</c:v>
+                  <c:v>2.9554085403225849E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>2.9802900504032268E-3</c:v>
+                  <c:v>2.9802900504032233E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.0051715604838686E-3</c:v>
+                  <c:v>3.0051715604838703E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.0300530705645173E-3</c:v>
+                  <c:v>3.0300530705645173E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.0549345806451592E-3</c:v>
+                  <c:v>3.0549345806451644E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.0798160907258079E-3</c:v>
+                  <c:v>3.0798160907258027E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.1046976008064497E-3</c:v>
+                  <c:v>3.1046976008064497E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.1295791108870985E-3</c:v>
+                  <c:v>3.1295791108870968E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.1544606209677403E-3</c:v>
+                  <c:v>3.1544606209677438E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.1793421310483891E-3</c:v>
+                  <c:v>3.1793421310483908E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.2042236411290309E-3</c:v>
+                  <c:v>3.2042236411290292E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.2291051512096797E-3</c:v>
+                  <c:v>3.2291051512096762E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.2539866612903215E-3</c:v>
+                  <c:v>3.2539866612903232E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.2788681713709703E-3</c:v>
+                  <c:v>3.2788681713709703E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.3037496814516121E-3</c:v>
+                  <c:v>3.3037496814516173E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3286311915322608E-3</c:v>
+                  <c:v>3.3286311915322556E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3535127016129027E-3</c:v>
+                  <c:v>3.3535127016129027E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3783942116935514E-3</c:v>
+                  <c:v>3.3783942116935497E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4032757217741932E-3</c:v>
+                  <c:v>3.4032757217741967E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.428157231854842E-3</c:v>
+                  <c:v>3.4281572318548351E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4530387419354838E-3</c:v>
+                  <c:v>3.4530387419354821E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.4893709999999998E-3</c:v>
+                  <c:v>3.4893709999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5120030000000001E-3</c:v>
+                  <c:v>3.5120030000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.5347819999999998E-3</c:v>
+                  <c:v>3.5347819999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.55771E-3</c:v>
+                  <c:v>3.5577100000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.580785E-3</c:v>
+                  <c:v>3.5807850000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.6040100000000004E-3</c:v>
+                  <c:v>3.6040100000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.6273859999999998E-3</c:v>
+                  <c:v>3.6273859999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.6509140000000003E-3</c:v>
+                  <c:v>3.6509140000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.6745939999999998E-3</c:v>
+                  <c:v>3.6745939999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.6984279999999997E-3</c:v>
+                  <c:v>3.6984279999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.7224160000000001E-3</c:v>
+                  <c:v>3.7224160000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.7465599999999999E-3</c:v>
+                  <c:v>3.7465600000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.77086E-3</c:v>
+                  <c:v>3.77086E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.7953179999999998E-3</c:v>
+                  <c:v>3.7953179999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.819935E-3</c:v>
+                  <c:v>3.8199350000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.8447119999999997E-3</c:v>
+                  <c:v>3.8447119999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.8696489999999997E-3</c:v>
+                  <c:v>3.8696489999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.894748E-3</c:v>
+                  <c:v>3.8947480000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.9200089999999995E-3</c:v>
+                  <c:v>3.9200089999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.9454349999999997E-3</c:v>
+                  <c:v>3.9454349999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.9710250000000004E-3</c:v>
+                  <c:v>3.9710250000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.9967819999999999E-3</c:v>
+                  <c:v>3.996782E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.0227050000000006E-3</c:v>
+                  <c:v>4.0227050000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.0487970000000007E-3</c:v>
+                  <c:v>4.0487970000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.0750580000000003E-3</c:v>
+                  <c:v>4.0750580000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1014889999999998E-3</c:v>
+                  <c:v>4.1014889999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1280910000000004E-3</c:v>
+                  <c:v>4.1280910000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.1548660000000001E-3</c:v>
+                  <c:v>4.154866E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1818150000000002E-3</c:v>
+                  <c:v>4.1818150000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.2089390000000001E-3</c:v>
+                  <c:v>4.2089390000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.2362379999999998E-3</c:v>
+                  <c:v>4.2362379999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6519,7 +6498,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7586,6 +7564,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7621,6 +7616,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7796,17 +7808,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="107.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7823,7 +7835,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7831,7 +7843,7 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7869,7 +7881,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7879,7 +7891,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7892,12 +7904,12 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="2" t="s">
@@ -7905,7 +7917,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7915,32 +7927,32 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7950,12 +7962,12 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="19" t="s">
+      <c r="A34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8016,7 +8028,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8024,7 +8036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8034,13 +8046,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -8141,127 +8153,127 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="4">
         <f t="array" ref="B2:B8">TRANSPOSE(SYFAFE!B11:H11)</f>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="4">
         <f>B2</f>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="4">
         <f t="shared" ref="D2:AF8" si="0">C2</f>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="Q2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="R2" s="29">
+      <c r="R2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="S2" s="29">
+      <c r="S2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="T2" s="29">
+      <c r="T2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="U2" s="29">
+      <c r="U2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="V2" s="29">
+      <c r="V2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="W2" s="29">
+      <c r="W2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="Y2" s="29">
+      <c r="Y2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="Z2" s="29">
+      <c r="Z2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="AA2" s="29">
+      <c r="AA2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="AB2" s="29">
+      <c r="AB2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="AC2" s="29">
+      <c r="AC2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="AD2" s="29">
+      <c r="AD2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="AE2" s="29">
+      <c r="AE2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
-      <c r="AF2" s="29">
+      <c r="AF2" s="4">
         <f t="shared" si="0"/>
         <v>2.2211467051641521E-3</v>
       </c>
@@ -8275,123 +8287,123 @@
       <c r="B3" s="4">
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:R8" si="1">B3</f>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="4">
         <f t="shared" si="1"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="Y3" s="29">
+      <c r="Y3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="AA3" s="29">
+      <c r="AA3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="AB3" s="29">
+      <c r="AB3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="AC3" s="29">
+      <c r="AC3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="AD3" s="29">
+      <c r="AD3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="AE3" s="29">
+      <c r="AE3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
-      <c r="AF3" s="29">
+      <c r="AF3" s="4">
         <f t="shared" si="0"/>
         <v>4.7352548463232166E-4</v>
       </c>
@@ -8405,123 +8417,123 @@
       <c r="B4" s="4">
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="4">
         <f t="shared" si="1"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="AD4" s="29">
+      <c r="AD4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AE4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
-      <c r="AF4" s="29">
+      <c r="AF4" s="4">
         <f t="shared" si="0"/>
         <v>6.7839079634331792E-3</v>
       </c>
@@ -8535,123 +8547,123 @@
       <c r="B5" s="4">
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="4">
         <f t="shared" si="1"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="AA5" s="29">
+      <c r="AA5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AD5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="AE5" s="29">
+      <c r="AE5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
-      <c r="AF5" s="29">
+      <c r="AF5" s="4">
         <f t="shared" si="0"/>
         <v>6.9119783216062313E-4</v>
       </c>
@@ -8665,123 +8677,123 @@
       <c r="B6" s="4">
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="4">
         <f t="shared" si="1"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="AA6" s="29">
+      <c r="AA6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="AC6" s="29">
+      <c r="AC6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AD6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="AE6" s="29">
+      <c r="AE6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
-      <c r="AF6" s="29">
+      <c r="AF6" s="4">
         <f t="shared" si="0"/>
         <v>1.0867252882872924E-3</v>
       </c>
@@ -8795,123 +8807,123 @@
       <c r="B7" s="4">
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="4">
         <f t="shared" si="1"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="AA7" s="29">
+      <c r="AA7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="AB7" s="29">
+      <c r="AB7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="AC7" s="29">
+      <c r="AC7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="AD7" s="29">
+      <c r="AD7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="AE7" s="29">
+      <c r="AE7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
-      <c r="AF7" s="29">
+      <c r="AF7" s="4">
         <f t="shared" si="0"/>
         <v>2.9305916427068614E-3</v>
       </c>
@@ -8925,123 +8937,123 @@
       <c r="B8" s="4">
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="4">
         <f t="shared" si="1"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AA8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="AC8" s="29">
+      <c r="AC8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="AD8" s="29">
+      <c r="AD8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="AE8" s="29">
+      <c r="AE8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
-      <c r="AF8" s="29">
+      <c r="AF8" s="4">
         <f t="shared" si="0"/>
         <v>2.7605411165548288E-3</v>
       </c>
@@ -9054,7 +9066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9064,13 +9076,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -9958,7 +9970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9968,13 +9980,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -10862,25 +10874,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -11112,97 +11124,97 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11210,97 +11222,97 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11308,127 +11320,127 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="29">
         <f>Extrapolations!P6</f>
         <v>3.7813606358617479E-4</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="29">
         <f>Extrapolations!Q6</f>
         <v>3.8189121028656993E-4</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="29">
         <f>Extrapolations!R6</f>
         <v>3.8564635698696507E-4</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="29">
         <f>Extrapolations!S6</f>
         <v>3.8940150368736021E-4</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="29">
         <f>Extrapolations!T6</f>
         <v>3.9315665038775535E-4</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="29">
         <f>Extrapolations!U6</f>
         <v>3.9691179708815135E-4</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="29">
         <f>Extrapolations!V6</f>
         <v>4.0066694378854649E-4</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="29">
         <f>Extrapolations!W6</f>
         <v>4.0442209048894163E-4</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="29">
         <f>Extrapolations!X6</f>
         <v>4.0817723718933677E-4</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="29">
         <f>Extrapolations!Y6</f>
         <v>4.1193238388973191E-4</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="29">
         <f>Extrapolations!Z6</f>
         <v>4.1568753059012791E-4</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="29">
         <f>Extrapolations!AA6</f>
         <v>4.1944267729052305E-4</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="29">
         <f>Extrapolations!AB6</f>
         <v>4.2319782399091819E-4</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="29">
         <f>Extrapolations!AC6</f>
         <v>4.2695297069131333E-4</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="29">
         <f>Extrapolations!AD6</f>
         <v>4.3070811739170847E-4</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="29">
         <f>Extrapolations!AE6</f>
         <v>4.344632640921036E-4</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="29">
         <f>Extrapolations!AF6</f>
         <v>4.3821841079249961E-4</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="29">
         <f>Extrapolations!AG6</f>
         <v>4.4197355749289475E-4</v>
       </c>
-      <c r="T5" s="36">
+      <c r="T5" s="29">
         <f>Extrapolations!AH6</f>
         <v>4.4572870419328989E-4</v>
       </c>
-      <c r="U5" s="36">
+      <c r="U5" s="29">
         <f>Extrapolations!AI6</f>
         <v>4.4948385089368503E-4</v>
       </c>
-      <c r="V5" s="36">
+      <c r="V5" s="29">
         <f>Extrapolations!AJ6</f>
         <v>4.5323899759408016E-4</v>
       </c>
-      <c r="W5" s="36">
+      <c r="W5" s="29">
         <f>Extrapolations!AK6</f>
         <v>4.569941442944753E-4</v>
       </c>
-      <c r="X5" s="36">
+      <c r="X5" s="29">
         <f>Extrapolations!AL6</f>
         <v>4.6074929099487131E-4</v>
       </c>
-      <c r="Y5" s="36">
+      <c r="Y5" s="29">
         <f>Extrapolations!AM6</f>
         <v>4.6450443769526645E-4</v>
       </c>
-      <c r="Z5" s="36">
+      <c r="Z5" s="29">
         <f>Extrapolations!AN6</f>
         <v>4.6616941125958422E-4</v>
       </c>
-      <c r="AA5" s="36">
+      <c r="AA5" s="29">
         <f>Extrapolations!AO6</f>
         <v>4.7399299019600609E-4</v>
       </c>
-      <c r="AB5" s="36">
+      <c r="AB5" s="29">
         <f>Extrapolations!AP6</f>
         <v>4.7625318028902199E-4</v>
       </c>
-      <c r="AC5" s="36">
+      <c r="AC5" s="29">
         <f>Extrapolations!AQ6</f>
         <v>4.7962763511951036E-4</v>
       </c>
-      <c r="AD5" s="36">
+      <c r="AD5" s="29">
         <f>Extrapolations!AR6</f>
         <v>4.8472425299335046E-4</v>
       </c>
-      <c r="AE5" s="36">
+      <c r="AE5" s="29">
         <f>Extrapolations!AS6</f>
         <v>4.8856488811023198E-4</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AF5" s="29">
         <f>Extrapolations!AT6</f>
         <v>4.9188761878420821E-4</v>
       </c>
@@ -11439,97 +11451,97 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11537,97 +11549,97 @@
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11763,38 +11775,38 @@
       <c r="AI8" s="4"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11802,7 +11814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11812,13 +11824,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -11921,127 +11933,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>8.4577010748440179E-3</v>
+        <v>8.4577010748440118E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>8.5376571765036352E-3</v>
+        <v>8.5376571765036235E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>8.61761327816323E-3</v>
+        <v>8.6176132781632352E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>8.6975693798228455E-3</v>
+        <v>8.6975693798228457E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>8.7775254814824403E-3</v>
+        <v>8.7775254814824303E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>8.8574815831420576E-3</v>
+        <v>8.8574815831420409E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>8.9374376848016523E-3</v>
+        <v>8.9374376848016526E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>9.0173937864612697E-3</v>
+        <v>9.0173937864612642E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>9.0973498881208644E-3</v>
+        <v>9.0973498881208748E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>9.1773059897804592E-3</v>
+        <v>9.1773059897804583E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>9.2572620914400765E-3</v>
+        <v>9.25726209144007E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>9.3372181930996695E-3</v>
+        <v>9.3372181930996816E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>9.4171742947592868E-3</v>
+        <v>9.4171742947592933E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>9.4971303964188816E-3</v>
+        <v>9.4971303964189039E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>9.5770864980784989E-3</v>
+        <v>9.5770864980784874E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>9.6570425997380936E-3</v>
+        <v>9.657042599738099E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>9.7369987013977109E-3</v>
+        <v>9.7369987013977107E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>9.8169548030573057E-3</v>
+        <v>9.8169548030573213E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>9.8969109047169213E-3</v>
+        <v>9.8969109047169048E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>9.976867006376516E-3</v>
+        <v>9.9768670063765164E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0056823108036133E-2</v>
+        <v>1.0056823108036128E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0136779209695728E-2</v>
+        <v>1.013677920969574E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0216735311355345E-2</v>
+        <v>1.0216735311355351E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.029669141301494E-2</v>
+        <v>1.0296691413014935E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0376647514674557E-2</v>
+        <v>1.0376647514674547E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0456603616334152E-2</v>
+        <v>1.0456603616334156E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0536559717993768E-2</v>
+        <v>1.0536559717993768E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0616515819653363E-2</v>
+        <v>1.0616515819653379E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.069647192131298E-2</v>
+        <v>1.0696471921312963E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0776428022972575E-2</v>
+        <v>1.0776428022972575E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0856384124632192E-2</v>
+        <v>1.0856384124632186E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -12248,127 +12260,127 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!F10</f>
-        <v>2.6319489092741927E-3</v>
+        <v>2.6319489092741909E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!G10</f>
-        <v>2.6568304193548414E-3</v>
+        <v>2.656830419354838E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!H10</f>
-        <v>2.6817119294354833E-3</v>
+        <v>2.681711929435485E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!I10</f>
-        <v>2.706593439516132E-3</v>
+        <v>2.706593439516132E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!J10</f>
-        <v>2.7314749495967738E-3</v>
+        <v>2.7314749495967704E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!K10</f>
-        <v>2.7563564596774226E-3</v>
+        <v>2.7563564596774174E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!L10</f>
-        <v>2.7812379697580644E-3</v>
+        <v>2.7812379697580644E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!M10</f>
-        <v>2.8061194798387132E-3</v>
+        <v>2.8061194798387114E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!N10</f>
-        <v>2.831000989919355E-3</v>
+        <v>2.8310009899193585E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!O10</f>
-        <v>2.8558824999999968E-3</v>
+        <v>2.8558824999999968E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!P10</f>
-        <v>2.8807640100806456E-3</v>
+        <v>2.8807640100806439E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!Q10</f>
-        <v>2.9056455201612874E-3</v>
+        <v>2.9056455201612909E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!R10</f>
-        <v>2.9305270302419362E-3</v>
+        <v>2.9305270302419379E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!S10</f>
-        <v>2.955408540322578E-3</v>
+        <v>2.9554085403225849E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!T10</f>
-        <v>2.9802900504032268E-3</v>
+        <v>2.9802900504032233E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!U10</f>
-        <v>3.0051715604838686E-3</v>
+        <v>3.0051715604838703E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!V10</f>
-        <v>3.0300530705645173E-3</v>
+        <v>3.0300530705645173E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!W10</f>
-        <v>3.0549345806451592E-3</v>
+        <v>3.0549345806451644E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!X10</f>
-        <v>3.0798160907258079E-3</v>
+        <v>3.0798160907258027E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!Y10</f>
-        <v>3.1046976008064497E-3</v>
+        <v>3.1046976008064497E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!Z10</f>
-        <v>3.1295791108870985E-3</v>
+        <v>3.1295791108870968E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AA10</f>
-        <v>3.1544606209677403E-3</v>
+        <v>3.1544606209677438E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AB10</f>
-        <v>3.1793421310483891E-3</v>
+        <v>3.1793421310483908E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AC10</f>
-        <v>3.2042236411290309E-3</v>
+        <v>3.2042236411290292E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AD10</f>
-        <v>3.2291051512096797E-3</v>
+        <v>3.2291051512096762E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AE10</f>
-        <v>3.2539866612903215E-3</v>
+        <v>3.2539866612903232E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AF10</f>
-        <v>3.2788681713709703E-3</v>
+        <v>3.2788681713709703E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AG10</f>
-        <v>3.3037496814516121E-3</v>
+        <v>3.3037496814516173E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AH10</f>
-        <v>3.3286311915322608E-3</v>
+        <v>3.3286311915322556E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AI10</f>
-        <v>3.3535127016129027E-3</v>
+        <v>3.3535127016129027E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AJ10</f>
-        <v>3.3783942116935514E-3</v>
+        <v>3.3783942116935497E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -12575,127 +12587,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>7.8958467278225763E-3</v>
+        <v>7.8958467278225717E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>7.9704912580645226E-3</v>
+        <v>7.9704912580645128E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>8.045135788306448E-3</v>
+        <v>8.0451357883064539E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>8.1197803185483943E-3</v>
+        <v>8.119780318548395E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>8.1944248487903198E-3</v>
+        <v>8.19442484879031E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>8.2690693790322661E-3</v>
+        <v>8.2690693790322511E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>8.3437139092741915E-3</v>
+        <v>8.3437139092741922E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>8.4183584395161378E-3</v>
+        <v>8.4183584395161333E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>8.4930029697580633E-3</v>
+        <v>8.4930029697580743E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>8.5676474999999887E-3</v>
+        <v>8.5676474999999894E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>8.642292030241935E-3</v>
+        <v>8.6422920302419305E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>8.7169365604838605E-3</v>
+        <v>8.7169365604838716E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>8.7915810907258068E-3</v>
+        <v>8.7915810907258126E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>8.8662256209677322E-3</v>
+        <v>8.8662256209677537E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>8.9408701512096785E-3</v>
+        <v>8.9408701512096688E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>9.015514681451604E-3</v>
+        <v>9.0155146814516098E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>9.0901592116935503E-3</v>
+        <v>9.0901592116935509E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>9.1648037419354757E-3</v>
+        <v>9.164803741935492E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>9.239448272177422E-3</v>
+        <v>9.2394482721774071E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>9.3140928024193475E-3</v>
+        <v>9.3140928024193481E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>9.3887373326612938E-3</v>
+        <v>9.3887373326612892E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>9.4633818629032192E-3</v>
+        <v>9.4633818629032303E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>9.5380263931451655E-3</v>
+        <v>9.5380263931451714E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>9.612670923387091E-3</v>
+        <v>9.6126709233870864E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>9.6873154536290373E-3</v>
+        <v>9.6873154536290275E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>9.7619599838709627E-3</v>
+        <v>9.7619599838709686E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>9.836604514112909E-3</v>
+        <v>9.8366045141129086E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>9.9112490443548345E-3</v>
+        <v>9.9112490443548497E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>9.9858935745967808E-3</v>
+        <v>9.9858935745967647E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.0060538104838706E-2</v>
+        <v>1.0060538104838706E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.0135182635080653E-2</v>
+        <v>1.0135182635080647E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -12706,7 +12718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12716,14 +12728,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -13729,7 +13741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13739,13 +13751,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -14633,7 +14645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14643,13 +14655,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -15663,7 +15675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15673,13 +15685,13 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:33" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -16492,18 +16504,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AH20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="30.73046875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -16680,97 +16692,97 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>4.010435677007162E-4</v>
+        <v>3.7068404566156505E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>4.1543936179917892E-4</v>
+        <v>3.8286968063361244E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>4.232456921304615E-4</v>
+        <v>3.8999540362380768E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>4.284224989356039E-4</v>
+        <v>3.9439145706872869E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>4.3223887309206766E-4</v>
+        <v>3.9758791642567675E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>4.3661930301858122E-4</v>
+        <v>4.1670440259151796E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>4.4073837767711228E-4</v>
+        <v>4.5449874343080136E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.4130433819121803E-4</v>
+        <v>4.5571840174311271E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.4139330713525239E-4</v>
+        <v>4.5632492494806224E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.4143859386227608E-4</v>
+        <v>4.5682343934192723E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.4252278985937798E-4</v>
+        <v>4.5864796428233097E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.4258101673758966E-4</v>
+        <v>4.5942511490356416E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.4262644410952699E-4</v>
+        <v>4.6038567019040524E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.4263525674443374E-4</v>
+        <v>4.6137990440500237E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.428907913418545E-4</v>
+        <v>4.627584500454361E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.4235185104972023E-4</v>
+        <v>4.6332164296180965E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.4180682000362565E-4</v>
+        <v>4.6388593065941057E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.415169210975881E-4</v>
+        <v>4.6479081055883617E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.4141525513386555E-4</v>
+        <v>4.6598088096797761E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.4094858868260617E-4</v>
+        <v>4.6672534660756901E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.406528424788466E-4</v>
+        <v>4.6768413007742366E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.4046477188487546E-4</v>
+        <v>4.6835837126328925E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.4016736396697124E-4</v>
+        <v>4.6888408232764332E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.3991921468742256E-4</v>
+        <v>4.6949898925199146E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.3980677282836695E-4</v>
+        <v>4.7032072339820558E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.3981133028276362E-4</v>
+        <v>4.7135545011319722E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.3960459654073496E-4</v>
+        <v>4.7215508696463892E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.3945697770705547E-4</v>
+        <v>4.730119981602886E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.3919624527100954E-4</v>
+        <v>4.737905892831368E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.3913823303573507E-4</v>
+        <v>4.7491927991846777E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>4.3909651675542918E-4</v>
+        <v>4.7615242132589445E-4</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -17328,97 +17340,97 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>3.8868922094850749E-4</v>
+        <v>3.8868922094850746E-5</v>
       </c>
       <c r="E14" s="4">
-        <v>3.8835964956971156E-4</v>
+        <v>3.8835964956971156E-5</v>
       </c>
       <c r="F14" s="4">
-        <v>3.8810530909215343E-4</v>
+        <v>3.8810530909215343E-5</v>
       </c>
       <c r="G14" s="4">
-        <v>3.8794345419032003E-4</v>
+        <v>3.8794345419032002E-5</v>
       </c>
       <c r="H14" s="4">
-        <v>3.8779756085887974E-4</v>
+        <v>3.8779756085887973E-5</v>
       </c>
       <c r="I14" s="4">
-        <v>3.8768659775611613E-4</v>
+        <v>3.8768659775611612E-5</v>
       </c>
       <c r="J14" s="4">
-        <v>3.8756372155893972E-4</v>
+        <v>3.8756372155893972E-5</v>
       </c>
       <c r="K14" s="4">
-        <v>3.8743413448561116E-4</v>
+        <v>3.8743413448561118E-5</v>
       </c>
       <c r="L14" s="4">
-        <v>3.8741625203614658E-4</v>
+        <v>3.8741625203614656E-5</v>
       </c>
       <c r="M14" s="4">
-        <v>3.8738694289951122E-4</v>
+        <v>3.873869428995112E-5</v>
       </c>
       <c r="N14" s="4">
-        <v>3.8727323156960051E-4</v>
+        <v>3.8727323156960051E-5</v>
       </c>
       <c r="O14" s="4">
-        <v>3.872801832305252E-4</v>
+        <v>3.872801832305252E-5</v>
       </c>
       <c r="P14" s="4">
-        <v>3.8723285633958973E-4</v>
+        <v>3.8723285633958972E-5</v>
       </c>
       <c r="Q14" s="4">
-        <v>3.8719654146009873E-4</v>
+        <v>3.8719654146009875E-5</v>
       </c>
       <c r="R14" s="4">
-        <v>3.8712836957078314E-4</v>
+        <v>3.8712836957078314E-5</v>
       </c>
       <c r="S14" s="4">
-        <v>3.8710174375942578E-4</v>
+        <v>3.871017437594258E-5</v>
       </c>
       <c r="T14" s="4">
-        <v>3.8701959513390749E-4</v>
+        <v>3.8701959513390746E-5</v>
       </c>
       <c r="U14" s="4">
-        <v>3.8693459130790495E-4</v>
+        <v>3.8693459130790492E-5</v>
       </c>
       <c r="V14" s="4">
-        <v>3.8684314096127021E-4</v>
+        <v>3.8684314096127021E-5</v>
       </c>
       <c r="W14" s="4">
-        <v>3.8675224209457141E-4</v>
+        <v>3.8675224209457144E-5</v>
       </c>
       <c r="X14" s="4">
-        <v>3.8662639724460569E-4</v>
+        <v>3.8662639724460569E-5</v>
       </c>
       <c r="Y14" s="4">
-        <v>3.8650753548999096E-4</v>
+        <v>3.8650753548999096E-5</v>
       </c>
       <c r="Z14" s="4">
-        <v>3.8637937383671609E-4</v>
+        <v>3.8637937383671609E-5</v>
       </c>
       <c r="AA14" s="4">
-        <v>3.8623677194928995E-4</v>
+        <v>3.8623677194928998E-5</v>
       </c>
       <c r="AB14" s="4">
-        <v>3.8608334518532407E-4</v>
+        <v>3.8608334518532409E-5</v>
       </c>
       <c r="AC14" s="4">
-        <v>3.8590701122559256E-4</v>
+        <v>3.8590701122559256E-5</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.8573556454320505E-4</v>
+        <v>3.8573556454320506E-5</v>
       </c>
       <c r="AE14" s="4">
-        <v>3.8555651429608934E-4</v>
+        <v>3.8555651429608931E-5</v>
       </c>
       <c r="AF14" s="4">
-        <v>3.8536129241038667E-4</v>
+        <v>3.8536129241038666E-5</v>
       </c>
       <c r="AG14" s="4">
-        <v>3.8512787391125356E-4</v>
+        <v>3.8512787391125357E-5</v>
       </c>
       <c r="AH14" s="4">
-        <v>3.8487689875144672E-4</v>
+        <v>3.8487689875144674E-5</v>
       </c>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -17544,97 +17556,97 @@
         <v>5</v>
       </c>
       <c r="D16" s="4">
-        <v>3.4893709999999998E-3</v>
+        <v>3.4893709999999999E-4</v>
       </c>
       <c r="E16" s="4">
-        <v>3.5120030000000001E-3</v>
+        <v>3.5120030000000002E-4</v>
       </c>
       <c r="F16" s="4">
-        <v>3.5347819999999998E-3</v>
+        <v>3.5347819999999997E-4</v>
       </c>
       <c r="G16" s="4">
-        <v>3.55771E-3</v>
+        <v>3.5577100000000001E-4</v>
       </c>
       <c r="H16" s="4">
-        <v>3.580785E-3</v>
+        <v>3.5807850000000002E-4</v>
       </c>
       <c r="I16" s="4">
-        <v>3.6040100000000004E-3</v>
+        <v>3.6040100000000005E-4</v>
       </c>
       <c r="J16" s="4">
-        <v>3.6273859999999998E-3</v>
+        <v>3.6273859999999997E-4</v>
       </c>
       <c r="K16" s="4">
-        <v>3.6509140000000003E-3</v>
+        <v>3.6509140000000003E-4</v>
       </c>
       <c r="L16" s="4">
-        <v>3.6745939999999998E-3</v>
+        <v>3.6745939999999997E-4</v>
       </c>
       <c r="M16" s="4">
-        <v>3.6984279999999997E-3</v>
+        <v>3.6984279999999995E-4</v>
       </c>
       <c r="N16" s="4">
-        <v>3.7224160000000001E-3</v>
+        <v>3.7224160000000003E-4</v>
       </c>
       <c r="O16" s="4">
-        <v>3.7465599999999999E-3</v>
+        <v>3.7465600000000001E-4</v>
       </c>
       <c r="P16" s="4">
-        <v>3.77086E-3</v>
+        <v>3.77086E-4</v>
       </c>
       <c r="Q16" s="4">
-        <v>3.7953179999999998E-3</v>
+        <v>3.7953179999999996E-4</v>
       </c>
       <c r="R16" s="4">
-        <v>3.819935E-3</v>
+        <v>3.8199350000000002E-4</v>
       </c>
       <c r="S16" s="4">
-        <v>3.8447119999999997E-3</v>
+        <v>3.8447119999999996E-4</v>
       </c>
       <c r="T16" s="4">
-        <v>3.8696489999999997E-3</v>
+        <v>3.8696489999999999E-4</v>
       </c>
       <c r="U16" s="4">
-        <v>3.894748E-3</v>
+        <v>3.8947480000000001E-4</v>
       </c>
       <c r="V16" s="4">
-        <v>3.9200089999999995E-3</v>
+        <v>3.9200089999999997E-4</v>
       </c>
       <c r="W16" s="4">
-        <v>3.9454349999999997E-3</v>
+        <v>3.9454349999999997E-4</v>
       </c>
       <c r="X16" s="4">
-        <v>3.9710250000000004E-3</v>
+        <v>3.9710250000000004E-4</v>
       </c>
       <c r="Y16" s="4">
-        <v>3.9967819999999999E-3</v>
+        <v>3.996782E-4</v>
       </c>
       <c r="Z16" s="4">
-        <v>4.0227050000000006E-3</v>
+        <v>4.0227050000000004E-4</v>
       </c>
       <c r="AA16" s="4">
-        <v>4.0487970000000007E-3</v>
+        <v>4.0487970000000005E-4</v>
       </c>
       <c r="AB16" s="4">
-        <v>4.0750580000000003E-3</v>
+        <v>4.0750580000000001E-4</v>
       </c>
       <c r="AC16" s="4">
-        <v>4.1014889999999998E-3</v>
+        <v>4.1014889999999997E-4</v>
       </c>
       <c r="AD16" s="4">
-        <v>4.1280910000000004E-3</v>
+        <v>4.1280910000000002E-4</v>
       </c>
       <c r="AE16" s="4">
-        <v>4.1548660000000001E-3</v>
+        <v>4.154866E-4</v>
       </c>
       <c r="AF16" s="4">
-        <v>4.1818150000000002E-3</v>
+        <v>4.1818150000000001E-4</v>
       </c>
       <c r="AG16" s="4">
-        <v>4.2089390000000001E-3</v>
+        <v>4.2089390000000002E-4</v>
       </c>
       <c r="AH16" s="4">
-        <v>4.2362379999999998E-3</v>
+        <v>4.2362379999999998E-4</v>
       </c>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
@@ -18864,14 +18876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18982,16 +18994,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.2405209526886144E-3</v>
+        <v>1.2405209526886144E-4</v>
       </c>
       <c r="C5">
-        <v>4.2438874697242065E-4</v>
+        <v>4.2438874697242062E-5</v>
       </c>
       <c r="D5">
-        <v>4.2438874697242065E-4</v>
+        <v>4.2438874697242062E-5</v>
       </c>
       <c r="E5">
-        <v>4.2438874697242065E-4</v>
+        <v>4.2438874697242062E-5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19000,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.2731662409172617E-3</v>
+        <v>1.2731662409172617E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -19164,16 +19176,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1.1140743815291445E-2</v>
+        <v>1.1140743815291445E-3</v>
       </c>
       <c r="C13">
-        <v>3.4668839999999999E-3</v>
+        <v>3.4668839999999997E-4</v>
       </c>
       <c r="D13">
-        <v>3.4668839999999999E-3</v>
+        <v>3.4668839999999997E-4</v>
       </c>
       <c r="E13">
-        <v>3.4668839999999999E-3</v>
+        <v>3.4668839999999997E-4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -19182,7 +19194,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.0400651999999998E-2</v>
+        <v>1.0400651999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -19243,14 +19255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19263,7 +19275,7 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="13">
         <v>0.68595041322314043</v>
       </c>
     </row>
@@ -19271,7 +19283,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="13">
         <v>0.68881036513545346</v>
       </c>
     </row>
@@ -19285,7 +19297,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -19299,7 +19311,7 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>13.378781688359696</v>
       </c>
     </row>
@@ -19339,7 +19351,7 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>17.22332068760786</v>
       </c>
     </row>
@@ -19350,18 +19362,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19369,7 +19381,6 @@
         <v>49</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="6"/>
       <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
@@ -19381,8 +19392,7 @@
       <c r="B2">
         <v>1.67</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -19393,7 +19403,6 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
@@ -19402,7 +19411,6 @@
       <c r="B4">
         <v>21.2</v>
       </c>
-      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
@@ -19411,7 +19419,6 @@
       <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
@@ -19420,7 +19427,6 @@
       <c r="B6">
         <v>48.656731685074099</v>
       </c>
-      <c r="C6" s="6"/>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
@@ -19476,7 +19482,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="23"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13">
@@ -19489,11 +19495,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="22" customFormat="1">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:38" s="14" customFormat="1">
+      <c r="A14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="24" t="s">
         <v>88</v>
       </c>
     </row>
@@ -19519,7 +19525,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>4.010435677007162E-4</v>
+        <v>3.7068404566156505E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19537,8 +19543,8 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B20">
@@ -19547,7 +19553,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B21">
@@ -19555,8 +19561,8 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:4" ht="30">
+      <c r="A22" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B22">
@@ -19577,10 +19583,10 @@
       <c r="A25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="16">
         <v>0.2</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -19588,16 +19594,16 @@
       <c r="A26" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="16">
         <v>0.6</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27">
         <f>B26/B25</f>
         <v>2.9999999999999996</v>
       </c>
@@ -19615,10 +19621,10 @@
       <c r="A30" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="17">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -19626,11 +19632,11 @@
       <c r="A31" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31">
         <f>1-B30</f>
         <v>0.77500000000000002</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19639,19 +19645,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" customWidth="1"/>
-    <col min="39" max="39" width="9.1328125" style="13"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19751,19 +19757,19 @@
       <c r="AH1">
         <v>2014</v>
       </c>
-      <c r="AI1" s="20">
+      <c r="AI1">
         <v>2015</v>
       </c>
-      <c r="AJ1" s="20">
+      <c r="AJ1">
         <v>2016</v>
       </c>
-      <c r="AK1" s="20">
+      <c r="AK1">
         <v>2017</v>
       </c>
-      <c r="AL1" s="20">
+      <c r="AL1">
         <v>2018</v>
       </c>
-      <c r="AM1" s="13">
+      <c r="AM1" s="10">
         <v>2019</v>
       </c>
       <c r="AN1">
@@ -19867,207 +19873,207 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="17">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="4">
         <f>Calculations!C16</f>
         <v>3.142498616321923E-4</v>
       </c>
-      <c r="AB2" s="17">
+      <c r="AB2" s="4">
         <f>($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AA2</f>
-        <v>3.2092630056054029E-4</v>
-      </c>
-      <c r="AC2" s="17">
+        <v>3.1859095271137485E-4</v>
+      </c>
+      <c r="AC2" s="4">
         <f t="shared" ref="AC2:AM2" si="0">($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AB2</f>
-        <v>3.2760273948888828E-4</v>
-      </c>
-      <c r="AD2" s="17">
-        <f t="shared" si="0"/>
-        <v>3.3427917841723627E-4</v>
-      </c>
-      <c r="AE2" s="17">
-        <f t="shared" si="0"/>
-        <v>3.4095561734558426E-4</v>
-      </c>
-      <c r="AF2" s="17">
-        <f t="shared" si="0"/>
-        <v>3.4763205627393225E-4</v>
-      </c>
-      <c r="AG2" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5430849520228023E-4</v>
-      </c>
-      <c r="AH2" s="17">
-        <f t="shared" si="0"/>
-        <v>3.6098493413062822E-4</v>
-      </c>
-      <c r="AI2" s="17">
-        <f t="shared" si="0"/>
-        <v>3.6766137305897621E-4</v>
-      </c>
-      <c r="AJ2" s="17">
-        <f t="shared" si="0"/>
-        <v>3.743378119873242E-4</v>
-      </c>
-      <c r="AK2" s="17">
-        <f t="shared" si="0"/>
-        <v>3.8101425091567219E-4</v>
-      </c>
-      <c r="AL2" s="17">
-        <f t="shared" si="0"/>
-        <v>3.8769068984402017E-4</v>
-      </c>
-      <c r="AM2" s="31">
-        <f t="shared" si="0"/>
-        <v>3.9436712877236816E-4</v>
-      </c>
-      <c r="AN2" s="15">
+        <v>3.2293204379055739E-4</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2727313486973994E-4</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3161422594892248E-4</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3595531702810503E-4</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4029640810728757E-4</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4463749918647011E-4</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4897859026565266E-4</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.533196813448352E-4</v>
+      </c>
+      <c r="AK2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5766077242401775E-4</v>
+      </c>
+      <c r="AL2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6200186350320029E-4</v>
+      </c>
+      <c r="AM2" s="21">
+        <f t="shared" si="0"/>
+        <v>3.6634295458238284E-4</v>
+      </c>
+      <c r="AN2" s="11">
         <f>BNVFE!D8</f>
-        <v>4.010435677007162E-4</v>
-      </c>
-      <c r="AO2" s="15">
+        <v>3.7068404566156505E-4</v>
+      </c>
+      <c r="AO2" s="11">
         <f>BNVFE!E8</f>
-        <v>4.1543936179917892E-4</v>
-      </c>
-      <c r="AP2" s="15">
+        <v>3.8286968063361244E-4</v>
+      </c>
+      <c r="AP2" s="11">
         <f>BNVFE!F8</f>
-        <v>4.232456921304615E-4</v>
-      </c>
-      <c r="AQ2" s="15">
+        <v>3.8999540362380768E-4</v>
+      </c>
+      <c r="AQ2" s="11">
         <f>BNVFE!G8</f>
-        <v>4.284224989356039E-4</v>
-      </c>
-      <c r="AR2" s="15">
+        <v>3.9439145706872869E-4</v>
+      </c>
+      <c r="AR2" s="11">
         <f>BNVFE!H8</f>
-        <v>4.3223887309206766E-4</v>
-      </c>
-      <c r="AS2" s="15">
+        <v>3.9758791642567675E-4</v>
+      </c>
+      <c r="AS2" s="11">
         <f>BNVFE!I8</f>
-        <v>4.3661930301858122E-4</v>
-      </c>
-      <c r="AT2" s="15">
+        <v>4.1670440259151796E-4</v>
+      </c>
+      <c r="AT2" s="11">
         <f>BNVFE!J8</f>
-        <v>4.4073837767711228E-4</v>
-      </c>
-      <c r="AU2" s="15">
+        <v>4.5449874343080136E-4</v>
+      </c>
+      <c r="AU2" s="11">
         <f>BNVFE!K8</f>
-        <v>4.4130433819121803E-4</v>
-      </c>
-      <c r="AV2" s="15">
+        <v>4.5571840174311271E-4</v>
+      </c>
+      <c r="AV2" s="11">
         <f>BNVFE!L8</f>
-        <v>4.4139330713525239E-4</v>
-      </c>
-      <c r="AW2" s="15">
+        <v>4.5632492494806224E-4</v>
+      </c>
+      <c r="AW2" s="11">
         <f>BNVFE!M8</f>
-        <v>4.4143859386227608E-4</v>
-      </c>
-      <c r="AX2" s="15">
+        <v>4.5682343934192723E-4</v>
+      </c>
+      <c r="AX2" s="11">
         <f>BNVFE!N8</f>
-        <v>4.4252278985937798E-4</v>
-      </c>
-      <c r="AY2" s="15">
+        <v>4.5864796428233097E-4</v>
+      </c>
+      <c r="AY2" s="11">
         <f>BNVFE!O8</f>
-        <v>4.4258101673758966E-4</v>
-      </c>
-      <c r="AZ2" s="15">
+        <v>4.5942511490356416E-4</v>
+      </c>
+      <c r="AZ2" s="11">
         <f>BNVFE!P8</f>
-        <v>4.4262644410952699E-4</v>
-      </c>
-      <c r="BA2" s="15">
+        <v>4.6038567019040524E-4</v>
+      </c>
+      <c r="BA2" s="11">
         <f>BNVFE!Q8</f>
-        <v>4.4263525674443374E-4</v>
-      </c>
-      <c r="BB2" s="15">
+        <v>4.6137990440500237E-4</v>
+      </c>
+      <c r="BB2" s="11">
         <f>BNVFE!R8</f>
-        <v>4.428907913418545E-4</v>
-      </c>
-      <c r="BC2" s="15">
+        <v>4.627584500454361E-4</v>
+      </c>
+      <c r="BC2" s="11">
         <f>BNVFE!S8</f>
-        <v>4.4235185104972023E-4</v>
-      </c>
-      <c r="BD2" s="15">
+        <v>4.6332164296180965E-4</v>
+      </c>
+      <c r="BD2" s="11">
         <f>BNVFE!T8</f>
-        <v>4.4180682000362565E-4</v>
-      </c>
-      <c r="BE2" s="15">
+        <v>4.6388593065941057E-4</v>
+      </c>
+      <c r="BE2" s="11">
         <f>BNVFE!U8</f>
-        <v>4.415169210975881E-4</v>
-      </c>
-      <c r="BF2" s="15">
+        <v>4.6479081055883617E-4</v>
+      </c>
+      <c r="BF2" s="11">
         <f>BNVFE!V8</f>
-        <v>4.4141525513386555E-4</v>
-      </c>
-      <c r="BG2" s="15">
+        <v>4.6598088096797761E-4</v>
+      </c>
+      <c r="BG2" s="11">
         <f>BNVFE!W8</f>
-        <v>4.4094858868260617E-4</v>
-      </c>
-      <c r="BH2" s="15">
+        <v>4.6672534660756901E-4</v>
+      </c>
+      <c r="BH2" s="11">
         <f>BNVFE!X8</f>
-        <v>4.406528424788466E-4</v>
-      </c>
-      <c r="BI2" s="15">
+        <v>4.6768413007742366E-4</v>
+      </c>
+      <c r="BI2" s="11">
         <f>BNVFE!Y8</f>
-        <v>4.4046477188487546E-4</v>
-      </c>
-      <c r="BJ2" s="15">
+        <v>4.6835837126328925E-4</v>
+      </c>
+      <c r="BJ2" s="11">
         <f>BNVFE!Z8</f>
-        <v>4.4016736396697124E-4</v>
-      </c>
-      <c r="BK2" s="15">
+        <v>4.6888408232764332E-4</v>
+      </c>
+      <c r="BK2" s="11">
         <f>BNVFE!AA8</f>
-        <v>4.3991921468742256E-4</v>
-      </c>
-      <c r="BL2" s="15">
+        <v>4.6949898925199146E-4</v>
+      </c>
+      <c r="BL2" s="11">
         <f>BNVFE!AB8</f>
-        <v>4.3980677282836695E-4</v>
-      </c>
-      <c r="BM2" s="15">
+        <v>4.7032072339820558E-4</v>
+      </c>
+      <c r="BM2" s="11">
         <f>BNVFE!AC8</f>
-        <v>4.3981133028276362E-4</v>
-      </c>
-      <c r="BN2" s="15">
+        <v>4.7135545011319722E-4</v>
+      </c>
+      <c r="BN2" s="11">
         <f>BNVFE!AD8</f>
-        <v>4.3960459654073496E-4</v>
-      </c>
-      <c r="BO2" s="15">
+        <v>4.7215508696463892E-4</v>
+      </c>
+      <c r="BO2" s="11">
         <f>BNVFE!AE8</f>
-        <v>4.3945697770705547E-4</v>
-      </c>
-      <c r="BP2" s="15">
+        <v>4.730119981602886E-4</v>
+      </c>
+      <c r="BP2" s="11">
         <f>BNVFE!AF8</f>
-        <v>4.3919624527100954E-4</v>
-      </c>
-      <c r="BQ2" s="15">
+        <v>4.737905892831368E-4</v>
+      </c>
+      <c r="BQ2" s="11">
         <f>BNVFE!AG8</f>
-        <v>4.3913823303573507E-4</v>
-      </c>
-      <c r="BR2" s="15">
+        <v>4.7491927991846777E-4</v>
+      </c>
+      <c r="BR2" s="11">
         <f>BNVFE!AH8</f>
-        <v>4.3909651675542918E-4</v>
-      </c>
-      <c r="BS2" s="15"/>
+        <v>4.7615242132589445E-4</v>
+      </c>
+      <c r="BS2" s="11"/>
       <c r="BT2" s="4"/>
     </row>
     <row r="3" spans="1:72">
@@ -20077,207 +20083,207 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="17" cm="1">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="4" cm="1">
         <f t="array" ref="AA3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AA1)</f>
         <v>1.1709920537385831E-4</v>
       </c>
-      <c r="AB3" s="17" cm="1">
+      <c r="AB3" s="4" cm="1">
         <f t="array" ref="AB3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AB1)</f>
         <v>1.1699905164334643E-4</v>
       </c>
-      <c r="AC3" s="17" cm="1">
+      <c r="AC3" s="4" cm="1">
         <f t="array" ref="AC3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AC1)</f>
         <v>1.1689889791283454E-4</v>
       </c>
-      <c r="AD3" s="17" cm="1">
+      <c r="AD3" s="4" cm="1">
         <f t="array" ref="AD3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AD1)</f>
         <v>1.1679874418232269E-4</v>
       </c>
-      <c r="AE3" s="17" cm="1">
+      <c r="AE3" s="4" cm="1">
         <f t="array" ref="AE3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AE1)</f>
         <v>1.166985904518108E-4</v>
       </c>
-      <c r="AF3" s="17" cm="1">
+      <c r="AF3" s="4" cm="1">
         <f t="array" ref="AF3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AF1)</f>
         <v>1.1659843672129892E-4</v>
       </c>
-      <c r="AG3" s="17" cm="1">
+      <c r="AG3" s="4" cm="1">
         <f t="array" ref="AG3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AG1)</f>
         <v>1.1649828299078704E-4</v>
       </c>
-      <c r="AH3" s="17" cm="1">
+      <c r="AH3" s="4" cm="1">
         <f t="array" ref="AH3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AH1)</f>
         <v>1.1639812926027518E-4</v>
       </c>
-      <c r="AI3" s="17" cm="1">
+      <c r="AI3" s="4" cm="1">
         <f t="array" ref="AI3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AI1)</f>
         <v>1.1629797552976329E-4</v>
       </c>
-      <c r="AJ3" s="17" cm="1">
+      <c r="AJ3" s="4" cm="1">
         <f t="array" ref="AJ3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AJ1)</f>
         <v>1.1619782179925141E-4</v>
       </c>
-      <c r="AK3" s="17" cm="1">
+      <c r="AK3" s="4" cm="1">
         <f t="array" ref="AK3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AK1)</f>
         <v>1.1609766806873955E-4</v>
       </c>
-      <c r="AL3" s="17" cm="1">
+      <c r="AL3" s="4" cm="1">
         <f t="array" ref="AL3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AL1)</f>
         <v>1.1599751433822767E-4</v>
       </c>
-      <c r="AM3" s="41" cm="1">
+      <c r="AM3" s="28" cm="1">
         <f t="array" ref="AM3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AM1)</f>
         <v>1.1589736060771579E-4</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AN3" s="11">
         <f>BNVFE!D9</f>
         <v>1.157863591831631E-4</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="11">
         <f>BNVFE!E9</f>
         <v>1.1589922337335911E-4</v>
       </c>
-      <c r="AP3" s="15">
+      <c r="AP3" s="11">
         <f>BNVFE!F9</f>
         <v>1.1538533736033749E-4</v>
       </c>
-      <c r="AQ3" s="15">
+      <c r="AQ3" s="11">
         <f>BNVFE!G9</f>
         <v>1.1535674989351573E-4</v>
       </c>
-      <c r="AR3" s="15">
+      <c r="AR3" s="11">
         <f>BNVFE!H9</f>
         <v>1.1555682727052541E-4</v>
       </c>
-      <c r="AS3" s="15">
+      <c r="AS3" s="11">
         <f>BNVFE!I9</f>
         <v>1.1619447640903485E-4</v>
       </c>
-      <c r="AT3" s="15">
+      <c r="AT3" s="11">
         <f>BNVFE!J9</f>
         <v>1.1675875263243092E-4</v>
       </c>
-      <c r="AU3" s="15">
+      <c r="AU3" s="11">
         <f>BNVFE!K9</f>
         <v>1.170886675606406E-4</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="AV3" s="11">
         <f>BNVFE!L9</f>
         <v>1.1617580985063572E-4</v>
       </c>
-      <c r="AW3" s="15">
+      <c r="AW3" s="11">
         <f>BNVFE!M9</f>
         <v>1.1591329821118029E-4</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="11">
         <f>BNVFE!N9</f>
         <v>1.1553838100461461E-4</v>
       </c>
-      <c r="AY3" s="15">
+      <c r="AY3" s="11">
         <f>BNVFE!O9</f>
         <v>1.1496830903628264E-4</v>
       </c>
-      <c r="AZ3" s="15">
+      <c r="AZ3" s="11">
         <f>BNVFE!P9</f>
         <v>1.1417779457660161E-4</v>
       </c>
-      <c r="BA3" s="15">
+      <c r="BA3" s="11">
         <f>BNVFE!Q9</f>
         <v>1.1321126528769265E-4</v>
       </c>
-      <c r="BB3" s="15">
+      <c r="BB3" s="11">
         <f>BNVFE!R9</f>
         <v>1.1235905420307894E-4</v>
       </c>
-      <c r="BC3" s="15">
+      <c r="BC3" s="11">
         <f>BNVFE!S9</f>
         <v>1.113973304748738E-4</v>
       </c>
-      <c r="BD3" s="15">
+      <c r="BD3" s="11">
         <f>BNVFE!T9</f>
         <v>1.1073582017040977E-4</v>
       </c>
-      <c r="BE3" s="15">
+      <c r="BE3" s="11">
         <f>BNVFE!U9</f>
         <v>1.099531339020346E-4</v>
       </c>
-      <c r="BF3" s="15">
+      <c r="BF3" s="11">
         <f>BNVFE!V9</f>
         <v>1.0948773622007766E-4</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="11">
         <f>BNVFE!W9</f>
         <v>1.0913516582552083E-4</v>
       </c>
-      <c r="BH3" s="15">
+      <c r="BH3" s="11">
         <f>BNVFE!X9</f>
         <v>1.0884247723484658E-4</v>
       </c>
-      <c r="BI3" s="15">
+      <c r="BI3" s="11">
         <f>BNVFE!Y9</f>
         <v>1.085933825763662E-4</v>
       </c>
-      <c r="BJ3" s="15">
+      <c r="BJ3" s="11">
         <f>BNVFE!Z9</f>
         <v>1.083443267474224E-4</v>
       </c>
-      <c r="BK3" s="15">
+      <c r="BK3" s="11">
         <f>BNVFE!AA9</f>
         <v>1.0815629409531245E-4</v>
       </c>
-      <c r="BL3" s="15">
+      <c r="BL3" s="11">
         <f>BNVFE!AB9</f>
         <v>1.0799885128162017E-4</v>
       </c>
-      <c r="BM3" s="15">
+      <c r="BM3" s="11">
         <f>BNVFE!AC9</f>
         <v>1.078432358858381E-4</v>
       </c>
-      <c r="BN3" s="15">
+      <c r="BN3" s="11">
         <f>BNVFE!AD9</f>
         <v>1.0772424981274788E-4</v>
       </c>
-      <c r="BO3" s="15">
+      <c r="BO3" s="11">
         <f>BNVFE!AE9</f>
         <v>1.0749204222981193E-4</v>
       </c>
-      <c r="BP3" s="15">
+      <c r="BP3" s="11">
         <f>BNVFE!AF9</f>
         <v>1.0725768900406794E-4</v>
       </c>
-      <c r="BQ3" s="15">
+      <c r="BQ3" s="11">
         <f>BNVFE!AG9</f>
         <v>1.0704107117361582E-4</v>
       </c>
-      <c r="BR3" s="15">
+      <c r="BR3" s="11">
         <f>BNVFE!AH9</f>
         <v>1.0682755170917861E-4</v>
       </c>
-      <c r="BS3" s="15"/>
+      <c r="BS3" s="11"/>
       <c r="BT3" s="4"/>
     </row>
     <row r="4" spans="1:72">
@@ -20287,252 +20293,252 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="17">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="4">
         <f>L5/M5*M4</f>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="4">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="4">
         <f t="shared" si="1"/>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="4">
         <f t="shared" si="1"/>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="4">
         <f t="shared" si="1"/>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="4">
         <f t="shared" si="1"/>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="4">
         <f t="shared" si="1"/>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="4">
         <f t="shared" si="1"/>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="4">
         <f t="shared" si="1"/>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="4">
         <f t="shared" si="1"/>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="4">
         <f t="shared" si="1"/>
         <v>1.0544082239246518E-3</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="4">
         <f t="shared" si="1"/>
         <v>1.0507727694715886E-3</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="4">
         <f t="shared" si="1"/>
         <v>1.0471373150185254E-3</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="4">
         <f t="shared" si="1"/>
         <v>1.0435018605654625E-3</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="4">
         <f t="shared" si="1"/>
         <v>1.0398664061123993E-3</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="4">
         <f t="shared" si="1"/>
         <v>1.0362309516593362E-3</v>
       </c>
-      <c r="AB4" s="17">
+      <c r="AB4" s="4">
         <f t="shared" si="1"/>
         <v>1.032595497206273E-3</v>
       </c>
-      <c r="AC4" s="17">
+      <c r="AC4" s="4">
         <f t="shared" si="1"/>
         <v>1.0289600427532098E-3</v>
       </c>
-      <c r="AD4" s="17">
+      <c r="AD4" s="4">
         <f t="shared" si="1"/>
         <v>1.0253245883001466E-3</v>
       </c>
-      <c r="AE4" s="17">
+      <c r="AE4" s="4">
         <f t="shared" si="1"/>
         <v>1.0216891338470835E-3</v>
       </c>
-      <c r="AF4" s="17">
+      <c r="AF4" s="4">
         <f t="shared" si="1"/>
         <v>1.0180536793940205E-3</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AG4" s="4">
         <f>AG5/AH5*AH4</f>
         <v>1.0144182249409574E-3</v>
       </c>
-      <c r="AH4" s="17">
+      <c r="AH4" s="4">
         <f t="shared" si="1"/>
         <v>1.0107827704878942E-3</v>
       </c>
-      <c r="AI4" s="17">
+      <c r="AI4" s="4">
         <f t="shared" si="1"/>
         <v>1.0071473160348312E-3</v>
       </c>
-      <c r="AJ4" s="17">
+      <c r="AJ4" s="4">
         <f>AJ5/AK5*AK4</f>
         <v>1.0035118615817681E-3</v>
       </c>
-      <c r="AK4" s="30">
+      <c r="AK4" s="20">
         <f>AK5/AL5*AL4</f>
         <v>9.998764071287049E-4</v>
       </c>
-      <c r="AL4" s="30">
+      <c r="AL4" s="20">
         <f>AL5/AM5*AM4</f>
         <v>9.9624095267564173E-4</v>
       </c>
-      <c r="AM4" s="31">
+      <c r="AM4" s="21">
         <f>AM5/AN5*AN4</f>
         <v>9.9260549822257856E-4</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="AN4" s="11">
         <f>BNVFE!D10</f>
         <v>9.8533458931645266E-4</v>
       </c>
-      <c r="AO4" s="15">
+      <c r="AO4" s="11">
         <f>BNVFE!E10</f>
         <v>9.988021364476826E-4</v>
       </c>
-      <c r="AP4" s="15">
+      <c r="AP4" s="11">
         <f>BNVFE!F10</f>
         <v>1.0144915989479513E-3</v>
       </c>
-      <c r="AQ4" s="15">
+      <c r="AQ4" s="11">
         <f>BNVFE!G10</f>
         <v>1.0338641499362739E-3</v>
       </c>
-      <c r="AR4" s="15">
+      <c r="AR4" s="11">
         <f>BNVFE!H10</f>
         <v>1.0578483957153595E-3</v>
       </c>
-      <c r="AS4" s="15">
+      <c r="AS4" s="11">
         <f>BNVFE!I10</f>
         <v>1.0855563574924357E-3</v>
       </c>
-      <c r="AT4" s="15">
+      <c r="AT4" s="11">
         <f>BNVFE!J10</f>
         <v>1.1154933208321449E-3</v>
       </c>
-      <c r="AU4" s="15">
+      <c r="AU4" s="11">
         <f>BNVFE!K10</f>
         <v>1.146433059300843E-3</v>
       </c>
-      <c r="AV4" s="15">
+      <c r="AV4" s="11">
         <f>BNVFE!L10</f>
         <v>1.162195430859642E-3</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="AW4" s="11">
         <f>BNVFE!M10</f>
         <v>1.1852372128907688E-3</v>
       </c>
-      <c r="AX4" s="15">
+      <c r="AX4" s="11">
         <f>BNVFE!N10</f>
         <v>1.2047747934543398E-3</v>
       </c>
-      <c r="AY4" s="15">
+      <c r="AY4" s="11">
         <f>BNVFE!O10</f>
         <v>1.2221312436297778E-3</v>
       </c>
-      <c r="AZ4" s="15">
+      <c r="AZ4" s="11">
         <f>BNVFE!P10</f>
         <v>1.2324377185343545E-3</v>
       </c>
-      <c r="BA4" s="15">
+      <c r="BA4" s="11">
         <f>BNVFE!Q10</f>
         <v>1.2337189023360906E-3</v>
       </c>
-      <c r="BB4" s="15">
+      <c r="BB4" s="11">
         <f>BNVFE!R10</f>
         <v>1.2346974269358923E-3</v>
       </c>
-      <c r="BC4" s="15">
+      <c r="BC4" s="11">
         <f>BNVFE!S10</f>
         <v>1.2348004129494538E-3</v>
       </c>
-      <c r="BD4" s="15">
+      <c r="BD4" s="11">
         <f>BNVFE!T10</f>
         <v>1.2352948717913239E-3</v>
       </c>
-      <c r="BE4" s="15">
+      <c r="BE4" s="11">
         <f>BNVFE!U10</f>
         <v>1.2357035089552255E-3</v>
       </c>
-      <c r="BF4" s="15">
+      <c r="BF4" s="11">
         <f>BNVFE!V10</f>
         <v>1.2358091719752555E-3</v>
       </c>
-      <c r="BG4" s="15">
+      <c r="BG4" s="11">
         <f>BNVFE!W10</f>
         <v>1.2356633538581946E-3</v>
       </c>
-      <c r="BH4" s="15">
+      <c r="BH4" s="11">
         <f>BNVFE!X10</f>
         <v>1.2356553228387885E-3</v>
       </c>
-      <c r="BI4" s="15">
+      <c r="BI4" s="11">
         <f>BNVFE!Y10</f>
         <v>1.2356638262711007E-3</v>
       </c>
-      <c r="BJ4" s="15">
+      <c r="BJ4" s="11">
         <f>BNVFE!Z10</f>
         <v>1.2356742193550382E-3</v>
       </c>
-      <c r="BK4" s="15">
+      <c r="BK4" s="11">
         <f>BNVFE!AA10</f>
         <v>1.2356002079997265E-3</v>
       </c>
-      <c r="BL4" s="15">
+      <c r="BL4" s="11">
         <f>BNVFE!AB10</f>
         <v>1.2356762664776318E-3</v>
       </c>
-      <c r="BM4" s="15">
+      <c r="BM4" s="11">
         <f>BNVFE!AC10</f>
         <v>1.2358724753046924E-3</v>
       </c>
-      <c r="BN4" s="15">
+      <c r="BN4" s="11">
         <f>BNVFE!AD10</f>
         <v>1.2358611373949426E-3</v>
       </c>
-      <c r="BO4" s="15">
+      <c r="BO4" s="11">
         <f>BNVFE!AE10</f>
         <v>1.236194345964814E-3</v>
       </c>
-      <c r="BP4" s="15">
+      <c r="BP4" s="11">
         <f>BNVFE!AF10</f>
         <v>1.2367163622262144E-3</v>
       </c>
-      <c r="BQ4" s="15">
+      <c r="BQ4" s="11">
         <f>BNVFE!AG10</f>
         <v>1.2373051461783645E-3</v>
       </c>
-      <c r="BR4" s="15">
+      <c r="BR4" s="11">
         <f>BNVFE!AH10</f>
         <v>1.2379718782600448E-3</v>
       </c>
-      <c r="BS4" s="15"/>
+      <c r="BS4" s="11"/>
       <c r="BT4" s="4"/>
     </row>
     <row r="5" spans="1:72">
@@ -20542,252 +20548,252 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="17">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="4">
         <f>M5</f>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="4">
         <f t="shared" ref="M5:T5" si="2">N5</f>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="4">
         <f t="shared" si="2"/>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="4">
         <f t="shared" si="2"/>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="4">
         <f t="shared" si="2"/>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="4">
         <f t="shared" si="2"/>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="4">
         <f t="shared" si="2"/>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="4">
         <f t="shared" si="2"/>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="4">
         <f t="shared" si="2"/>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="4">
         <f>V5</f>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="V5" s="40">
+      <c r="V5" s="27">
         <f>Calculations!B22</f>
         <v>7.8040477200267344E-4</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="4">
         <f>($AN$5-$V$5)/COUNT($V$1:$AN$1)+V5</f>
         <v>7.777140437446856E-4</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="4">
         <f t="shared" ref="X5:AM5" si="3">($AN$5-$V$5)/COUNT($V$1:$AN$1)+W5</f>
         <v>7.7502331548669776E-4</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="4">
         <f t="shared" si="3"/>
         <v>7.7233258722870992E-4</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="Z5" s="4">
         <f t="shared" si="3"/>
         <v>7.6964185897072208E-4</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="4">
         <f t="shared" si="3"/>
         <v>7.6695113071273424E-4</v>
       </c>
-      <c r="AB5" s="17">
+      <c r="AB5" s="4">
         <f t="shared" si="3"/>
         <v>7.642604024547464E-4</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AC5" s="4">
         <f t="shared" si="3"/>
         <v>7.6156967419675856E-4</v>
       </c>
-      <c r="AD5" s="17">
+      <c r="AD5" s="4">
         <f t="shared" si="3"/>
         <v>7.5887894593877072E-4</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="4">
         <f t="shared" si="3"/>
         <v>7.5618821768078288E-4</v>
       </c>
-      <c r="AF5" s="17">
+      <c r="AF5" s="4">
         <f t="shared" si="3"/>
         <v>7.5349748942279504E-4</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AG5" s="4">
         <f t="shared" si="3"/>
         <v>7.508067611648072E-4</v>
       </c>
-      <c r="AH5" s="17">
+      <c r="AH5" s="4">
         <f t="shared" si="3"/>
         <v>7.4811603290681936E-4</v>
       </c>
-      <c r="AI5" s="17">
+      <c r="AI5" s="4">
         <f t="shared" si="3"/>
         <v>7.4542530464883152E-4</v>
       </c>
-      <c r="AJ5" s="17">
+      <c r="AJ5" s="4">
         <f t="shared" si="3"/>
         <v>7.4273457639084369E-4</v>
       </c>
-      <c r="AK5" s="17">
+      <c r="AK5" s="4">
         <f t="shared" si="3"/>
         <v>7.4004384813285585E-4</v>
       </c>
-      <c r="AL5" s="17">
+      <c r="AL5" s="4">
         <f t="shared" si="3"/>
         <v>7.3735311987486801E-4</v>
       </c>
-      <c r="AM5" s="41">
+      <c r="AM5" s="28">
         <f t="shared" si="3"/>
         <v>7.3466239161688017E-4</v>
       </c>
-      <c r="AN5" s="15">
+      <c r="AN5" s="11">
         <f>BNVFE!D11</f>
         <v>7.2928093510090471E-4</v>
       </c>
-      <c r="AO5" s="15">
+      <c r="AO5" s="11">
         <f>BNVFE!E11</f>
         <v>7.3924874245474208E-4</v>
       </c>
-      <c r="AP5" s="15">
+      <c r="AP5" s="11">
         <f>BNVFE!F11</f>
         <v>7.508610678592162E-4</v>
       </c>
-      <c r="AQ5" s="15">
+      <c r="AQ5" s="11">
         <f>BNVFE!G11</f>
         <v>7.6519937715357957E-4</v>
       </c>
-      <c r="AR5" s="15">
+      <c r="AR5" s="11">
         <f>BNVFE!H11</f>
         <v>7.8295096466416878E-4</v>
       </c>
-      <c r="AS5" s="15">
+      <c r="AS5" s="11">
         <f>BNVFE!I11</f>
         <v>8.0345860591986078E-4</v>
       </c>
-      <c r="AT5" s="15">
+      <c r="AT5" s="11">
         <f>BNVFE!J11</f>
         <v>8.2561600996837806E-4</v>
       </c>
-      <c r="AU5" s="15">
+      <c r="AU5" s="11">
         <f>BNVFE!K11</f>
         <v>8.4851560331147032E-4</v>
       </c>
-      <c r="AV5" s="15">
+      <c r="AV5" s="11">
         <f>BNVFE!L11</f>
         <v>8.6018189128557194E-4</v>
       </c>
-      <c r="AW5" s="15">
+      <c r="AW5" s="11">
         <f>BNVFE!M11</f>
         <v>8.7723592808510082E-4</v>
       </c>
-      <c r="AX5" s="15">
+      <c r="AX5" s="11">
         <f>BNVFE!N11</f>
         <v>8.9169638159754131E-4</v>
       </c>
-      <c r="AY5" s="15">
+      <c r="AY5" s="11">
         <f>BNVFE!O11</f>
         <v>9.0454250346438524E-4</v>
       </c>
-      <c r="AZ5" s="15">
+      <c r="AZ5" s="11">
         <f>BNVFE!P11</f>
         <v>9.1217068960288046E-4</v>
       </c>
-      <c r="BA5" s="15">
+      <c r="BA5" s="11">
         <f>BNVFE!Q11</f>
         <v>9.1311893899054719E-4</v>
       </c>
-      <c r="BB5" s="15">
+      <c r="BB5" s="11">
         <f>BNVFE!R11</f>
         <v>9.1384317961185513E-4</v>
       </c>
-      <c r="BC5" s="15">
+      <c r="BC5" s="11">
         <f>BNVFE!S11</f>
         <v>9.1391940319832696E-4</v>
       </c>
-      <c r="BD5" s="15">
+      <c r="BD5" s="11">
         <f>BNVFE!T11</f>
         <v>9.1428536965325259E-4</v>
       </c>
-      <c r="BE5" s="15">
+      <c r="BE5" s="11">
         <f>BNVFE!U11</f>
         <v>9.1458781645278495E-4</v>
       </c>
-      <c r="BF5" s="15">
+      <c r="BF5" s="11">
         <f>BNVFE!V11</f>
         <v>9.1466602138630556E-4</v>
       </c>
-      <c r="BG5" s="15">
+      <c r="BG5" s="11">
         <f>BNVFE!W11</f>
         <v>9.1455809624705047E-4</v>
       </c>
-      <c r="BH5" s="15">
+      <c r="BH5" s="11">
         <f>BNVFE!X11</f>
         <v>9.145521522059036E-4</v>
       </c>
-      <c r="BI5" s="15">
+      <c r="BI5" s="11">
         <f>BNVFE!Y11</f>
         <v>9.1455844589652965E-4</v>
       </c>
-      <c r="BJ5" s="15">
+      <c r="BJ5" s="11">
         <f>BNVFE!Z11</f>
         <v>9.1456613818507277E-4</v>
       </c>
-      <c r="BK5" s="15">
+      <c r="BK5" s="11">
         <f>BNVFE!AA11</f>
         <v>9.1451135976666027E-4</v>
       </c>
-      <c r="BL5" s="15">
+      <c r="BL5" s="11">
         <f>BNVFE!AB11</f>
         <v>9.1456765333281604E-4</v>
       </c>
-      <c r="BM5" s="15">
+      <c r="BM5" s="11">
         <f>BNVFE!AC11</f>
         <v>9.1471287441652219E-4</v>
       </c>
-      <c r="BN5" s="15">
+      <c r="BN5" s="11">
         <f>BNVFE!AD11</f>
         <v>9.147044828290207E-4</v>
       </c>
-      <c r="BO5" s="15">
+      <c r="BO5" s="11">
         <f>BNVFE!AE11</f>
         <v>9.1495110226170301E-4</v>
       </c>
-      <c r="BP5" s="15">
+      <c r="BP5" s="11">
         <f>BNVFE!AF11</f>
         <v>9.153374649362501E-4</v>
       </c>
-      <c r="BQ5" s="15">
+      <c r="BQ5" s="11">
         <f>BNVFE!AG11</f>
         <v>9.1577324473719485E-4</v>
       </c>
-      <c r="BR5" s="15">
+      <c r="BR5" s="11">
         <f>BNVFE!AH11</f>
         <v>9.1626671670221223E-4</v>
       </c>
-      <c r="BS5" s="15"/>
+      <c r="BS5" s="11"/>
       <c r="BT5" s="4"/>
     </row>
     <row r="6" spans="1:72">
@@ -20797,19 +20803,19 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="4">
         <f>TREND($AN6:$BR6,$AN$1:$BR$1,P$1)</f>
         <v>3.7813606358617479E-4</v>
@@ -20902,379 +20908,379 @@
         <f t="shared" si="4"/>
         <v>4.6074929099487131E-4</v>
       </c>
-      <c r="AM6" s="41">
+      <c r="AM6" s="28">
         <f t="shared" si="4"/>
         <v>4.6450443769526645E-4</v>
       </c>
-      <c r="AN6" s="15">
+      <c r="AN6" s="11">
         <f>BNVFE!D12</f>
         <v>4.6616941125958422E-4</v>
       </c>
-      <c r="AO6" s="15">
+      <c r="AO6" s="11">
         <f>BNVFE!E12</f>
         <v>4.7399299019600609E-4</v>
       </c>
-      <c r="AP6" s="15">
+      <c r="AP6" s="11">
         <f>BNVFE!F12</f>
         <v>4.7625318028902199E-4</v>
       </c>
-      <c r="AQ6" s="15">
+      <c r="AQ6" s="11">
         <f>BNVFE!G12</f>
         <v>4.7962763511951036E-4</v>
       </c>
-      <c r="AR6" s="15">
+      <c r="AR6" s="11">
         <f>BNVFE!H12</f>
         <v>4.8472425299335046E-4</v>
       </c>
-      <c r="AS6" s="15">
+      <c r="AS6" s="11">
         <f>BNVFE!I12</f>
         <v>4.8856488811023198E-4</v>
       </c>
-      <c r="AT6" s="15">
+      <c r="AT6" s="11">
         <f>BNVFE!J12</f>
         <v>4.9188761878420821E-4</v>
       </c>
-      <c r="AU6" s="15">
+      <c r="AU6" s="11">
         <f>BNVFE!K12</f>
         <v>4.9507465640706257E-4</v>
       </c>
-      <c r="AV6" s="15">
+      <c r="AV6" s="11">
         <f>BNVFE!L12</f>
         <v>4.9827927013588579E-4</v>
       </c>
-      <c r="AW6" s="15">
+      <c r="AW6" s="11">
         <f>BNVFE!M12</f>
         <v>5.0141938782536798E-4</v>
       </c>
-      <c r="AX6" s="15">
+      <c r="AX6" s="11">
         <f>BNVFE!N12</f>
         <v>5.0473115148176617E-4</v>
       </c>
-      <c r="AY6" s="15">
+      <c r="AY6" s="11">
         <f>BNVFE!O12</f>
         <v>5.0816899974300608E-4</v>
       </c>
-      <c r="AZ6" s="15">
+      <c r="AZ6" s="11">
         <f>BNVFE!P12</f>
         <v>5.1181801067543291E-4</v>
       </c>
-      <c r="BA6" s="15">
+      <c r="BA6" s="11">
         <f>BNVFE!Q12</f>
         <v>5.1566570773780435E-4</v>
       </c>
-      <c r="BB6" s="15">
+      <c r="BB6" s="11">
         <f>BNVFE!R12</f>
         <v>5.1961420160206843E-4</v>
       </c>
-      <c r="BC6" s="15">
+      <c r="BC6" s="11">
         <f>BNVFE!S12</f>
         <v>5.2372057195217224E-4</v>
       </c>
-      <c r="BD6" s="15">
+      <c r="BD6" s="11">
         <f>BNVFE!T12</f>
         <v>5.2782108797571725E-4</v>
       </c>
-      <c r="BE6" s="15">
+      <c r="BE6" s="11">
         <f>BNVFE!U12</f>
         <v>5.3191930033488766E-4</v>
       </c>
-      <c r="BF6" s="15">
+      <c r="BF6" s="11">
         <f>BNVFE!V12</f>
         <v>5.3596468592895642E-4</v>
       </c>
-      <c r="BG6" s="15">
+      <c r="BG6" s="11">
         <f>BNVFE!W12</f>
         <v>5.3988919149325191E-4</v>
       </c>
-      <c r="BH6" s="15">
+      <c r="BH6" s="11">
         <f>BNVFE!X12</f>
         <v>5.4375065803669985E-4</v>
       </c>
-      <c r="BI6" s="15">
+      <c r="BI6" s="11">
         <f>BNVFE!Y12</f>
         <v>5.4758253135318239E-4</v>
       </c>
-      <c r="BJ6" s="15">
+      <c r="BJ6" s="11">
         <f>BNVFE!Z12</f>
         <v>5.5141485752676429E-4</v>
       </c>
-      <c r="BK6" s="15">
+      <c r="BK6" s="11">
         <f>BNVFE!AA12</f>
         <v>5.5528893843752823E-4</v>
       </c>
-      <c r="BL6" s="15">
+      <c r="BL6" s="11">
         <f>BNVFE!AB12</f>
         <v>5.5903874617184749E-4</v>
       </c>
-      <c r="BM6" s="15">
+      <c r="BM6" s="11">
         <f>BNVFE!AC12</f>
         <v>5.6267984194975651E-4</v>
       </c>
-      <c r="BN6" s="15">
+      <c r="BN6" s="11">
         <f>BNVFE!AD12</f>
         <v>5.6625804309603806E-4</v>
       </c>
-      <c r="BO6" s="15">
+      <c r="BO6" s="11">
         <f>BNVFE!AE12</f>
         <v>5.6976670114342325E-4</v>
       </c>
-      <c r="BP6" s="15">
+      <c r="BP6" s="11">
         <f>BNVFE!AF12</f>
         <v>5.7342146795521316E-4</v>
       </c>
-      <c r="BQ6" s="15">
+      <c r="BQ6" s="11">
         <f>BNVFE!AG12</f>
         <v>5.770408790975283E-4</v>
       </c>
-      <c r="BR6" s="15">
+      <c r="BR6" s="11">
         <f>BNVFE!AH12</f>
         <v>5.8064146713606509E-4</v>
       </c>
-      <c r="BS6" s="15"/>
+      <c r="BS6" s="11"/>
       <c r="BT6" s="4"/>
     </row>
-    <row r="7" spans="1:72" s="6" customFormat="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:72">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="29">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="4">
         <f>TREND($AN7:$BR7,$AN$1:$BR$1,P$1)-($AR7-$AN7)</f>
         <v>9.258175624649735E-5</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="4">
         <f t="shared" ref="Q7:AL7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
         <v>9.3548597825973844E-5</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="4">
         <f t="shared" si="5"/>
         <v>9.4515439405450121E-5</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="4">
         <f t="shared" si="5"/>
         <v>9.5482280984926615E-5</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="4">
         <f t="shared" si="5"/>
         <v>9.6449122564402893E-5</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="4">
         <f t="shared" si="5"/>
         <v>9.7415964143879387E-5</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="4">
         <f t="shared" si="5"/>
         <v>9.8382805723355664E-5</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="4">
         <f t="shared" si="5"/>
         <v>9.9349647302832158E-5</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="4">
         <f t="shared" si="5"/>
         <v>1.0031648888230865E-4</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="4">
         <f t="shared" si="5"/>
         <v>1.0128333046178493E-4</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="4">
         <f t="shared" si="5"/>
         <v>1.0225017204126142E-4</v>
       </c>
-      <c r="AA7" s="29">
+      <c r="AA7" s="4">
         <f t="shared" si="5"/>
         <v>1.032170136207377E-4</v>
       </c>
-      <c r="AB7" s="29">
+      <c r="AB7" s="4">
         <f t="shared" si="5"/>
         <v>1.0418385520021419E-4</v>
       </c>
-      <c r="AC7" s="29">
+      <c r="AC7" s="4">
         <f t="shared" si="5"/>
         <v>1.0515069677969047E-4</v>
       </c>
-      <c r="AD7" s="29">
+      <c r="AD7" s="4">
         <f t="shared" si="5"/>
         <v>1.0611753835916697E-4</v>
       </c>
-      <c r="AE7" s="29">
+      <c r="AE7" s="4">
         <f t="shared" si="5"/>
         <v>1.0708437993864324E-4</v>
       </c>
-      <c r="AF7" s="29">
+      <c r="AF7" s="4">
         <f t="shared" si="5"/>
         <v>1.0805122151811974E-4</v>
       </c>
-      <c r="AG7" s="29">
+      <c r="AG7" s="4">
         <f t="shared" si="5"/>
         <v>1.0901806309759623E-4</v>
       </c>
-      <c r="AH7" s="29">
+      <c r="AH7" s="4">
         <f t="shared" si="5"/>
         <v>1.0998490467707251E-4</v>
       </c>
-      <c r="AI7" s="29">
+      <c r="AI7" s="4">
         <f t="shared" si="5"/>
         <v>1.10951746256549E-4</v>
       </c>
-      <c r="AJ7" s="29">
+      <c r="AJ7" s="4">
         <f t="shared" si="5"/>
         <v>1.1191858783602528E-4</v>
       </c>
-      <c r="AK7" s="29">
+      <c r="AK7" s="4">
         <f t="shared" si="5"/>
         <v>1.1288542941550177E-4</v>
       </c>
-      <c r="AL7" s="29">
+      <c r="AL7" s="4">
         <f t="shared" si="5"/>
         <v>1.1385227099497805E-4</v>
       </c>
-      <c r="AM7" s="42">
+      <c r="AM7" s="28">
         <f>TREND($AN7:$BR7,$AN$1:$BR$1,AM$1)-($AR7-$AN7)</f>
         <v>1.1481911257445455E-4</v>
       </c>
-      <c r="AN7" s="14">
+      <c r="AN7" s="11">
         <f>BNVFE!D13</f>
         <v>1.2002512973417359E-4</v>
       </c>
-      <c r="AO7" s="14">
+      <c r="AO7" s="11">
         <f>BNVFE!E13</f>
         <v>1.2203947485023846E-4</v>
       </c>
-      <c r="AP7" s="14">
+      <c r="AP7" s="11">
         <f>BNVFE!F13</f>
         <v>1.2262140837608938E-4</v>
       </c>
-      <c r="AQ7" s="14">
+      <c r="AQ7" s="11">
         <f>BNVFE!G13</f>
         <v>1.2349023281851067E-4</v>
       </c>
-      <c r="AR7" s="14">
+      <c r="AR7" s="11">
         <f>BNVFE!H13</f>
         <v>1.2480246439513921E-4</v>
       </c>
-      <c r="AS7" s="14">
+      <c r="AS7" s="11">
         <f>BNVFE!I13</f>
         <v>1.2579131676732679E-4</v>
       </c>
-      <c r="AT7" s="14">
+      <c r="AT7" s="11">
         <f>BNVFE!J13</f>
         <v>1.2664682373664536E-4</v>
       </c>
-      <c r="AU7" s="14">
+      <c r="AU7" s="11">
         <f>BNVFE!K13</f>
         <v>1.2746739367304943E-4</v>
       </c>
-      <c r="AV7" s="14">
+      <c r="AV7" s="11">
         <f>BNVFE!L13</f>
         <v>1.282924889479853E-4</v>
       </c>
-      <c r="AW7" s="14">
+      <c r="AW7" s="11">
         <f>BNVFE!M13</f>
         <v>1.2910097835968289E-4</v>
       </c>
-      <c r="AX7" s="14">
+      <c r="AX7" s="11">
         <f>BNVFE!N13</f>
         <v>1.2995366163942465E-4</v>
       </c>
-      <c r="AY7" s="14">
+      <c r="AY7" s="11">
         <f>BNVFE!O13</f>
         <v>1.3083880805528838E-4</v>
       </c>
-      <c r="AZ7" s="14">
+      <c r="AZ7" s="11">
         <f>BNVFE!P13</f>
         <v>1.3177832274670185E-4</v>
       </c>
-      <c r="BA7" s="14">
+      <c r="BA7" s="11">
         <f>BNVFE!Q13</f>
         <v>1.3276899336543915E-4</v>
       </c>
-      <c r="BB7" s="14">
+      <c r="BB7" s="11">
         <f>BNVFE!R13</f>
         <v>1.3378561624301569E-4</v>
       </c>
-      <c r="BC7" s="14">
+      <c r="BC7" s="11">
         <f>BNVFE!S13</f>
         <v>1.3484288774582846E-4</v>
       </c>
-      <c r="BD7" s="14">
+      <c r="BD7" s="11">
         <f>BNVFE!T13</f>
         <v>1.3589865192901079E-4</v>
       </c>
-      <c r="BE7" s="14">
+      <c r="BE7" s="11">
         <f>BNVFE!U13</f>
         <v>1.3695382298529812E-4</v>
       </c>
-      <c r="BF7" s="14">
+      <c r="BF7" s="11">
         <f>BNVFE!V13</f>
         <v>1.3799539267868687E-4</v>
       </c>
-      <c r="BG7" s="14">
+      <c r="BG7" s="11">
         <f>BNVFE!W13</f>
         <v>1.3900583926338301E-4</v>
       </c>
-      <c r="BH7" s="14">
+      <c r="BH7" s="11">
         <f>BNVFE!X13</f>
         <v>1.4000005512492829E-4</v>
       </c>
-      <c r="BI7" s="14">
+      <c r="BI7" s="11">
         <f>BNVFE!Y13</f>
         <v>1.409866515871308E-4</v>
       </c>
-      <c r="BJ7" s="14">
+      <c r="BJ7" s="11">
         <f>BNVFE!Z13</f>
         <v>1.4197336464692809E-4</v>
       </c>
-      <c r="BK7" s="14">
+      <c r="BK7" s="11">
         <f>BNVFE!AA13</f>
         <v>1.4297082834292379E-4</v>
       </c>
-      <c r="BL7" s="14">
+      <c r="BL7" s="11">
         <f>BNVFE!AB13</f>
         <v>1.4393629529317647E-4</v>
       </c>
-      <c r="BM7" s="14">
+      <c r="BM7" s="11">
         <f>BNVFE!AC13</f>
         <v>1.4487377206141239E-4</v>
       </c>
-      <c r="BN7" s="14">
+      <c r="BN7" s="11">
         <f>BNVFE!AD13</f>
         <v>1.4579505528254221E-4</v>
       </c>
-      <c r="BO7" s="14">
+      <c r="BO7" s="11">
         <f>BNVFE!AE13</f>
         <v>1.4669843316868957E-4</v>
       </c>
-      <c r="BP7" s="14">
+      <c r="BP7" s="11">
         <f>BNVFE!AF13</f>
         <v>1.4763942983243028E-4</v>
       </c>
-      <c r="BQ7" s="14">
+      <c r="BQ7" s="11">
         <f>BNVFE!AG13</f>
         <v>1.4857132343468077E-4</v>
       </c>
-      <c r="BR7" s="14">
+      <c r="BR7" s="11">
         <f>BNVFE!AH13</f>
         <v>1.494983706325589E-4</v>
       </c>
-      <c r="BS7" s="14"/>
-      <c r="BT7" s="29"/>
+      <c r="BS7" s="11"/>
+      <c r="BT7" s="4"/>
     </row>
     <row r="8" spans="1:72">
       <c r="A8" t="s">
@@ -21283,270 +21289,270 @@
       <c r="B8" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="4">
         <f>TREND($AN8:$AS8,$AN$1:$AS$1,F$1)</f>
-        <v>3.952522554130269E-4</v>
+        <v>3.9525225541302687E-5</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ref="G8:AM9" si="6">TREND($AN8:$AS8,$AN$1:$AS$1,G$1)</f>
-        <v>3.9505622007027588E-4</v>
+        <v>3.9505622007027585E-5</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9486018472752486E-4</v>
+        <v>3.9486018472752483E-5</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9466414938477384E-4</v>
+        <v>3.9466414938477381E-5</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9446811404202282E-4</v>
+        <v>3.9446811404202279E-5</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="6"/>
-        <v>3.942720786992718E-4</v>
+        <v>3.9427207869927177E-5</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9407604335652078E-4</v>
+        <v>3.9407604335652075E-5</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9388000801376976E-4</v>
+        <v>3.9388000801376973E-5</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9368397267101874E-4</v>
+        <v>3.9368397267101871E-5</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9348793732826772E-4</v>
+        <v>3.9348793732826769E-5</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9329190198551675E-4</v>
+        <v>3.9329190198551674E-5</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9309586664276573E-4</v>
+        <v>3.9309586664276572E-5</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9289983130001471E-4</v>
+        <v>3.928998313000147E-5</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9270379595726369E-4</v>
+        <v>3.9270379595726368E-5</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9250776061451267E-4</v>
+        <v>3.9250776061451266E-5</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9231172527176165E-4</v>
+        <v>3.9231172527176164E-5</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9211568992901063E-4</v>
+        <v>3.9211568992901062E-5</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9191965458625961E-4</v>
+        <v>3.919196545862596E-5</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9172361924350859E-4</v>
+        <v>3.9172361924350858E-5</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9152758390075757E-4</v>
+        <v>3.9152758390075756E-5</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9133154855800655E-4</v>
+        <v>3.9133154855800654E-5</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9113551321525553E-4</v>
+        <v>3.9113551321525552E-5</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9093947787250451E-4</v>
+        <v>3.909394778725045E-5</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9074344252975349E-4</v>
+        <v>3.9074344252975348E-5</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9054740718700247E-4</v>
+        <v>3.9054740718700246E-5</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9035137184425145E-4</v>
+        <v>3.9035137184425144E-5</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9015533650150043E-4</v>
+        <v>3.9015533650150042E-5</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8995930115874941E-4</v>
+        <v>3.899593011587494E-5</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8976326581599839E-4</v>
+        <v>3.8976326581599838E-5</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8956723047324737E-4</v>
+        <v>3.8956723047324736E-5</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8937119513049635E-4</v>
+        <v>3.8937119513049634E-5</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8917515978774533E-4</v>
+        <v>3.8917515978774532E-5</v>
       </c>
       <c r="AL8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8897912444499431E-4</v>
-      </c>
-      <c r="AM8" s="41">
+        <v>3.889791244449943E-5</v>
+      </c>
+      <c r="AM8" s="28">
         <f t="shared" si="6"/>
-        <v>3.8878308910224329E-4</v>
-      </c>
-      <c r="AN8" s="15">
+        <v>3.8878308910224328E-5</v>
+      </c>
+      <c r="AN8" s="11">
         <f>BNVFE!D14</f>
-        <v>3.8868922094850749E-4</v>
-      </c>
-      <c r="AO8" s="15">
+        <v>3.8868922094850746E-5</v>
+      </c>
+      <c r="AO8" s="11">
         <f>BNVFE!E14</f>
-        <v>3.8835964956971156E-4</v>
-      </c>
-      <c r="AP8" s="15">
+        <v>3.8835964956971156E-5</v>
+      </c>
+      <c r="AP8" s="11">
         <f>BNVFE!F14</f>
-        <v>3.8810530909215343E-4</v>
-      </c>
-      <c r="AQ8" s="15">
+        <v>3.8810530909215343E-5</v>
+      </c>
+      <c r="AQ8" s="11">
         <f>BNVFE!G14</f>
-        <v>3.8794345419032003E-4</v>
-      </c>
-      <c r="AR8" s="15">
+        <v>3.8794345419032002E-5</v>
+      </c>
+      <c r="AR8" s="11">
         <f>BNVFE!H14</f>
-        <v>3.8779756085887974E-4</v>
-      </c>
-      <c r="AS8" s="15">
+        <v>3.8779756085887973E-5</v>
+      </c>
+      <c r="AS8" s="11">
         <f>BNVFE!I14</f>
-        <v>3.8768659775611613E-4</v>
-      </c>
-      <c r="AT8" s="15">
+        <v>3.8768659775611612E-5</v>
+      </c>
+      <c r="AT8" s="11">
         <f>BNVFE!J14</f>
-        <v>3.8756372155893972E-4</v>
-      </c>
-      <c r="AU8" s="15">
+        <v>3.8756372155893972E-5</v>
+      </c>
+      <c r="AU8" s="11">
         <f>BNVFE!K14</f>
-        <v>3.8743413448561116E-4</v>
-      </c>
-      <c r="AV8" s="15">
+        <v>3.8743413448561118E-5</v>
+      </c>
+      <c r="AV8" s="11">
         <f>BNVFE!L14</f>
-        <v>3.8741625203614658E-4</v>
-      </c>
-      <c r="AW8" s="15">
+        <v>3.8741625203614656E-5</v>
+      </c>
+      <c r="AW8" s="11">
         <f>BNVFE!M14</f>
-        <v>3.8738694289951122E-4</v>
-      </c>
-      <c r="AX8" s="15">
+        <v>3.873869428995112E-5</v>
+      </c>
+      <c r="AX8" s="11">
         <f>BNVFE!N14</f>
-        <v>3.8727323156960051E-4</v>
-      </c>
-      <c r="AY8" s="15">
+        <v>3.8727323156960051E-5</v>
+      </c>
+      <c r="AY8" s="11">
         <f>BNVFE!O14</f>
-        <v>3.872801832305252E-4</v>
-      </c>
-      <c r="AZ8" s="15">
+        <v>3.872801832305252E-5</v>
+      </c>
+      <c r="AZ8" s="11">
         <f>BNVFE!P14</f>
-        <v>3.8723285633958973E-4</v>
-      </c>
-      <c r="BA8" s="15">
+        <v>3.8723285633958972E-5</v>
+      </c>
+      <c r="BA8" s="11">
         <f>BNVFE!Q14</f>
-        <v>3.8719654146009873E-4</v>
-      </c>
-      <c r="BB8" s="15">
+        <v>3.8719654146009875E-5</v>
+      </c>
+      <c r="BB8" s="11">
         <f>BNVFE!R14</f>
-        <v>3.8712836957078314E-4</v>
-      </c>
-      <c r="BC8" s="15">
+        <v>3.8712836957078314E-5</v>
+      </c>
+      <c r="BC8" s="11">
         <f>BNVFE!S14</f>
-        <v>3.8710174375942578E-4</v>
-      </c>
-      <c r="BD8" s="15">
+        <v>3.871017437594258E-5</v>
+      </c>
+      <c r="BD8" s="11">
         <f>BNVFE!T14</f>
-        <v>3.8701959513390749E-4</v>
-      </c>
-      <c r="BE8" s="15">
+        <v>3.8701959513390746E-5</v>
+      </c>
+      <c r="BE8" s="11">
         <f>BNVFE!U14</f>
-        <v>3.8693459130790495E-4</v>
-      </c>
-      <c r="BF8" s="15">
+        <v>3.8693459130790492E-5</v>
+      </c>
+      <c r="BF8" s="11">
         <f>BNVFE!V14</f>
-        <v>3.8684314096127021E-4</v>
-      </c>
-      <c r="BG8" s="15">
+        <v>3.8684314096127021E-5</v>
+      </c>
+      <c r="BG8" s="11">
         <f>BNVFE!W14</f>
-        <v>3.8675224209457141E-4</v>
-      </c>
-      <c r="BH8" s="15">
+        <v>3.8675224209457144E-5</v>
+      </c>
+      <c r="BH8" s="11">
         <f>BNVFE!X14</f>
-        <v>3.8662639724460569E-4</v>
-      </c>
-      <c r="BI8" s="15">
+        <v>3.8662639724460569E-5</v>
+      </c>
+      <c r="BI8" s="11">
         <f>BNVFE!Y14</f>
-        <v>3.8650753548999096E-4</v>
-      </c>
-      <c r="BJ8" s="15">
+        <v>3.8650753548999096E-5</v>
+      </c>
+      <c r="BJ8" s="11">
         <f>BNVFE!Z14</f>
-        <v>3.8637937383671609E-4</v>
-      </c>
-      <c r="BK8" s="15">
+        <v>3.8637937383671609E-5</v>
+      </c>
+      <c r="BK8" s="11">
         <f>BNVFE!AA14</f>
-        <v>3.8623677194928995E-4</v>
-      </c>
-      <c r="BL8" s="15">
+        <v>3.8623677194928998E-5</v>
+      </c>
+      <c r="BL8" s="11">
         <f>BNVFE!AB14</f>
-        <v>3.8608334518532407E-4</v>
-      </c>
-      <c r="BM8" s="15">
+        <v>3.8608334518532409E-5</v>
+      </c>
+      <c r="BM8" s="11">
         <f>BNVFE!AC14</f>
-        <v>3.8590701122559256E-4</v>
-      </c>
-      <c r="BN8" s="15">
+        <v>3.8590701122559256E-5</v>
+      </c>
+      <c r="BN8" s="11">
         <f>BNVFE!AD14</f>
-        <v>3.8573556454320505E-4</v>
-      </c>
-      <c r="BO8" s="15">
+        <v>3.8573556454320506E-5</v>
+      </c>
+      <c r="BO8" s="11">
         <f>BNVFE!AE14</f>
-        <v>3.8555651429608934E-4</v>
-      </c>
-      <c r="BP8" s="15">
+        <v>3.8555651429608931E-5</v>
+      </c>
+      <c r="BP8" s="11">
         <f>BNVFE!AF14</f>
-        <v>3.8536129241038667E-4</v>
-      </c>
-      <c r="BQ8" s="15">
+        <v>3.8536129241038666E-5</v>
+      </c>
+      <c r="BQ8" s="11">
         <f>BNVFE!AG14</f>
-        <v>3.8512787391125356E-4</v>
-      </c>
-      <c r="BR8" s="15">
+        <v>3.8512787391125357E-5</v>
+      </c>
+      <c r="BR8" s="11">
         <f>BNVFE!AH14</f>
-        <v>3.8487689875144672E-4</v>
-      </c>
-      <c r="BS8" s="15"/>
+        <v>3.8487689875144674E-5</v>
+      </c>
+      <c r="BS8" s="11"/>
       <c r="BT8" s="4"/>
     </row>
     <row r="9" spans="1:72">
@@ -21556,270 +21562,270 @@
       <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="39">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="20">
         <f>TREND($AN9:$AS9,$AN$1:$AS$1,F$1)</f>
         <v>1.2701330993401204E-3</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="20">
         <f t="shared" si="6"/>
         <v>1.2695031447375632E-3</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="20">
         <f t="shared" si="6"/>
         <v>1.2688731901350058E-3</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="20">
         <f t="shared" si="6"/>
         <v>1.2682432355324486E-3</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="20">
         <f t="shared" si="6"/>
         <v>1.2676132809298914E-3</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="20">
         <f t="shared" si="6"/>
         <v>1.2669833263273342E-3</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="20">
         <f t="shared" si="6"/>
         <v>1.2663533717247771E-3</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="20">
         <f t="shared" si="6"/>
         <v>1.2657234171222199E-3</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="20">
         <f t="shared" si="6"/>
         <v>1.2650934625196627E-3</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="20">
         <f t="shared" si="6"/>
         <v>1.2644635079171055E-3</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="20">
         <f t="shared" si="6"/>
         <v>1.2638335533145483E-3</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="20">
         <f t="shared" si="6"/>
         <v>1.2632035987119911E-3</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="20">
         <f t="shared" si="6"/>
         <v>1.2625736441094339E-3</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="20">
         <f t="shared" si="6"/>
         <v>1.2619436895068767E-3</v>
       </c>
-      <c r="T9" s="39">
+      <c r="T9" s="20">
         <f t="shared" si="6"/>
         <v>1.2613137349043195E-3</v>
       </c>
-      <c r="U9" s="39">
+      <c r="U9" s="20">
         <f t="shared" si="6"/>
         <v>1.2606837803017623E-3</v>
       </c>
-      <c r="V9" s="39">
+      <c r="V9" s="20">
         <f t="shared" si="6"/>
         <v>1.2600538256992051E-3</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="20">
         <f t="shared" si="6"/>
         <v>1.2594238710966479E-3</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="20">
         <f t="shared" si="6"/>
         <v>1.2587939164940907E-3</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="Y9" s="20">
         <f t="shared" si="6"/>
         <v>1.2581639618915333E-3</v>
       </c>
-      <c r="Z9" s="39">
+      <c r="Z9" s="20">
         <f t="shared" si="6"/>
         <v>1.2575340072889761E-3</v>
       </c>
-      <c r="AA9" s="39">
+      <c r="AA9" s="20">
         <f t="shared" si="6"/>
         <v>1.2569040526864189E-3</v>
       </c>
-      <c r="AB9" s="39">
+      <c r="AB9" s="20">
         <f t="shared" si="6"/>
         <v>1.2562740980838617E-3</v>
       </c>
-      <c r="AC9" s="39">
+      <c r="AC9" s="20">
         <f t="shared" si="6"/>
         <v>1.2556441434813045E-3</v>
       </c>
-      <c r="AD9" s="39">
+      <c r="AD9" s="20">
         <f t="shared" si="6"/>
         <v>1.2550141888787473E-3</v>
       </c>
-      <c r="AE9" s="39">
+      <c r="AE9" s="20">
         <f t="shared" si="6"/>
         <v>1.2543842342761901E-3</v>
       </c>
-      <c r="AF9" s="39">
+      <c r="AF9" s="20">
         <f t="shared" si="6"/>
         <v>1.2537542796736329E-3</v>
       </c>
-      <c r="AG9" s="39">
+      <c r="AG9" s="20">
         <f t="shared" si="6"/>
         <v>1.2531243250710757E-3</v>
       </c>
-      <c r="AH9" s="39">
+      <c r="AH9" s="20">
         <f t="shared" si="6"/>
         <v>1.2524943704685185E-3</v>
       </c>
-      <c r="AI9" s="39">
+      <c r="AI9" s="20">
         <f t="shared" si="6"/>
         <v>1.2518644158659613E-3</v>
       </c>
-      <c r="AJ9" s="39">
+      <c r="AJ9" s="20">
         <f t="shared" si="6"/>
         <v>1.2512344612634041E-3</v>
       </c>
-      <c r="AK9" s="39">
+      <c r="AK9" s="20">
         <f t="shared" si="6"/>
         <v>1.250604506660847E-3</v>
       </c>
-      <c r="AL9" s="39">
+      <c r="AL9" s="20">
         <f t="shared" si="6"/>
         <v>1.2499745520582898E-3</v>
       </c>
-      <c r="AM9" s="32">
+      <c r="AM9" s="21">
         <f t="shared" si="6"/>
         <v>1.2493445974557326E-3</v>
       </c>
-      <c r="AN9" s="14">
+      <c r="AN9" s="11">
         <f>BNVFE!D15</f>
         <v>1.2490429545241593E-3</v>
       </c>
-      <c r="AO9" s="14">
+      <c r="AO9" s="11">
         <f>BNVFE!E15</f>
         <v>1.2479838852561889E-3</v>
       </c>
-      <c r="AP9" s="14">
+      <c r="AP9" s="11">
         <f>BNVFE!F15</f>
         <v>1.2471665685815224E-3</v>
       </c>
-      <c r="AQ9" s="14">
+      <c r="AQ9" s="11">
         <f>BNVFE!G15</f>
         <v>1.2466464519590526E-3</v>
       </c>
-      <c r="AR9" s="14">
+      <c r="AR9" s="11">
         <f>BNVFE!H15</f>
         <v>1.2461776274382624E-3</v>
       </c>
-      <c r="AS9" s="14">
+      <c r="AS9" s="11">
         <f>BNVFE!I15</f>
         <v>1.2458210503215087E-3</v>
       </c>
-      <c r="AT9" s="14">
+      <c r="AT9" s="11">
         <f>BNVFE!J15</f>
         <v>1.2454261907779705E-3</v>
       </c>
-      <c r="AU9" s="14">
+      <c r="AU9" s="11">
         <f>BNVFE!K15</f>
         <v>1.2450097660041024E-3</v>
       </c>
-      <c r="AV9" s="14">
+      <c r="AV9" s="11">
         <f>BNVFE!L15</f>
         <v>1.2449523012062393E-3</v>
       </c>
-      <c r="AW9" s="14">
+      <c r="AW9" s="11">
         <f>BNVFE!M15</f>
         <v>1.2448581170389291E-3</v>
       </c>
-      <c r="AX9" s="14">
+      <c r="AX9" s="11">
         <f>BNVFE!N15</f>
         <v>1.244492708563932E-3</v>
       </c>
-      <c r="AY9" s="14">
+      <c r="AY9" s="11">
         <f>BNVFE!O15</f>
         <v>1.2445150475500222E-3</v>
       </c>
-      <c r="AZ9" s="14">
+      <c r="AZ9" s="11">
         <f>BNVFE!P15</f>
         <v>1.244362963786191E-3</v>
       </c>
-      <c r="BA9" s="14">
+      <c r="BA9" s="11">
         <f>BNVFE!Q15</f>
         <v>1.2442462668418766E-3</v>
       </c>
-      <c r="BB9" s="14">
+      <c r="BB9" s="11">
         <f>BNVFE!R15</f>
         <v>1.2440271982043711E-3</v>
       </c>
-      <c r="BC9" s="14">
+      <c r="BC9" s="11">
         <f>BNVFE!S15</f>
         <v>1.2439416368347936E-3</v>
       </c>
-      <c r="BD9" s="14">
+      <c r="BD9" s="11">
         <f>BNVFE!T15</f>
         <v>1.2436776543099449E-3</v>
       </c>
-      <c r="BE9" s="14">
+      <c r="BE9" s="11">
         <f>BNVFE!U15</f>
         <v>1.2434044966707469E-3</v>
       </c>
-      <c r="BF9" s="14">
+      <c r="BF9" s="11">
         <f>BNVFE!V15</f>
         <v>1.2431106233009778E-3</v>
       </c>
-      <c r="BG9" s="14">
+      <c r="BG9" s="11">
         <f>BNVFE!W15</f>
         <v>1.242818522097998E-3</v>
       </c>
-      <c r="BH9" s="14">
+      <c r="BH9" s="11">
         <f>BNVFE!X15</f>
         <v>1.2424141228640053E-3</v>
       </c>
-      <c r="BI9" s="14">
+      <c r="BI9" s="11">
         <f>BNVFE!Y15</f>
         <v>1.2420321636298346E-3</v>
       </c>
-      <c r="BJ9" s="14">
+      <c r="BJ9" s="11">
         <f>BNVFE!Z15</f>
         <v>1.241620319407161E-3</v>
       </c>
-      <c r="BK9" s="14">
+      <c r="BK9" s="11">
         <f>BNVFE!AA15</f>
         <v>1.2411620718582406E-3</v>
       </c>
-      <c r="BL9" s="14">
+      <c r="BL9" s="11">
         <f>BNVFE!AB15</f>
         <v>1.240669038843074E-3</v>
       </c>
-      <c r="BM9" s="14">
+      <c r="BM9" s="11">
         <f>BNVFE!AC15</f>
         <v>1.2401023941352315E-3</v>
       </c>
-      <c r="BN9" s="14">
+      <c r="BN9" s="11">
         <f>BNVFE!AD15</f>
         <v>1.2395514545691941E-3</v>
       </c>
-      <c r="BO9" s="14">
+      <c r="BO9" s="11">
         <f>BNVFE!AE15</f>
         <v>1.2389760811407262E-3</v>
       </c>
-      <c r="BP9" s="14">
+      <c r="BP9" s="11">
         <f>BNVFE!AF15</f>
         <v>1.2383487405617649E-3</v>
       </c>
-      <c r="BQ9" s="14">
+      <c r="BQ9" s="11">
         <f>BNVFE!AG15</f>
         <v>1.2375986561341948E-3</v>
       </c>
-      <c r="BR9" s="14">
+      <c r="BR9" s="11">
         <f>BNVFE!AH15</f>
         <v>1.236792153822779E-3</v>
       </c>
-      <c r="BS9" s="15"/>
+      <c r="BS9" s="11"/>
       <c r="BT9" s="4"/>
     </row>
     <row r="10" spans="1:72">
@@ -21829,270 +21835,270 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="4">
         <f>TREND($AN10:$BR10,$AN$1:$BR$1,F$1)</f>
-        <v>2.6319489092741927E-3</v>
+        <v>2.6319489092741909E-4</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ref="G10:AM13" si="7">TREND($AN10:$BR10,$AN$1:$BR$1,G$1)</f>
-        <v>2.6568304193548414E-3</v>
+        <v>2.656830419354838E-4</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="7"/>
-        <v>2.6817119294354833E-3</v>
+        <v>2.681711929435485E-4</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="7"/>
-        <v>2.706593439516132E-3</v>
+        <v>2.706593439516132E-4</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="7"/>
-        <v>2.7314749495967738E-3</v>
+        <v>2.7314749495967704E-4</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="7"/>
-        <v>2.7563564596774226E-3</v>
+        <v>2.7563564596774174E-4</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="7"/>
-        <v>2.7812379697580644E-3</v>
+        <v>2.7812379697580644E-4</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8061194798387132E-3</v>
+        <v>2.8061194798387114E-4</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="7"/>
-        <v>2.831000989919355E-3</v>
+        <v>2.8310009899193585E-4</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8558824999999968E-3</v>
+        <v>2.8558824999999968E-4</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8807640100806456E-3</v>
+        <v>2.8807640100806439E-4</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9056455201612874E-3</v>
+        <v>2.9056455201612909E-4</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9305270302419362E-3</v>
+        <v>2.9305270302419379E-4</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="7"/>
-        <v>2.955408540322578E-3</v>
+        <v>2.9554085403225849E-4</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9802900504032268E-3</v>
+        <v>2.9802900504032233E-4</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0051715604838686E-3</v>
+        <v>3.0051715604838703E-4</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0300530705645173E-3</v>
+        <v>3.0300530705645173E-4</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0549345806451592E-3</v>
+        <v>3.0549345806451644E-4</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0798160907258079E-3</v>
+        <v>3.0798160907258027E-4</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1046976008064497E-3</v>
+        <v>3.1046976008064497E-4</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1295791108870985E-3</v>
+        <v>3.1295791108870968E-4</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1544606209677403E-3</v>
+        <v>3.1544606209677438E-4</v>
       </c>
       <c r="AB10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1793421310483891E-3</v>
+        <v>3.1793421310483908E-4</v>
       </c>
       <c r="AC10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2042236411290309E-3</v>
+        <v>3.2042236411290292E-4</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2291051512096797E-3</v>
+        <v>3.2291051512096762E-4</v>
       </c>
       <c r="AE10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2539866612903215E-3</v>
+        <v>3.2539866612903232E-4</v>
       </c>
       <c r="AF10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2788681713709703E-3</v>
+        <v>3.2788681713709703E-4</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3037496814516121E-3</v>
+        <v>3.3037496814516173E-4</v>
       </c>
       <c r="AH10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3286311915322608E-3</v>
+        <v>3.3286311915322556E-4</v>
       </c>
       <c r="AI10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3535127016129027E-3</v>
+        <v>3.3535127016129027E-4</v>
       </c>
       <c r="AJ10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3783942116935514E-3</v>
+        <v>3.3783942116935497E-4</v>
       </c>
       <c r="AK10" s="4">
         <f t="shared" si="7"/>
-        <v>3.4032757217741932E-3</v>
+        <v>3.4032757217741967E-4</v>
       </c>
       <c r="AL10" s="4">
         <f t="shared" si="7"/>
-        <v>3.428157231854842E-3</v>
-      </c>
-      <c r="AM10" s="41">
+        <v>3.4281572318548351E-4</v>
+      </c>
+      <c r="AM10" s="28">
         <f>TREND($AN10:$BR10,$AN$1:$BR$1,AM$1)</f>
-        <v>3.4530387419354838E-3</v>
-      </c>
-      <c r="AN10" s="15">
+        <v>3.4530387419354821E-4</v>
+      </c>
+      <c r="AN10" s="11">
         <f>BNVFE!D16</f>
-        <v>3.4893709999999998E-3</v>
-      </c>
-      <c r="AO10" s="15">
+        <v>3.4893709999999999E-4</v>
+      </c>
+      <c r="AO10" s="11">
         <f>BNVFE!E16</f>
-        <v>3.5120030000000001E-3</v>
-      </c>
-      <c r="AP10" s="15">
+        <v>3.5120030000000002E-4</v>
+      </c>
+      <c r="AP10" s="11">
         <f>BNVFE!F16</f>
-        <v>3.5347819999999998E-3</v>
-      </c>
-      <c r="AQ10" s="15">
+        <v>3.5347819999999997E-4</v>
+      </c>
+      <c r="AQ10" s="11">
         <f>BNVFE!G16</f>
-        <v>3.55771E-3</v>
-      </c>
-      <c r="AR10" s="15">
+        <v>3.5577100000000001E-4</v>
+      </c>
+      <c r="AR10" s="11">
         <f>BNVFE!H16</f>
-        <v>3.580785E-3</v>
-      </c>
-      <c r="AS10" s="15">
+        <v>3.5807850000000002E-4</v>
+      </c>
+      <c r="AS10" s="11">
         <f>BNVFE!I16</f>
-        <v>3.6040100000000004E-3</v>
-      </c>
-      <c r="AT10" s="15">
+        <v>3.6040100000000005E-4</v>
+      </c>
+      <c r="AT10" s="11">
         <f>BNVFE!J16</f>
-        <v>3.6273859999999998E-3</v>
-      </c>
-      <c r="AU10" s="15">
+        <v>3.6273859999999997E-4</v>
+      </c>
+      <c r="AU10" s="11">
         <f>BNVFE!K16</f>
-        <v>3.6509140000000003E-3</v>
-      </c>
-      <c r="AV10" s="15">
+        <v>3.6509140000000003E-4</v>
+      </c>
+      <c r="AV10" s="11">
         <f>BNVFE!L16</f>
-        <v>3.6745939999999998E-3</v>
-      </c>
-      <c r="AW10" s="15">
+        <v>3.6745939999999997E-4</v>
+      </c>
+      <c r="AW10" s="11">
         <f>BNVFE!M16</f>
-        <v>3.6984279999999997E-3</v>
-      </c>
-      <c r="AX10" s="15">
+        <v>3.6984279999999995E-4</v>
+      </c>
+      <c r="AX10" s="11">
         <f>BNVFE!N16</f>
-        <v>3.7224160000000001E-3</v>
-      </c>
-      <c r="AY10" s="15">
+        <v>3.7224160000000003E-4</v>
+      </c>
+      <c r="AY10" s="11">
         <f>BNVFE!O16</f>
-        <v>3.7465599999999999E-3</v>
-      </c>
-      <c r="AZ10" s="15">
+        <v>3.7465600000000001E-4</v>
+      </c>
+      <c r="AZ10" s="11">
         <f>BNVFE!P16</f>
-        <v>3.77086E-3</v>
-      </c>
-      <c r="BA10" s="15">
+        <v>3.77086E-4</v>
+      </c>
+      <c r="BA10" s="11">
         <f>BNVFE!Q16</f>
-        <v>3.7953179999999998E-3</v>
-      </c>
-      <c r="BB10" s="15">
+        <v>3.7953179999999996E-4</v>
+      </c>
+      <c r="BB10" s="11">
         <f>BNVFE!R16</f>
-        <v>3.819935E-3</v>
-      </c>
-      <c r="BC10" s="15">
+        <v>3.8199350000000002E-4</v>
+      </c>
+      <c r="BC10" s="11">
         <f>BNVFE!S16</f>
-        <v>3.8447119999999997E-3</v>
-      </c>
-      <c r="BD10" s="15">
+        <v>3.8447119999999996E-4</v>
+      </c>
+      <c r="BD10" s="11">
         <f>BNVFE!T16</f>
-        <v>3.8696489999999997E-3</v>
-      </c>
-      <c r="BE10" s="15">
+        <v>3.8696489999999999E-4</v>
+      </c>
+      <c r="BE10" s="11">
         <f>BNVFE!U16</f>
-        <v>3.894748E-3</v>
-      </c>
-      <c r="BF10" s="15">
+        <v>3.8947480000000001E-4</v>
+      </c>
+      <c r="BF10" s="11">
         <f>BNVFE!V16</f>
-        <v>3.9200089999999995E-3</v>
-      </c>
-      <c r="BG10" s="15">
+        <v>3.9200089999999997E-4</v>
+      </c>
+      <c r="BG10" s="11">
         <f>BNVFE!W16</f>
-        <v>3.9454349999999997E-3</v>
-      </c>
-      <c r="BH10" s="15">
+        <v>3.9454349999999997E-4</v>
+      </c>
+      <c r="BH10" s="11">
         <f>BNVFE!X16</f>
-        <v>3.9710250000000004E-3</v>
-      </c>
-      <c r="BI10" s="15">
+        <v>3.9710250000000004E-4</v>
+      </c>
+      <c r="BI10" s="11">
         <f>BNVFE!Y16</f>
-        <v>3.9967819999999999E-3</v>
-      </c>
-      <c r="BJ10" s="15">
+        <v>3.996782E-4</v>
+      </c>
+      <c r="BJ10" s="11">
         <f>BNVFE!Z16</f>
-        <v>4.0227050000000006E-3</v>
-      </c>
-      <c r="BK10" s="15">
+        <v>4.0227050000000004E-4</v>
+      </c>
+      <c r="BK10" s="11">
         <f>BNVFE!AA16</f>
-        <v>4.0487970000000007E-3</v>
-      </c>
-      <c r="BL10" s="15">
+        <v>4.0487970000000005E-4</v>
+      </c>
+      <c r="BL10" s="11">
         <f>BNVFE!AB16</f>
-        <v>4.0750580000000003E-3</v>
-      </c>
-      <c r="BM10" s="15">
+        <v>4.0750580000000001E-4</v>
+      </c>
+      <c r="BM10" s="11">
         <f>BNVFE!AC16</f>
-        <v>4.1014889999999998E-3</v>
-      </c>
-      <c r="BN10" s="15">
+        <v>4.1014889999999997E-4</v>
+      </c>
+      <c r="BN10" s="11">
         <f>BNVFE!AD16</f>
-        <v>4.1280910000000004E-3</v>
-      </c>
-      <c r="BO10" s="15">
+        <v>4.1280910000000002E-4</v>
+      </c>
+      <c r="BO10" s="11">
         <f>BNVFE!AE16</f>
-        <v>4.1548660000000001E-3</v>
-      </c>
-      <c r="BP10" s="15">
+        <v>4.154866E-4</v>
+      </c>
+      <c r="BP10" s="11">
         <f>BNVFE!AF16</f>
-        <v>4.1818150000000002E-3</v>
-      </c>
-      <c r="BQ10" s="15">
+        <v>4.1818150000000001E-4</v>
+      </c>
+      <c r="BQ10" s="11">
         <f>BNVFE!AG16</f>
-        <v>4.2089390000000001E-3</v>
-      </c>
-      <c r="BR10" s="15">
+        <v>4.2089390000000002E-4</v>
+      </c>
+      <c r="BR10" s="11">
         <f>BNVFE!AH16</f>
-        <v>4.2362379999999998E-3</v>
-      </c>
-      <c r="BS10" s="15"/>
+        <v>4.2362379999999998E-4</v>
+      </c>
+      <c r="BS10" s="11"/>
       <c r="BT10" s="4"/>
     </row>
     <row r="11" spans="1:72">
@@ -22102,10 +22108,10 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="4">
         <f>TREND($AN11:$BR11,$AN$1:$BR$1,G$1)</f>
         <v>1.0049397002369564E-5</v>
@@ -22234,135 +22240,135 @@
         <f t="shared" si="7"/>
         <v>1.0049397002369564E-5</v>
       </c>
-      <c r="AM11" s="41">
+      <c r="AM11" s="28">
         <f t="shared" si="7"/>
         <v>1.0049397002369564E-5</v>
       </c>
-      <c r="AN11" s="15">
+      <c r="AN11" s="11">
         <f>BNVFE!D17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AO11" s="15">
+      <c r="AO11" s="11">
         <f>BNVFE!E17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AP11" s="15">
+      <c r="AP11" s="11">
         <f>BNVFE!F17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AQ11" s="15">
+      <c r="AQ11" s="11">
         <f>BNVFE!G17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AR11" s="15">
+      <c r="AR11" s="11">
         <f>BNVFE!H17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AS11" s="15">
+      <c r="AS11" s="11">
         <f>BNVFE!I17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AT11" s="15">
+      <c r="AT11" s="11">
         <f>BNVFE!J17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AU11" s="15">
+      <c r="AU11" s="11">
         <f>BNVFE!K17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AV11" s="15">
+      <c r="AV11" s="11">
         <f>BNVFE!L17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AW11" s="15">
+      <c r="AW11" s="11">
         <f>BNVFE!M17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AX11" s="15">
+      <c r="AX11" s="11">
         <f>BNVFE!N17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AY11" s="15">
+      <c r="AY11" s="11">
         <f>BNVFE!O17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AZ11" s="15">
+      <c r="AZ11" s="11">
         <f>BNVFE!P17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BA11" s="15">
+      <c r="BA11" s="11">
         <f>BNVFE!Q17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BB11" s="15">
+      <c r="BB11" s="11">
         <f>BNVFE!R17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BC11" s="15">
+      <c r="BC11" s="11">
         <f>BNVFE!S17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BD11" s="15">
+      <c r="BD11" s="11">
         <f>BNVFE!T17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BE11" s="15">
+      <c r="BE11" s="11">
         <f>BNVFE!U17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BF11" s="15">
+      <c r="BF11" s="11">
         <f>BNVFE!V17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BG11" s="15">
+      <c r="BG11" s="11">
         <f>BNVFE!W17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BH11" s="15">
+      <c r="BH11" s="11">
         <f>BNVFE!X17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BI11" s="15">
+      <c r="BI11" s="11">
         <f>BNVFE!Y17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BJ11" s="15">
+      <c r="BJ11" s="11">
         <f>BNVFE!Z17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BK11" s="15">
+      <c r="BK11" s="11">
         <f>BNVFE!AA17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BL11" s="15">
+      <c r="BL11" s="11">
         <f>BNVFE!AB17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BM11" s="15">
+      <c r="BM11" s="11">
         <f>BNVFE!AC17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BN11" s="15">
+      <c r="BN11" s="11">
         <f>BNVFE!AD17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BO11" s="15">
+      <c r="BO11" s="11">
         <f>BNVFE!AE17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BP11" s="15">
+      <c r="BP11" s="11">
         <f>BNVFE!AF17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BQ11" s="15">
+      <c r="BQ11" s="11">
         <f>BNVFE!AG17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BR11" s="15">
+      <c r="BR11" s="11">
         <f>BNVFE!AH17</f>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="BS11" s="15"/>
+      <c r="BS11" s="11"/>
       <c r="BT11" s="4"/>
     </row>
     <row r="12" spans="1:72">
@@ -22372,267 +22378,267 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="29">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4">
         <f>TREND($AN12:$BR12,$AN$1:$BR$1,G$1)</f>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="W12" s="29">
+      <c r="W12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="Y12" s="29">
+      <c r="Y12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="Z12" s="29">
+      <c r="Z12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AA12" s="29">
+      <c r="AA12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AB12" s="29">
+      <c r="AB12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AC12" s="29">
+      <c r="AC12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AD12" s="29">
+      <c r="AD12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AE12" s="29">
+      <c r="AE12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AF12" s="29">
+      <c r="AF12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AG12" s="29">
+      <c r="AG12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AH12" s="29">
+      <c r="AH12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AI12" s="29">
+      <c r="AI12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AJ12" s="29">
+      <c r="AJ12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AK12" s="29">
+      <c r="AK12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AL12" s="29">
+      <c r="AL12" s="4">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AM12" s="42">
+      <c r="AM12" s="28">
         <f t="shared" si="7"/>
         <v>4.971525705626559E-3</v>
       </c>
-      <c r="AN12" s="15">
+      <c r="AN12" s="11">
         <f>BNVFE!D18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AO12" s="15">
+      <c r="AO12" s="11">
         <f>BNVFE!E18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AP12" s="15">
+      <c r="AP12" s="11">
         <f>BNVFE!F18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AQ12" s="15">
+      <c r="AQ12" s="11">
         <f>BNVFE!G18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AR12" s="15">
+      <c r="AR12" s="11">
         <f>BNVFE!H18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AS12" s="15">
+      <c r="AS12" s="11">
         <f>BNVFE!I18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AT12" s="15">
+      <c r="AT12" s="11">
         <f>BNVFE!J18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AU12" s="15">
+      <c r="AU12" s="11">
         <f>BNVFE!K18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AV12" s="15">
+      <c r="AV12" s="11">
         <f>BNVFE!L18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AW12" s="15">
+      <c r="AW12" s="11">
         <f>BNVFE!M18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AX12" s="15">
+      <c r="AX12" s="11">
         <f>BNVFE!N18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AY12" s="15">
+      <c r="AY12" s="11">
         <f>BNVFE!O18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="AZ12" s="15">
+      <c r="AZ12" s="11">
         <f>BNVFE!P18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BA12" s="15">
+      <c r="BA12" s="11">
         <f>BNVFE!Q18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BB12" s="15">
+      <c r="BB12" s="11">
         <f>BNVFE!R18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BC12" s="15">
+      <c r="BC12" s="11">
         <f>BNVFE!S18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BD12" s="15">
+      <c r="BD12" s="11">
         <f>BNVFE!T18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BE12" s="15">
+      <c r="BE12" s="11">
         <f>BNVFE!U18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BF12" s="15">
+      <c r="BF12" s="11">
         <f>BNVFE!V18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BG12" s="15">
+      <c r="BG12" s="11">
         <f>BNVFE!W18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BH12" s="15">
+      <c r="BH12" s="11">
         <f>BNVFE!X18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BI12" s="15">
+      <c r="BI12" s="11">
         <f>BNVFE!Y18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BJ12" s="15">
+      <c r="BJ12" s="11">
         <f>BNVFE!Z18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BK12" s="15">
+      <c r="BK12" s="11">
         <f>BNVFE!AA18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BL12" s="15">
+      <c r="BL12" s="11">
         <f>BNVFE!AB18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BM12" s="15">
+      <c r="BM12" s="11">
         <f>BNVFE!AC18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BN12" s="15">
+      <c r="BN12" s="11">
         <f>BNVFE!AD18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BO12" s="15">
+      <c r="BO12" s="11">
         <f>BNVFE!AE18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BP12" s="15">
+      <c r="BP12" s="11">
         <f>BNVFE!AF18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BQ12" s="15">
+      <c r="BQ12" s="11">
         <f>BNVFE!AG18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BR12" s="15">
+      <c r="BR12" s="11">
         <f>BNVFE!AH18</f>
         <v>4.9715257056265547E-3</v>
       </c>
-      <c r="BS12" s="15"/>
+      <c r="BS12" s="11"/>
       <c r="BT12" s="4"/>
     </row>
     <row r="13" spans="1:72">
@@ -22642,26 +22648,26 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
       <c r="W13" s="4">
         <f>TREND($AN13:$BR13,$AN$1:$BR$1,W$1)</f>
         <v>1.1107106252376128E-3</v>
@@ -22726,360 +22732,360 @@
         <f t="shared" si="7"/>
         <v>1.1107106252376128E-3</v>
       </c>
-      <c r="AM13" s="41">
+      <c r="AM13" s="28">
         <f t="shared" si="7"/>
         <v>1.1107106252376128E-3</v>
       </c>
-      <c r="AN13" s="15">
+      <c r="AN13" s="11">
         <f>BNVFE!D19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AO13" s="15">
+      <c r="AO13" s="11">
         <f>BNVFE!E19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AP13" s="15">
+      <c r="AP13" s="11">
         <f>BNVFE!F19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AQ13" s="15">
+      <c r="AQ13" s="11">
         <f>BNVFE!G19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AR13" s="15">
+      <c r="AR13" s="11">
         <f>BNVFE!H19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AS13" s="15">
+      <c r="AS13" s="11">
         <f>BNVFE!I19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AT13" s="15">
+      <c r="AT13" s="11">
         <f>BNVFE!J19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AU13" s="15">
+      <c r="AU13" s="11">
         <f>BNVFE!K19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AV13" s="15">
+      <c r="AV13" s="11">
         <f>BNVFE!L19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AW13" s="15">
+      <c r="AW13" s="11">
         <f>BNVFE!M19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AX13" s="15">
+      <c r="AX13" s="11">
         <f>BNVFE!N19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AY13" s="15">
+      <c r="AY13" s="11">
         <f>BNVFE!O19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="AZ13" s="15">
+      <c r="AZ13" s="11">
         <f>BNVFE!P19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BA13" s="15">
+      <c r="BA13" s="11">
         <f>BNVFE!Q19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BB13" s="15">
+      <c r="BB13" s="11">
         <f>BNVFE!R19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BC13" s="15">
+      <c r="BC13" s="11">
         <f>BNVFE!S19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BD13" s="15">
+      <c r="BD13" s="11">
         <f>BNVFE!T19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BE13" s="15">
+      <c r="BE13" s="11">
         <f>BNVFE!U19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BF13" s="15">
+      <c r="BF13" s="11">
         <f>BNVFE!V19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BG13" s="15">
+      <c r="BG13" s="11">
         <f>BNVFE!W19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BH13" s="15">
+      <c r="BH13" s="11">
         <f>BNVFE!X19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BI13" s="15">
+      <c r="BI13" s="11">
         <f>BNVFE!Y19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BJ13" s="15">
+      <c r="BJ13" s="11">
         <f>BNVFE!Z19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BK13" s="15">
+      <c r="BK13" s="11">
         <f>BNVFE!AA19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BL13" s="15">
+      <c r="BL13" s="11">
         <f>BNVFE!AB19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BM13" s="15">
+      <c r="BM13" s="11">
         <f>BNVFE!AC19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BN13" s="15">
+      <c r="BN13" s="11">
         <f>BNVFE!AD19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BO13" s="15">
+      <c r="BO13" s="11">
         <f>BNVFE!AE19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BP13" s="15">
+      <c r="BP13" s="11">
         <f>BNVFE!AF19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BQ13" s="15">
+      <c r="BQ13" s="11">
         <f>BNVFE!AG19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BR13" s="15">
+      <c r="BR13" s="11">
         <f>BNVFE!AH19</f>
         <v>1.110710625237613E-3</v>
       </c>
-      <c r="BS13" s="15"/>
+      <c r="BS13" s="11"/>
       <c r="BT13" s="4"/>
     </row>
-    <row r="14" spans="1:72" s="8" customFormat="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:72">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="8">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14">
         <f t="shared" ref="W14:AL14" si="8">$AM14</f>
         <v>0</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AA14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AB14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AC14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="8">
+      <c r="AD14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="8">
+      <c r="AE14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="8">
+      <c r="AF14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AG14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="8">
+      <c r="AH14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="21">
+      <c r="AI14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="21">
+      <c r="AJ14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="33">
+      <c r="AK14" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="33">
+      <c r="AL14" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="34">
+      <c r="AM14" s="23">
         <f>BNVFE!D20</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="16">
+      <c r="AN14" s="12">
         <f>BNVFE!D20</f>
         <v>0</v>
       </c>
-      <c r="AO14" s="16">
+      <c r="AO14" s="12">
         <f>BNVFE!E20</f>
         <v>0</v>
       </c>
-      <c r="AP14" s="16">
+      <c r="AP14" s="12">
         <f>BNVFE!F20</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="16">
+      <c r="AQ14" s="12">
         <f>BNVFE!G20</f>
         <v>0</v>
       </c>
-      <c r="AR14" s="16">
+      <c r="AR14" s="12">
         <f>BNVFE!H20</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="16">
+      <c r="AS14" s="12">
         <f>BNVFE!I20</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="16">
+      <c r="AT14" s="12">
         <f>BNVFE!J20</f>
         <v>0</v>
       </c>
-      <c r="AU14" s="16">
+      <c r="AU14" s="12">
         <f>BNVFE!K20</f>
         <v>0</v>
       </c>
-      <c r="AV14" s="16">
+      <c r="AV14" s="12">
         <f>BNVFE!L20</f>
         <v>0</v>
       </c>
-      <c r="AW14" s="16">
+      <c r="AW14" s="12">
         <f>BNVFE!M20</f>
         <v>0</v>
       </c>
-      <c r="AX14" s="16">
+      <c r="AX14" s="12">
         <f>BNVFE!N20</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="16">
+      <c r="AY14" s="12">
         <f>BNVFE!O20</f>
         <v>0</v>
       </c>
-      <c r="AZ14" s="16">
+      <c r="AZ14" s="12">
         <f>BNVFE!P20</f>
         <v>0</v>
       </c>
-      <c r="BA14" s="16">
+      <c r="BA14" s="12">
         <f>BNVFE!Q20</f>
         <v>0</v>
       </c>
-      <c r="BB14" s="16">
+      <c r="BB14" s="12">
         <f>BNVFE!R20</f>
         <v>0</v>
       </c>
-      <c r="BC14" s="16">
+      <c r="BC14" s="12">
         <f>BNVFE!S20</f>
         <v>0</v>
       </c>
-      <c r="BD14" s="16">
+      <c r="BD14" s="12">
         <f>BNVFE!T20</f>
         <v>0</v>
       </c>
-      <c r="BE14" s="16">
+      <c r="BE14" s="12">
         <f>BNVFE!U20</f>
         <v>0</v>
       </c>
-      <c r="BF14" s="16">
+      <c r="BF14" s="12">
         <f>BNVFE!V20</f>
         <v>0</v>
       </c>
-      <c r="BG14" s="16">
+      <c r="BG14" s="12">
         <f>BNVFE!W20</f>
         <v>0</v>
       </c>
-      <c r="BH14" s="16">
+      <c r="BH14" s="12">
         <f>BNVFE!X20</f>
         <v>0</v>
       </c>
-      <c r="BI14" s="16">
+      <c r="BI14" s="12">
         <f>BNVFE!Y20</f>
         <v>0</v>
       </c>
-      <c r="BJ14" s="16">
+      <c r="BJ14" s="12">
         <f>BNVFE!Z20</f>
         <v>0</v>
       </c>
-      <c r="BK14" s="16">
+      <c r="BK14" s="12">
         <f>BNVFE!AA20</f>
         <v>0</v>
       </c>
-      <c r="BL14" s="16">
+      <c r="BL14" s="12">
         <f>BNVFE!AB20</f>
         <v>0</v>
       </c>
-      <c r="BM14" s="16">
+      <c r="BM14" s="12">
         <f>BNVFE!AC20</f>
         <v>0</v>
       </c>
-      <c r="BN14" s="16">
+      <c r="BN14" s="12">
         <f>BNVFE!AD20</f>
         <v>0</v>
       </c>
-      <c r="BO14" s="16">
+      <c r="BO14" s="12">
         <f>BNVFE!AE20</f>
         <v>0</v>
       </c>
-      <c r="BP14" s="16">
+      <c r="BP14" s="12">
         <f>BNVFE!AF20</f>
         <v>0</v>
       </c>
-      <c r="BQ14" s="16">
+      <c r="BQ14" s="12">
         <f>BNVFE!AG20</f>
         <v>0</v>
       </c>
-      <c r="BR14" s="16">
+      <c r="BR14" s="12">
         <f>BNVFE!AH20</f>
         <v>0</v>
       </c>
-      <c r="BS14" s="16"/>
+      <c r="BS14" s="12"/>
     </row>
     <row r="15" spans="1:72">
-      <c r="E15" s="38"/>
+      <c r="E15" s="26"/>
       <c r="X15" s="4"/>
       <c r="AH15" s="4"/>
     </row>
@@ -23090,7 +23096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23100,13 +23106,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -23344,123 +23350,123 @@
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0495642992099084E-4</v>
+        <v>3.0273729318629119E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1206914647141513E-4</v>
+        <v>3.0761991621687003E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1882187840910213E-4</v>
+        <v>3.1213979915246134E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.2511303052032729E-4</v>
+        <v>3.1620568917810511E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.3132507899165593E-4</v>
+        <v>3.2019608072131204E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.3654940106272427E-4</v>
+        <v>3.2323964534612426E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.4251086081258395E-4</v>
+        <v>3.2700003616200409E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.4855887390285254E-4</v>
+        <v>3.3084678824742565E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.5467038374657962E-4</v>
+        <v>3.347565299442292E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.606941984468817E-4</v>
+        <v>3.3858619543846379E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.6680695227320973E-4</v>
+        <v>3.4250190615166639E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.7287562060881878E-4</v>
+        <v>3.4637865729529685E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.7896305858214533E-4</v>
+        <v>3.5027505993149845E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.9236503637815238E-4</v>
+        <v>3.6160433984711515E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.9958069974953693E-4</v>
+        <v>3.6818953902328103E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>4.0425029377326959E-4</v>
+        <v>3.7213933156593097E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>4.0766085158771333E-4</v>
+        <v>3.7498022200458688E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>4.1161322090888235E-4</v>
+        <v>3.9283888763458292E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>4.1531514899510258E-4</v>
+        <v>4.2828177192306375E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>4.1564996463107134E-4</v>
+        <v>4.2922609449666765E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.1549338417832383E-4</v>
+        <v>4.2954884971441691E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.1532681156711845E-4</v>
+        <v>4.2980161940757162E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.1611003974718208E-4</v>
+        <v>4.3127275480689105E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.159197079205367E-4</v>
+        <v>4.3174910892155335E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.1570872142824807E-4</v>
+        <v>4.3238794442968778E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.1548706556389424E-4</v>
+        <v>4.3308204592944482E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.1544768876733244E-4</v>
+        <v>4.3408427605020098E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.1466296916326439E-4</v>
+        <v>4.3432016321901044E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.1384514251470114E-4</v>
+        <v>4.3452688005751722E-4</v>
       </c>
       <c r="AF3" s="4">
         <f>BNVFE!AF25*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>4.1327648701805351E-4</v>
+        <v>4.3506172517354685E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -23469,132 +23475,132 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="4">
         <f>Extrapolations!AA2</f>
         <v>3.142498616321923E-4</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.2092630056054029E-4</v>
-      </c>
-      <c r="D4" s="29">
+        <v>3.1859095271137485E-4</v>
+      </c>
+      <c r="D4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.2760273948888828E-4</v>
-      </c>
-      <c r="E4" s="29">
+        <v>3.2293204379055739E-4</v>
+      </c>
+      <c r="E4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.3427917841723627E-4</v>
-      </c>
-      <c r="F4" s="29">
+        <v>3.2727313486973994E-4</v>
+      </c>
+      <c r="F4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.4095561734558426E-4</v>
-      </c>
-      <c r="G4" s="29">
+        <v>3.3161422594892248E-4</v>
+      </c>
+      <c r="G4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.4763205627393225E-4</v>
-      </c>
-      <c r="H4" s="29">
+        <v>3.3595531702810503E-4</v>
+      </c>
+      <c r="H4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.5430849520228023E-4</v>
-      </c>
-      <c r="I4" s="29">
+        <v>3.4029640810728757E-4</v>
+      </c>
+      <c r="I4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.6098493413062822E-4</v>
-      </c>
-      <c r="J4" s="29">
+        <v>3.4463749918647011E-4</v>
+      </c>
+      <c r="J4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.6766137305897621E-4</v>
-      </c>
-      <c r="K4" s="29">
+        <v>3.4897859026565266E-4</v>
+      </c>
+      <c r="K4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.743378119873242E-4</v>
-      </c>
-      <c r="L4" s="29">
+        <v>3.533196813448352E-4</v>
+      </c>
+      <c r="L4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.8101425091567219E-4</v>
-      </c>
-      <c r="M4" s="29">
+        <v>3.5766077242401775E-4</v>
+      </c>
+      <c r="M4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.8769068984402017E-4</v>
-      </c>
-      <c r="N4" s="29">
+        <v>3.6200186350320029E-4</v>
+      </c>
+      <c r="N4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.9436712877236816E-4</v>
-      </c>
-      <c r="O4" s="29">
+        <v>3.6634295458238284E-4</v>
+      </c>
+      <c r="O4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>4.010435677007162E-4</v>
-      </c>
-      <c r="P4" s="29">
+        <v>3.7068404566156505E-4</v>
+      </c>
+      <c r="P4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>4.1543936179917892E-4</v>
-      </c>
-      <c r="Q4" s="29">
+        <v>3.8286968063361244E-4</v>
+      </c>
+      <c r="Q4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>4.232456921304615E-4</v>
-      </c>
-      <c r="R4" s="29">
+        <v>3.8999540362380768E-4</v>
+      </c>
+      <c r="R4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>4.284224989356039E-4</v>
-      </c>
-      <c r="S4" s="29">
+        <v>3.9439145706872869E-4</v>
+      </c>
+      <c r="S4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>4.3223887309206766E-4</v>
-      </c>
-      <c r="T4" s="29">
+        <v>3.9758791642567675E-4</v>
+      </c>
+      <c r="T4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>4.3661930301858122E-4</v>
-      </c>
-      <c r="U4" s="29">
+        <v>4.1670440259151796E-4</v>
+      </c>
+      <c r="U4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>4.4073837767711228E-4</v>
-      </c>
-      <c r="V4" s="29">
+        <v>4.5449874343080136E-4</v>
+      </c>
+      <c r="V4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>4.4130433819121803E-4</v>
-      </c>
-      <c r="W4" s="29">
+        <v>4.5571840174311271E-4</v>
+      </c>
+      <c r="W4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>4.4139330713525239E-4</v>
-      </c>
-      <c r="X4" s="29">
+        <v>4.5632492494806224E-4</v>
+      </c>
+      <c r="X4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>4.4143859386227608E-4</v>
-      </c>
-      <c r="Y4" s="29">
+        <v>4.5682343934192723E-4</v>
+      </c>
+      <c r="Y4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>4.4252278985937798E-4</v>
-      </c>
-      <c r="Z4" s="29">
+        <v>4.5864796428233097E-4</v>
+      </c>
+      <c r="Z4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>4.4258101673758966E-4</v>
-      </c>
-      <c r="AA4" s="29">
+        <v>4.5942511490356416E-4</v>
+      </c>
+      <c r="AA4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>4.4262644410952699E-4</v>
-      </c>
-      <c r="AB4" s="29">
+        <v>4.6038567019040524E-4</v>
+      </c>
+      <c r="AB4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>4.4263525674443374E-4</v>
-      </c>
-      <c r="AC4" s="29">
+        <v>4.6137990440500237E-4</v>
+      </c>
+      <c r="AC4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>4.428907913418545E-4</v>
-      </c>
-      <c r="AD4" s="29">
+        <v>4.627584500454361E-4</v>
+      </c>
+      <c r="AD4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>4.4235185104972023E-4</v>
-      </c>
-      <c r="AE4" s="29">
+        <v>4.6332164296180965E-4</v>
+      </c>
+      <c r="AE4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>4.4180682000362565E-4</v>
-      </c>
-      <c r="AF4" s="29">
+        <v>4.6388593065941057E-4</v>
+      </c>
+      <c r="AF4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>4.415169210975881E-4</v>
-      </c>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
+        <v>4.6479081055883617E-4</v>
+      </c>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
@@ -23606,123 +23612,123 @@
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.3247079907851041E-4</v>
+        <v>3.3005144309496473E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.3608525156768267E-4</v>
+        <v>3.3129361905197572E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.4140601212844754E-4</v>
+        <v>3.3425059969841139E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4682483192820804E-4</v>
+        <v>3.3732263769440833E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.5399117808755025E-4</v>
+        <v>3.4210083999227872E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.5770234384308779E-4</v>
+        <v>3.4355603783043959E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.6308195251352201E-4</v>
+        <v>3.4663955274299627E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.6931237060169403E-4</v>
+        <v>3.5054569205335479E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.7541688009215464E-4</v>
+        <v>3.5433816247802349E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.8060604014518434E-4</v>
+        <v>3.5727758208629781E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.8660972321779061E-4</v>
+        <v>3.6099252295587557E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.926877010252523E-4</v>
+        <v>3.6478286887036809E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.9870114016606978E-4</v>
+        <v>3.6851894295167754E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.1235135875181372E-4</v>
+        <v>3.8002377134032826E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>4.2000791936622607E-4</v>
+        <v>3.8701199110595277E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>4.2525292156963163E-4</v>
+        <v>3.9147364990695831E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>4.2886235816476826E-4</v>
+        <v>3.9448208393744698E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>4.3285917396080627E-4</v>
+        <v>4.1311577899687946E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>4.3707582192698479E-4</v>
+        <v>4.5072183842209402E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>4.3740782672530476E-4</v>
+        <v>4.5169462081927711E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.3733077971452199E-4</v>
+        <v>4.521249688309292E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.3727737730799265E-4</v>
+        <v>4.525171976933608E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.3826191917219735E-4</v>
+        <v>4.542318308954683E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.381057457924663E-4</v>
+        <v>4.5477952055940612E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.3788374849786256E-4</v>
+        <v>4.5545268634648259E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.3769898244799599E-4</v>
+        <v>4.5623458954744165E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.3777480871824145E-4</v>
+        <v>4.5741296931825801E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.3716325908544007E-4</v>
+        <v>4.5788708459420266E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.363360192507078E-4</v>
+        <v>4.5814172893183499E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>BNVFE!AF27*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>4.3573558513369061E-4</v>
+        <v>4.5870472030867576E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -23737,123 +23743,123 @@
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.2428092566616732E-4</v>
+        <v>5.2046578701914962E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.3102064816912329E-4</v>
+        <v>5.2344978395413549E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.3833911588692471E-4</v>
+        <v>5.2705624955022199E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.5418108584188324E-4</v>
+        <v>5.3899781223055879E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>5.8181999979491409E-4</v>
+        <v>5.6227703675971281E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>6.1507401996100622E-4</v>
+        <v>5.9074925537233765E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>6.2764405946183748E-4</v>
+        <v>5.992207944996859E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>6.3817589517729746E-4</v>
+        <v>6.0574686534929938E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>6.4869543049513468E-4</v>
+        <v>6.1227280668123567E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>6.581047918396357E-4</v>
+        <v>6.1776762317850031E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>6.6834810198910361E-4</v>
+        <v>6.2406259610263957E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>6.7910400948621805E-4</v>
+        <v>6.3084611052237143E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>6.8981170811608045E-4</v>
+        <v>6.3759206057134501E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>7.1344718240657083E-4</v>
+        <v>6.575142367202969E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>7.2661438980298719E-4</v>
+        <v>6.6953137976117814E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>7.356760015799844E-4</v>
+        <v>6.7723877927624405E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>7.4187120383651457E-4</v>
+        <v>6.8239819357187139E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>7.4853261641737515E-4</v>
+        <v>7.143908539728348E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>7.5506233584725639E-4</v>
+        <v>7.7863626186398447E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>7.5521763030150985E-4</v>
+        <v>7.7988485873460188E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>7.5422055105138291E-4</v>
+        <v>7.7973460582479433E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>7.5304546398064301E-4</v>
+        <v>7.7929031040680061E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>7.5349566500976337E-4</v>
+        <v>7.8095244080447995E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>7.5171922103753558E-4</v>
+        <v>7.8032874533602939E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>7.4943614758610189E-4</v>
+        <v>7.795053089642472E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>7.4699197436416847E-4</v>
+        <v>7.7862547203833433E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>7.4464449629104302E-4</v>
+        <v>7.7804853854486272E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>7.4057257931631681E-4</v>
+        <v>7.7567959389579684E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>7.3602635790278052E-4</v>
+        <v>7.728089666492378E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>BNVFE!AF28*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>7.3135170735541761E-4</v>
+        <v>7.6990379444637376E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -23868,123 +23874,123 @@
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>2.898398018603075E-4</v>
+        <v>2.8773066728113853E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>2.9639229529668671E-4</v>
+        <v>2.9216657294521781E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.0225117678650028E-4</v>
+        <v>2.9591639722626953E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.0778031687736323E-4</v>
+        <v>2.99347851600729E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1364712087038462E-4</v>
+        <v>3.0311191394826462E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1818917619505965E-4</v>
+        <v>3.0560552519627761E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2376820979030025E-4</v>
+        <v>3.0910615814739656E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2959142944700965E-4</v>
+        <v>3.1284317809912674E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.3540222212257912E-4</v>
+        <v>3.1657022733976996E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.4090374402748674E-4</v>
+        <v>3.2000875588796858E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.4686163891380382E-4</v>
+        <v>3.2387819195526624E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.5254200312831522E-4</v>
+        <v>3.2748996966977387E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.582922320064483E-4</v>
+        <v>3.3116904193405711E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.7083340468707854E-4</v>
+        <v>3.417607484421509E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.7782282401531729E-4</v>
+        <v>3.4814096750386184E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.8233661580785696E-4</v>
+        <v>3.519663308388775E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.8550736662354158E-4</v>
+        <v>3.5460269819358875E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.8922118122167398E-4</v>
+        <v>3.7146818447016827E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.9278680995063548E-4</v>
+        <v>4.0505007188083468E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.9308720014886002E-4</v>
+        <v>4.0592637573368492E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.9293845521070378E-4</v>
+        <v>4.0623092417730792E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.9281882697013573E-4</v>
+        <v>4.0650919532138791E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.9354272058642249E-4</v>
+        <v>4.0788310069284843E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.9331686794151E-4</v>
+        <v>4.0828603219255716E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.930117319368427E-4</v>
+        <v>4.0878029771683217E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.9280440477488073E-4</v>
+        <v>4.0943882341830048E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.9272510536214313E-4</v>
+        <v>4.1034237921428937E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.9200385857580093E-4</v>
+        <v>4.1058689224812239E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.9112433694300379E-4</v>
+        <v>4.1067061175031487E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>BNVFE!AF29*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>3.9051236766252144E-4</v>
+        <v>4.1109763007020822E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -24161,7 +24167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24171,13 +24177,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">
@@ -25059,18 +25065,18 @@
       <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="4">
         <v>2.0735934964818689E-3</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="4">
         <f t="shared" si="1"/>
         <v>2.0735934964818689E-3</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>2.0735934964818689E-3</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>2.0735934964818689E-3</v>
       </c>
@@ -25191,7 +25197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25201,13 +25207,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:35" ht="30">
+      <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B1">

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\VA\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3DED37-FC00-4EC5-A853-115506CE5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0603956F-AD66-4035-8F1C-2C7899F29CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="315" windowWidth="15690" windowHeight="17025" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
   <si>
     <t>Sources:</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>energy consumption that more closely matches EIA's AEO trajectory: freight LDVs, passenger HDVs, freight HDVs, passenger ships, passenger motorbikes.</t>
+  </si>
+  <si>
+    <t>Virginia</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1287,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1325,6 +1328,7 @@
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5693,199 +5697,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>3.9525225541302687E-5</c:v>
+                  <c:v>3.9525225541302694E-3</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>3.9505622007027585E-5</c:v>
+                  <c:v>3.9505622007027594E-3</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>3.9486018472752483E-5</c:v>
+                  <c:v>3.9486018472752495E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3.9466414938477381E-5</c:v>
+                  <c:v>3.9466414938477395E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>3.9446811404202279E-5</c:v>
+                  <c:v>3.9446811404202295E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>3.9427207869927177E-5</c:v>
+                  <c:v>3.9427207869927195E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>3.9407604335652075E-5</c:v>
+                  <c:v>3.9407604335652087E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>3.9388000801376973E-5</c:v>
+                  <c:v>3.9388000801376987E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.9368397267101871E-5</c:v>
+                  <c:v>3.9368397267101887E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>3.9348793732826769E-5</c:v>
+                  <c:v>3.9348793732826778E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>3.9329190198551674E-5</c:v>
+                  <c:v>3.9329190198551679E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>3.9309586664276572E-5</c:v>
+                  <c:v>3.9309586664276579E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>3.928998313000147E-5</c:v>
+                  <c:v>3.9289983130001479E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>3.9270379595726368E-5</c:v>
+                  <c:v>3.9270379595726379E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>3.9250776061451266E-5</c:v>
+                  <c:v>3.9250776061451271E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.9231172527176164E-5</c:v>
+                  <c:v>3.9231172527176171E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.9211568992901062E-5</c:v>
+                  <c:v>3.9211568992901071E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.919196545862596E-5</c:v>
+                  <c:v>3.9191965458625971E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.9172361924350858E-5</c:v>
+                  <c:v>3.9172361924350863E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.9152758390075756E-5</c:v>
+                  <c:v>3.9152758390075763E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.9133154855800654E-5</c:v>
+                  <c:v>3.9133154855800663E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.9113551321525552E-5</c:v>
+                  <c:v>3.9113551321525563E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.909394778725045E-5</c:v>
+                  <c:v>3.9093947787250463E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.9074344252975348E-5</c:v>
+                  <c:v>3.9074344252975355E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.9054740718700246E-5</c:v>
+                  <c:v>3.9054740718700255E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.9035137184425144E-5</c:v>
+                  <c:v>3.9035137184425155E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.9015533650150042E-5</c:v>
+                  <c:v>3.9015533650150055E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.899593011587494E-5</c:v>
+                  <c:v>3.8995930115874955E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.8976326581599838E-5</c:v>
+                  <c:v>3.8976326581599847E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.8956723047324736E-5</c:v>
+                  <c:v>3.8956723047324747E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.8937119513049634E-5</c:v>
+                  <c:v>3.8937119513049647E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8917515978774532E-5</c:v>
+                  <c:v>3.8917515978774547E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.889791244449943E-5</c:v>
+                  <c:v>3.8897912444499439E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.8878308910224328E-5</c:v>
+                  <c:v>3.8878308910224339E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.8868922094850746E-5</c:v>
+                  <c:v>3.886892209485075E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.8835964956971156E-5</c:v>
+                  <c:v>3.8835964956971157E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.8810530909215343E-5</c:v>
+                  <c:v>3.8810530909215344E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.8794345419032002E-5</c:v>
+                  <c:v>3.8794345419032004E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.8779756085887973E-5</c:v>
+                  <c:v>3.8779756085887975E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8768659775611612E-5</c:v>
+                  <c:v>3.8768659775611615E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.8756372155893972E-5</c:v>
+                  <c:v>3.8756372155893974E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.8743413448561118E-5</c:v>
+                  <c:v>3.8743413448561114E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.8741625203614656E-5</c:v>
+                  <c:v>3.8741625203614657E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.873869428995112E-5</c:v>
+                  <c:v>3.8738694289951123E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.8727323156960051E-5</c:v>
+                  <c:v>3.8727323156960052E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.872801832305252E-5</c:v>
+                  <c:v>3.872801832305252E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.8723285633958972E-5</c:v>
+                  <c:v>3.8723285633958972E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.8719654146009875E-5</c:v>
+                  <c:v>3.8719654146009874E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.8712836957078314E-5</c:v>
+                  <c:v>3.8712836957078313E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.871017437594258E-5</c:v>
+                  <c:v>3.8710174375942577E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.8701959513390746E-5</c:v>
+                  <c:v>3.8701959513390751E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.8693459130790492E-5</c:v>
+                  <c:v>3.8693459130790496E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.8684314096127021E-5</c:v>
+                  <c:v>3.8684314096127021E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.8675224209457144E-5</c:v>
+                  <c:v>3.867522420945714E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.8662639724460569E-5</c:v>
+                  <c:v>3.8662639724460568E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.8650753548999096E-5</c:v>
+                  <c:v>3.8650753548999097E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.8637937383671609E-5</c:v>
+                  <c:v>3.8637937383671607E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.8623677194928998E-5</c:v>
+                  <c:v>3.8623677194928995E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.8608334518532409E-5</c:v>
+                  <c:v>3.8608334518532407E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.8590701122559256E-5</c:v>
+                  <c:v>3.8590701122559255E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.8573556454320506E-5</c:v>
+                  <c:v>3.8573556454320505E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.8555651429608931E-5</c:v>
+                  <c:v>3.8555651429608932E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.8536129241038666E-5</c:v>
+                  <c:v>3.8536129241038665E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.8512787391125357E-5</c:v>
+                  <c:v>3.8512787391125356E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.8487689875144674E-5</c:v>
+                  <c:v>3.8487689875144671E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6220,199 +6224,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>2.6319489092741909E-4</c:v>
+                  <c:v>2.6319489092741927E-3</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.656830419354838E-4</c:v>
+                  <c:v>2.6568304193548414E-3</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.681711929435485E-4</c:v>
+                  <c:v>2.6817119294354833E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.706593439516132E-4</c:v>
+                  <c:v>2.706593439516132E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.7314749495967704E-4</c:v>
+                  <c:v>2.7314749495967738E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.7563564596774174E-4</c:v>
+                  <c:v>2.7563564596774226E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.7812379697580644E-4</c:v>
+                  <c:v>2.7812379697580644E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.8061194798387114E-4</c:v>
+                  <c:v>2.8061194798387132E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>2.8310009899193585E-4</c:v>
+                  <c:v>2.831000989919355E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>2.8558824999999968E-4</c:v>
+                  <c:v>2.8558824999999968E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>2.8807640100806439E-4</c:v>
+                  <c:v>2.8807640100806456E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>2.9056455201612909E-4</c:v>
+                  <c:v>2.9056455201612874E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>2.9305270302419379E-4</c:v>
+                  <c:v>2.9305270302419362E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>2.9554085403225849E-4</c:v>
+                  <c:v>2.955408540322578E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>2.9802900504032233E-4</c:v>
+                  <c:v>2.9802900504032268E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.0051715604838703E-4</c:v>
+                  <c:v>3.0051715604838686E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.0300530705645173E-4</c:v>
+                  <c:v>3.0300530705645173E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.0549345806451644E-4</c:v>
+                  <c:v>3.0549345806451592E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.0798160907258027E-4</c:v>
+                  <c:v>3.0798160907258079E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.1046976008064497E-4</c:v>
+                  <c:v>3.1046976008064497E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.1295791108870968E-4</c:v>
+                  <c:v>3.1295791108870985E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.1544606209677438E-4</c:v>
+                  <c:v>3.1544606209677403E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.1793421310483908E-4</c:v>
+                  <c:v>3.1793421310483891E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.2042236411290292E-4</c:v>
+                  <c:v>3.2042236411290309E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.2291051512096762E-4</c:v>
+                  <c:v>3.2291051512096797E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.2539866612903232E-4</c:v>
+                  <c:v>3.2539866612903215E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.2788681713709703E-4</c:v>
+                  <c:v>3.2788681713709703E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.3037496814516173E-4</c:v>
+                  <c:v>3.3037496814516121E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3286311915322556E-4</c:v>
+                  <c:v>3.3286311915322608E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3535127016129027E-4</c:v>
+                  <c:v>3.3535127016129027E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3783942116935497E-4</c:v>
+                  <c:v>3.3783942116935514E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4032757217741967E-4</c:v>
+                  <c:v>3.4032757217741932E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.4281572318548351E-4</c:v>
+                  <c:v>3.428157231854842E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4530387419354821E-4</c:v>
+                  <c:v>3.4530387419354838E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.4893709999999999E-4</c:v>
+                  <c:v>3.4893709999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5120030000000002E-4</c:v>
+                  <c:v>3.5120030000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.5347819999999997E-4</c:v>
+                  <c:v>3.5347819999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.5577100000000001E-4</c:v>
+                  <c:v>3.55771E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.5807850000000002E-4</c:v>
+                  <c:v>3.580785E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.6040100000000005E-4</c:v>
+                  <c:v>3.6040100000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.6273859999999997E-4</c:v>
+                  <c:v>3.6273859999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.6509140000000003E-4</c:v>
+                  <c:v>3.6509140000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.6745939999999997E-4</c:v>
+                  <c:v>3.6745939999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.6984279999999995E-4</c:v>
+                  <c:v>3.6984279999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.7224160000000003E-4</c:v>
+                  <c:v>3.7224160000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.7465600000000001E-4</c:v>
+                  <c:v>3.7465599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.77086E-4</c:v>
+                  <c:v>3.77086E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.7953179999999996E-4</c:v>
+                  <c:v>3.7953179999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.8199350000000002E-4</c:v>
+                  <c:v>3.819935E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.8447119999999996E-4</c:v>
+                  <c:v>3.8447119999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.8696489999999999E-4</c:v>
+                  <c:v>3.8696489999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.8947480000000001E-4</c:v>
+                  <c:v>3.894748E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.9200089999999997E-4</c:v>
+                  <c:v>3.9200089999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.9454349999999997E-4</c:v>
+                  <c:v>3.9454349999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.9710250000000004E-4</c:v>
+                  <c:v>3.9710250000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.996782E-4</c:v>
+                  <c:v>3.9967819999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.0227050000000004E-4</c:v>
+                  <c:v>4.0227050000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.0487970000000005E-4</c:v>
+                  <c:v>4.0487970000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.0750580000000001E-4</c:v>
+                  <c:v>4.0750580000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1014889999999997E-4</c:v>
+                  <c:v>4.1014889999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1280910000000002E-4</c:v>
+                  <c:v>4.1280910000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.154866E-4</c:v>
+                  <c:v>4.1548660000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1818150000000001E-4</c:v>
+                  <c:v>4.1818150000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.2089390000000002E-4</c:v>
+                  <c:v>4.2089390000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.2362379999999998E-4</c:v>
+                  <c:v>4.2362379999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7809,7 +7813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
@@ -7821,12 +7825,18 @@
     <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="30">
+        <v>44834</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7834,58 +7844,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="B8" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -11933,127 +11943,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>8.4577010748440118E-4</v>
+        <v>8.4577010748440179E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>8.5376571765036235E-4</v>
+        <v>8.5376571765036352E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>8.6176132781632352E-4</v>
+        <v>8.61761327816323E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>8.6975693798228457E-4</v>
+        <v>8.6975693798228455E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>8.7775254814824303E-4</v>
+        <v>8.7775254814824403E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>8.8574815831420409E-4</v>
+        <v>8.8574815831420576E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>8.9374376848016526E-4</v>
+        <v>8.9374376848016523E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>9.0173937864612642E-4</v>
+        <v>9.0173937864612697E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>9.0973498881208748E-4</v>
+        <v>9.0973498881208644E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>9.1773059897804583E-4</v>
+        <v>9.1773059897804592E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>9.25726209144007E-4</v>
+        <v>9.2572620914400765E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>9.3372181930996816E-4</v>
+        <v>9.3372181930996695E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>9.4171742947592933E-4</v>
+        <v>9.4171742947592868E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>9.4971303964189039E-4</v>
+        <v>9.4971303964188816E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>9.5770864980784874E-4</v>
+        <v>9.5770864980784989E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>9.657042599738099E-4</v>
+        <v>9.6570425997380936E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>9.7369987013977107E-4</v>
+        <v>9.7369987013977109E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>9.8169548030573213E-4</v>
+        <v>9.8169548030573057E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>9.8969109047169048E-4</v>
+        <v>9.8969109047169213E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>9.9768670063765164E-4</v>
+        <v>9.976867006376516E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0056823108036128E-3</v>
+        <v>1.0056823108036133E-2</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.013677920969574E-3</v>
+        <v>1.0136779209695728E-2</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0216735311355351E-3</v>
+        <v>1.0216735311355345E-2</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0296691413014935E-3</v>
+        <v>1.029669141301494E-2</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0376647514674547E-3</v>
+        <v>1.0376647514674557E-2</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0456603616334156E-3</v>
+        <v>1.0456603616334152E-2</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0536559717993768E-3</v>
+        <v>1.0536559717993768E-2</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0616515819653379E-3</v>
+        <v>1.0616515819653363E-2</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0696471921312963E-3</v>
+        <v>1.069647192131298E-2</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0776428022972575E-3</v>
+        <v>1.0776428022972575E-2</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0856384124632186E-3</v>
+        <v>1.0856384124632192E-2</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -12260,127 +12270,127 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!F10</f>
-        <v>2.6319489092741909E-4</v>
+        <v>2.6319489092741927E-3</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!G10</f>
-        <v>2.656830419354838E-4</v>
+        <v>2.6568304193548414E-3</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!H10</f>
-        <v>2.681711929435485E-4</v>
+        <v>2.6817119294354833E-3</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!I10</f>
-        <v>2.706593439516132E-4</v>
+        <v>2.706593439516132E-3</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!J10</f>
-        <v>2.7314749495967704E-4</v>
+        <v>2.7314749495967738E-3</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!K10</f>
-        <v>2.7563564596774174E-4</v>
+        <v>2.7563564596774226E-3</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!L10</f>
-        <v>2.7812379697580644E-4</v>
+        <v>2.7812379697580644E-3</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!M10</f>
-        <v>2.8061194798387114E-4</v>
+        <v>2.8061194798387132E-3</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!N10</f>
-        <v>2.8310009899193585E-4</v>
+        <v>2.831000989919355E-3</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!O10</f>
-        <v>2.8558824999999968E-4</v>
+        <v>2.8558824999999968E-3</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!P10</f>
-        <v>2.8807640100806439E-4</v>
+        <v>2.8807640100806456E-3</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!Q10</f>
-        <v>2.9056455201612909E-4</v>
+        <v>2.9056455201612874E-3</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!R10</f>
-        <v>2.9305270302419379E-4</v>
+        <v>2.9305270302419362E-3</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!S10</f>
-        <v>2.9554085403225849E-4</v>
+        <v>2.955408540322578E-3</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!T10</f>
-        <v>2.9802900504032233E-4</v>
+        <v>2.9802900504032268E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!U10</f>
-        <v>3.0051715604838703E-4</v>
+        <v>3.0051715604838686E-3</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!V10</f>
-        <v>3.0300530705645173E-4</v>
+        <v>3.0300530705645173E-3</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!W10</f>
-        <v>3.0549345806451644E-4</v>
+        <v>3.0549345806451592E-3</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!X10</f>
-        <v>3.0798160907258027E-4</v>
+        <v>3.0798160907258079E-3</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!Y10</f>
-        <v>3.1046976008064497E-4</v>
+        <v>3.1046976008064497E-3</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!Z10</f>
-        <v>3.1295791108870968E-4</v>
+        <v>3.1295791108870985E-3</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AA10</f>
-        <v>3.1544606209677438E-4</v>
+        <v>3.1544606209677403E-3</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AB10</f>
-        <v>3.1793421310483908E-4</v>
+        <v>3.1793421310483891E-3</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AC10</f>
-        <v>3.2042236411290292E-4</v>
+        <v>3.2042236411290309E-3</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AD10</f>
-        <v>3.2291051512096762E-4</v>
+        <v>3.2291051512096797E-3</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AE10</f>
-        <v>3.2539866612903232E-4</v>
+        <v>3.2539866612903215E-3</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AF10</f>
-        <v>3.2788681713709703E-4</v>
+        <v>3.2788681713709703E-3</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AG10</f>
-        <v>3.3037496814516173E-4</v>
+        <v>3.3037496814516121E-3</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AH10</f>
-        <v>3.3286311915322556E-4</v>
+        <v>3.3286311915322608E-3</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AI10</f>
-        <v>3.3535127016129027E-4</v>
+        <v>3.3535127016129027E-3</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AJ10</f>
-        <v>3.3783942116935497E-4</v>
+        <v>3.3783942116935514E-3</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -12587,127 +12597,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>7.8958467278225717E-4</v>
+        <v>7.8958467278225763E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>7.9704912580645128E-4</v>
+        <v>7.9704912580645226E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>8.0451357883064539E-4</v>
+        <v>8.045135788306448E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>8.119780318548395E-4</v>
+        <v>8.1197803185483943E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>8.19442484879031E-4</v>
+        <v>8.1944248487903198E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>8.2690693790322511E-4</v>
+        <v>8.2690693790322661E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>8.3437139092741922E-4</v>
+        <v>8.3437139092741915E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>8.4183584395161333E-4</v>
+        <v>8.4183584395161378E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>8.4930029697580743E-4</v>
+        <v>8.4930029697580633E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>8.5676474999999894E-4</v>
+        <v>8.5676474999999887E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>8.6422920302419305E-4</v>
+        <v>8.642292030241935E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>8.7169365604838716E-4</v>
+        <v>8.7169365604838605E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>8.7915810907258126E-4</v>
+        <v>8.7915810907258068E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>8.8662256209677537E-4</v>
+        <v>8.8662256209677322E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>8.9408701512096688E-4</v>
+        <v>8.9408701512096785E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>9.0155146814516098E-4</v>
+        <v>9.015514681451604E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>9.0901592116935509E-4</v>
+        <v>9.0901592116935503E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>9.164803741935492E-4</v>
+        <v>9.1648037419354757E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>9.2394482721774071E-4</v>
+        <v>9.239448272177422E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>9.3140928024193481E-4</v>
+        <v>9.3140928024193475E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>9.3887373326612892E-4</v>
+        <v>9.3887373326612938E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>9.4633818629032303E-4</v>
+        <v>9.4633818629032192E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>9.5380263931451714E-4</v>
+        <v>9.5380263931451655E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>9.6126709233870864E-4</v>
+        <v>9.612670923387091E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>9.6873154536290275E-4</v>
+        <v>9.6873154536290373E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>9.7619599838709686E-4</v>
+        <v>9.7619599838709627E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>9.8366045141129086E-4</v>
+        <v>9.836604514112909E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>9.9112490443548497E-4</v>
+        <v>9.9112490443548345E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>9.9858935745967647E-4</v>
+        <v>9.9858935745967808E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.0060538104838706E-3</v>
+        <v>1.0060538104838706E-2</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.0135182635080647E-3</v>
+        <v>1.0135182635080653E-2</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16507,8 +16517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17340,97 +17350,97 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>3.8868922094850746E-5</v>
+        <v>3.886892209485075E-3</v>
       </c>
       <c r="E14" s="4">
-        <v>3.8835964956971156E-5</v>
+        <v>3.8835964956971157E-3</v>
       </c>
       <c r="F14" s="4">
-        <v>3.8810530909215343E-5</v>
+        <v>3.8810530909215344E-3</v>
       </c>
       <c r="G14" s="4">
-        <v>3.8794345419032002E-5</v>
+        <v>3.8794345419032004E-3</v>
       </c>
       <c r="H14" s="4">
-        <v>3.8779756085887973E-5</v>
+        <v>3.8779756085887975E-3</v>
       </c>
       <c r="I14" s="4">
-        <v>3.8768659775611612E-5</v>
+        <v>3.8768659775611615E-3</v>
       </c>
       <c r="J14" s="4">
-        <v>3.8756372155893972E-5</v>
+        <v>3.8756372155893974E-3</v>
       </c>
       <c r="K14" s="4">
-        <v>3.8743413448561118E-5</v>
+        <v>3.8743413448561114E-3</v>
       </c>
       <c r="L14" s="4">
-        <v>3.8741625203614656E-5</v>
+        <v>3.8741625203614657E-3</v>
       </c>
       <c r="M14" s="4">
-        <v>3.873869428995112E-5</v>
+        <v>3.8738694289951123E-3</v>
       </c>
       <c r="N14" s="4">
-        <v>3.8727323156960051E-5</v>
+        <v>3.8727323156960052E-3</v>
       </c>
       <c r="O14" s="4">
-        <v>3.872801832305252E-5</v>
+        <v>3.872801832305252E-3</v>
       </c>
       <c r="P14" s="4">
-        <v>3.8723285633958972E-5</v>
+        <v>3.8723285633958972E-3</v>
       </c>
       <c r="Q14" s="4">
-        <v>3.8719654146009875E-5</v>
+        <v>3.8719654146009874E-3</v>
       </c>
       <c r="R14" s="4">
-        <v>3.8712836957078314E-5</v>
+        <v>3.8712836957078313E-3</v>
       </c>
       <c r="S14" s="4">
-        <v>3.871017437594258E-5</v>
+        <v>3.8710174375942577E-3</v>
       </c>
       <c r="T14" s="4">
-        <v>3.8701959513390746E-5</v>
+        <v>3.8701959513390751E-3</v>
       </c>
       <c r="U14" s="4">
-        <v>3.8693459130790492E-5</v>
+        <v>3.8693459130790496E-3</v>
       </c>
       <c r="V14" s="4">
-        <v>3.8684314096127021E-5</v>
+        <v>3.8684314096127021E-3</v>
       </c>
       <c r="W14" s="4">
-        <v>3.8675224209457144E-5</v>
+        <v>3.867522420945714E-3</v>
       </c>
       <c r="X14" s="4">
-        <v>3.8662639724460569E-5</v>
+        <v>3.8662639724460568E-3</v>
       </c>
       <c r="Y14" s="4">
-        <v>3.8650753548999096E-5</v>
+        <v>3.8650753548999097E-3</v>
       </c>
       <c r="Z14" s="4">
-        <v>3.8637937383671609E-5</v>
+        <v>3.8637937383671607E-3</v>
       </c>
       <c r="AA14" s="4">
-        <v>3.8623677194928998E-5</v>
+        <v>3.8623677194928995E-3</v>
       </c>
       <c r="AB14" s="4">
-        <v>3.8608334518532409E-5</v>
+        <v>3.8608334518532407E-3</v>
       </c>
       <c r="AC14" s="4">
-        <v>3.8590701122559256E-5</v>
+        <v>3.8590701122559255E-3</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.8573556454320506E-5</v>
+        <v>3.8573556454320505E-3</v>
       </c>
       <c r="AE14" s="4">
-        <v>3.8555651429608931E-5</v>
+        <v>3.8555651429608932E-3</v>
       </c>
       <c r="AF14" s="4">
-        <v>3.8536129241038666E-5</v>
+        <v>3.8536129241038665E-3</v>
       </c>
       <c r="AG14" s="4">
-        <v>3.8512787391125357E-5</v>
+        <v>3.8512787391125356E-3</v>
       </c>
       <c r="AH14" s="4">
-        <v>3.8487689875144674E-5</v>
+        <v>3.8487689875144671E-3</v>
       </c>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -17556,97 +17566,97 @@
         <v>5</v>
       </c>
       <c r="D16" s="4">
-        <v>3.4893709999999999E-4</v>
+        <v>3.4893709999999998E-3</v>
       </c>
       <c r="E16" s="4">
-        <v>3.5120030000000002E-4</v>
+        <v>3.5120030000000001E-3</v>
       </c>
       <c r="F16" s="4">
-        <v>3.5347819999999997E-4</v>
+        <v>3.5347819999999998E-3</v>
       </c>
       <c r="G16" s="4">
-        <v>3.5577100000000001E-4</v>
+        <v>3.55771E-3</v>
       </c>
       <c r="H16" s="4">
-        <v>3.5807850000000002E-4</v>
+        <v>3.580785E-3</v>
       </c>
       <c r="I16" s="4">
-        <v>3.6040100000000005E-4</v>
+        <v>3.6040100000000004E-3</v>
       </c>
       <c r="J16" s="4">
-        <v>3.6273859999999997E-4</v>
+        <v>3.6273859999999998E-3</v>
       </c>
       <c r="K16" s="4">
-        <v>3.6509140000000003E-4</v>
+        <v>3.6509140000000003E-3</v>
       </c>
       <c r="L16" s="4">
-        <v>3.6745939999999997E-4</v>
+        <v>3.6745939999999998E-3</v>
       </c>
       <c r="M16" s="4">
-        <v>3.6984279999999995E-4</v>
+        <v>3.6984279999999997E-3</v>
       </c>
       <c r="N16" s="4">
-        <v>3.7224160000000003E-4</v>
+        <v>3.7224160000000001E-3</v>
       </c>
       <c r="O16" s="4">
-        <v>3.7465600000000001E-4</v>
+        <v>3.7465599999999999E-3</v>
       </c>
       <c r="P16" s="4">
-        <v>3.77086E-4</v>
+        <v>3.77086E-3</v>
       </c>
       <c r="Q16" s="4">
-        <v>3.7953179999999996E-4</v>
+        <v>3.7953179999999998E-3</v>
       </c>
       <c r="R16" s="4">
-        <v>3.8199350000000002E-4</v>
+        <v>3.819935E-3</v>
       </c>
       <c r="S16" s="4">
-        <v>3.8447119999999996E-4</v>
+        <v>3.8447119999999997E-3</v>
       </c>
       <c r="T16" s="4">
-        <v>3.8696489999999999E-4</v>
+        <v>3.8696489999999997E-3</v>
       </c>
       <c r="U16" s="4">
-        <v>3.8947480000000001E-4</v>
+        <v>3.894748E-3</v>
       </c>
       <c r="V16" s="4">
-        <v>3.9200089999999997E-4</v>
+        <v>3.9200089999999995E-3</v>
       </c>
       <c r="W16" s="4">
-        <v>3.9454349999999997E-4</v>
+        <v>3.9454349999999997E-3</v>
       </c>
       <c r="X16" s="4">
-        <v>3.9710250000000004E-4</v>
+        <v>3.9710250000000004E-3</v>
       </c>
       <c r="Y16" s="4">
-        <v>3.996782E-4</v>
+        <v>3.9967819999999999E-3</v>
       </c>
       <c r="Z16" s="4">
-        <v>4.0227050000000004E-4</v>
+        <v>4.0227050000000006E-3</v>
       </c>
       <c r="AA16" s="4">
-        <v>4.0487970000000005E-4</v>
+        <v>4.0487970000000007E-3</v>
       </c>
       <c r="AB16" s="4">
-        <v>4.0750580000000001E-4</v>
+        <v>4.0750580000000003E-3</v>
       </c>
       <c r="AC16" s="4">
-        <v>4.1014889999999997E-4</v>
+        <v>4.1014889999999998E-3</v>
       </c>
       <c r="AD16" s="4">
-        <v>4.1280910000000002E-4</v>
+        <v>4.1280910000000004E-3</v>
       </c>
       <c r="AE16" s="4">
-        <v>4.154866E-4</v>
+        <v>4.1548660000000001E-3</v>
       </c>
       <c r="AF16" s="4">
-        <v>4.1818150000000001E-4</v>
+        <v>4.1818150000000002E-3</v>
       </c>
       <c r="AG16" s="4">
-        <v>4.2089390000000002E-4</v>
+        <v>4.2089390000000001E-3</v>
       </c>
       <c r="AH16" s="4">
-        <v>4.2362379999999998E-4</v>
+        <v>4.2362379999999998E-3</v>
       </c>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
@@ -18994,16 +19004,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.2405209526886144E-4</v>
+        <v>1.2405209526886144E-3</v>
       </c>
       <c r="C5">
-        <v>4.2438874697242062E-5</v>
+        <v>4.2438874697242066E-3</v>
       </c>
       <c r="D5">
-        <v>4.2438874697242062E-5</v>
+        <v>4.2438874697242066E-3</v>
       </c>
       <c r="E5">
-        <v>4.2438874697242062E-5</v>
+        <v>4.2438874697242066E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19012,7 +19022,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.2731662409172617E-4</v>
+        <v>1.2731662409172617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -19176,16 +19186,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1.1140743815291445E-3</v>
+        <v>1.1140743815291445E-2</v>
       </c>
       <c r="C13">
-        <v>3.4668839999999997E-4</v>
+        <v>3.4668839999999999E-3</v>
       </c>
       <c r="D13">
-        <v>3.4668839999999997E-4</v>
+        <v>3.4668839999999999E-3</v>
       </c>
       <c r="E13">
-        <v>3.4668839999999997E-4</v>
+        <v>3.4668839999999999E-3</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -19194,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.0400651999999998E-3</v>
+        <v>1.0400651999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -19648,7 +19658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AN10" sqref="AN10"/>
     </sheetView>
@@ -21294,263 +21304,263 @@
       <c r="E8" s="9"/>
       <c r="F8" s="4">
         <f>TREND($AN8:$AS8,$AN$1:$AS$1,F$1)</f>
-        <v>3.9525225541302687E-5</v>
+        <v>3.9525225541302694E-3</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ref="G8:AM9" si="6">TREND($AN8:$AS8,$AN$1:$AS$1,G$1)</f>
-        <v>3.9505622007027585E-5</v>
+        <v>3.9505622007027594E-3</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9486018472752483E-5</v>
+        <v>3.9486018472752495E-3</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9466414938477381E-5</v>
+        <v>3.9466414938477395E-3</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9446811404202279E-5</v>
+        <v>3.9446811404202295E-3</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9427207869927177E-5</v>
+        <v>3.9427207869927195E-3</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9407604335652075E-5</v>
+        <v>3.9407604335652087E-3</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9388000801376973E-5</v>
+        <v>3.9388000801376987E-3</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9368397267101871E-5</v>
+        <v>3.9368397267101887E-3</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9348793732826769E-5</v>
+        <v>3.9348793732826778E-3</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9329190198551674E-5</v>
+        <v>3.9329190198551679E-3</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9309586664276572E-5</v>
+        <v>3.9309586664276579E-3</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="6"/>
-        <v>3.928998313000147E-5</v>
+        <v>3.9289983130001479E-3</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9270379595726368E-5</v>
+        <v>3.9270379595726379E-3</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9250776061451266E-5</v>
+        <v>3.9250776061451271E-3</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9231172527176164E-5</v>
+        <v>3.9231172527176171E-3</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9211568992901062E-5</v>
+        <v>3.9211568992901071E-3</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="6"/>
-        <v>3.919196545862596E-5</v>
+        <v>3.9191965458625971E-3</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9172361924350858E-5</v>
+        <v>3.9172361924350863E-3</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9152758390075756E-5</v>
+        <v>3.9152758390075763E-3</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9133154855800654E-5</v>
+        <v>3.9133154855800663E-3</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9113551321525552E-5</v>
+        <v>3.9113551321525563E-3</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="6"/>
-        <v>3.909394778725045E-5</v>
+        <v>3.9093947787250463E-3</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9074344252975348E-5</v>
+        <v>3.9074344252975355E-3</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9054740718700246E-5</v>
+        <v>3.9054740718700255E-3</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9035137184425144E-5</v>
+        <v>3.9035137184425155E-3</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9015533650150042E-5</v>
+        <v>3.9015533650150055E-3</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="6"/>
-        <v>3.899593011587494E-5</v>
+        <v>3.8995930115874955E-3</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8976326581599838E-5</v>
+        <v>3.8976326581599847E-3</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8956723047324736E-5</v>
+        <v>3.8956723047324747E-3</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8937119513049634E-5</v>
+        <v>3.8937119513049647E-3</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8917515978774532E-5</v>
+        <v>3.8917515978774547E-3</v>
       </c>
       <c r="AL8" s="4">
         <f t="shared" si="6"/>
-        <v>3.889791244449943E-5</v>
+        <v>3.8897912444499439E-3</v>
       </c>
       <c r="AM8" s="28">
         <f t="shared" si="6"/>
-        <v>3.8878308910224328E-5</v>
+        <v>3.8878308910224339E-3</v>
       </c>
       <c r="AN8" s="11">
         <f>BNVFE!D14</f>
-        <v>3.8868922094850746E-5</v>
+        <v>3.886892209485075E-3</v>
       </c>
       <c r="AO8" s="11">
         <f>BNVFE!E14</f>
-        <v>3.8835964956971156E-5</v>
+        <v>3.8835964956971157E-3</v>
       </c>
       <c r="AP8" s="11">
         <f>BNVFE!F14</f>
-        <v>3.8810530909215343E-5</v>
+        <v>3.8810530909215344E-3</v>
       </c>
       <c r="AQ8" s="11">
         <f>BNVFE!G14</f>
-        <v>3.8794345419032002E-5</v>
+        <v>3.8794345419032004E-3</v>
       </c>
       <c r="AR8" s="11">
         <f>BNVFE!H14</f>
-        <v>3.8779756085887973E-5</v>
+        <v>3.8779756085887975E-3</v>
       </c>
       <c r="AS8" s="11">
         <f>BNVFE!I14</f>
-        <v>3.8768659775611612E-5</v>
+        <v>3.8768659775611615E-3</v>
       </c>
       <c r="AT8" s="11">
         <f>BNVFE!J14</f>
-        <v>3.8756372155893972E-5</v>
+        <v>3.8756372155893974E-3</v>
       </c>
       <c r="AU8" s="11">
         <f>BNVFE!K14</f>
-        <v>3.8743413448561118E-5</v>
+        <v>3.8743413448561114E-3</v>
       </c>
       <c r="AV8" s="11">
         <f>BNVFE!L14</f>
-        <v>3.8741625203614656E-5</v>
+        <v>3.8741625203614657E-3</v>
       </c>
       <c r="AW8" s="11">
         <f>BNVFE!M14</f>
-        <v>3.873869428995112E-5</v>
+        <v>3.8738694289951123E-3</v>
       </c>
       <c r="AX8" s="11">
         <f>BNVFE!N14</f>
-        <v>3.8727323156960051E-5</v>
+        <v>3.8727323156960052E-3</v>
       </c>
       <c r="AY8" s="11">
         <f>BNVFE!O14</f>
-        <v>3.872801832305252E-5</v>
+        <v>3.872801832305252E-3</v>
       </c>
       <c r="AZ8" s="11">
         <f>BNVFE!P14</f>
-        <v>3.8723285633958972E-5</v>
+        <v>3.8723285633958972E-3</v>
       </c>
       <c r="BA8" s="11">
         <f>BNVFE!Q14</f>
-        <v>3.8719654146009875E-5</v>
+        <v>3.8719654146009874E-3</v>
       </c>
       <c r="BB8" s="11">
         <f>BNVFE!R14</f>
-        <v>3.8712836957078314E-5</v>
+        <v>3.8712836957078313E-3</v>
       </c>
       <c r="BC8" s="11">
         <f>BNVFE!S14</f>
-        <v>3.871017437594258E-5</v>
+        <v>3.8710174375942577E-3</v>
       </c>
       <c r="BD8" s="11">
         <f>BNVFE!T14</f>
-        <v>3.8701959513390746E-5</v>
+        <v>3.8701959513390751E-3</v>
       </c>
       <c r="BE8" s="11">
         <f>BNVFE!U14</f>
-        <v>3.8693459130790492E-5</v>
+        <v>3.8693459130790496E-3</v>
       </c>
       <c r="BF8" s="11">
         <f>BNVFE!V14</f>
-        <v>3.8684314096127021E-5</v>
+        <v>3.8684314096127021E-3</v>
       </c>
       <c r="BG8" s="11">
         <f>BNVFE!W14</f>
-        <v>3.8675224209457144E-5</v>
+        <v>3.867522420945714E-3</v>
       </c>
       <c r="BH8" s="11">
         <f>BNVFE!X14</f>
-        <v>3.8662639724460569E-5</v>
+        <v>3.8662639724460568E-3</v>
       </c>
       <c r="BI8" s="11">
         <f>BNVFE!Y14</f>
-        <v>3.8650753548999096E-5</v>
+        <v>3.8650753548999097E-3</v>
       </c>
       <c r="BJ8" s="11">
         <f>BNVFE!Z14</f>
-        <v>3.8637937383671609E-5</v>
+        <v>3.8637937383671607E-3</v>
       </c>
       <c r="BK8" s="11">
         <f>BNVFE!AA14</f>
-        <v>3.8623677194928998E-5</v>
+        <v>3.8623677194928995E-3</v>
       </c>
       <c r="BL8" s="11">
         <f>BNVFE!AB14</f>
-        <v>3.8608334518532409E-5</v>
+        <v>3.8608334518532407E-3</v>
       </c>
       <c r="BM8" s="11">
         <f>BNVFE!AC14</f>
-        <v>3.8590701122559256E-5</v>
+        <v>3.8590701122559255E-3</v>
       </c>
       <c r="BN8" s="11">
         <f>BNVFE!AD14</f>
-        <v>3.8573556454320506E-5</v>
+        <v>3.8573556454320505E-3</v>
       </c>
       <c r="BO8" s="11">
         <f>BNVFE!AE14</f>
-        <v>3.8555651429608931E-5</v>
+        <v>3.8555651429608932E-3</v>
       </c>
       <c r="BP8" s="11">
         <f>BNVFE!AF14</f>
-        <v>3.8536129241038666E-5</v>
+        <v>3.8536129241038665E-3</v>
       </c>
       <c r="BQ8" s="11">
         <f>BNVFE!AG14</f>
-        <v>3.8512787391125357E-5</v>
+        <v>3.8512787391125356E-3</v>
       </c>
       <c r="BR8" s="11">
         <f>BNVFE!AH14</f>
-        <v>3.8487689875144674E-5</v>
+        <v>3.8487689875144671E-3</v>
       </c>
       <c r="BS8" s="11"/>
       <c r="BT8" s="4"/>
@@ -21840,263 +21850,263 @@
       <c r="E10" s="9"/>
       <c r="F10" s="4">
         <f>TREND($AN10:$BR10,$AN$1:$BR$1,F$1)</f>
-        <v>2.6319489092741909E-4</v>
+        <v>2.6319489092741927E-3</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ref="G10:AM13" si="7">TREND($AN10:$BR10,$AN$1:$BR$1,G$1)</f>
-        <v>2.656830419354838E-4</v>
+        <v>2.6568304193548414E-3</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="7"/>
-        <v>2.681711929435485E-4</v>
+        <v>2.6817119294354833E-3</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="7"/>
-        <v>2.706593439516132E-4</v>
+        <v>2.706593439516132E-3</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="7"/>
-        <v>2.7314749495967704E-4</v>
+        <v>2.7314749495967738E-3</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="7"/>
-        <v>2.7563564596774174E-4</v>
+        <v>2.7563564596774226E-3</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="7"/>
-        <v>2.7812379697580644E-4</v>
+        <v>2.7812379697580644E-3</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8061194798387114E-4</v>
+        <v>2.8061194798387132E-3</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8310009899193585E-4</v>
+        <v>2.831000989919355E-3</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8558824999999968E-4</v>
+        <v>2.8558824999999968E-3</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8807640100806439E-4</v>
+        <v>2.8807640100806456E-3</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9056455201612909E-4</v>
+        <v>2.9056455201612874E-3</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9305270302419379E-4</v>
+        <v>2.9305270302419362E-3</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9554085403225849E-4</v>
+        <v>2.955408540322578E-3</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9802900504032233E-4</v>
+        <v>2.9802900504032268E-3</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0051715604838703E-4</v>
+        <v>3.0051715604838686E-3</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0300530705645173E-4</v>
+        <v>3.0300530705645173E-3</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0549345806451644E-4</v>
+        <v>3.0549345806451592E-3</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0798160907258027E-4</v>
+        <v>3.0798160907258079E-3</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1046976008064497E-4</v>
+        <v>3.1046976008064497E-3</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1295791108870968E-4</v>
+        <v>3.1295791108870985E-3</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1544606209677438E-4</v>
+        <v>3.1544606209677403E-3</v>
       </c>
       <c r="AB10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1793421310483908E-4</v>
+        <v>3.1793421310483891E-3</v>
       </c>
       <c r="AC10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2042236411290292E-4</v>
+        <v>3.2042236411290309E-3</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2291051512096762E-4</v>
+        <v>3.2291051512096797E-3</v>
       </c>
       <c r="AE10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2539866612903232E-4</v>
+        <v>3.2539866612903215E-3</v>
       </c>
       <c r="AF10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2788681713709703E-4</v>
+        <v>3.2788681713709703E-3</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3037496814516173E-4</v>
+        <v>3.3037496814516121E-3</v>
       </c>
       <c r="AH10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3286311915322556E-4</v>
+        <v>3.3286311915322608E-3</v>
       </c>
       <c r="AI10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3535127016129027E-4</v>
+        <v>3.3535127016129027E-3</v>
       </c>
       <c r="AJ10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3783942116935497E-4</v>
+        <v>3.3783942116935514E-3</v>
       </c>
       <c r="AK10" s="4">
         <f t="shared" si="7"/>
-        <v>3.4032757217741967E-4</v>
+        <v>3.4032757217741932E-3</v>
       </c>
       <c r="AL10" s="4">
         <f t="shared" si="7"/>
-        <v>3.4281572318548351E-4</v>
+        <v>3.428157231854842E-3</v>
       </c>
       <c r="AM10" s="28">
         <f>TREND($AN10:$BR10,$AN$1:$BR$1,AM$1)</f>
-        <v>3.4530387419354821E-4</v>
+        <v>3.4530387419354838E-3</v>
       </c>
       <c r="AN10" s="11">
         <f>BNVFE!D16</f>
-        <v>3.4893709999999999E-4</v>
+        <v>3.4893709999999998E-3</v>
       </c>
       <c r="AO10" s="11">
         <f>BNVFE!E16</f>
-        <v>3.5120030000000002E-4</v>
+        <v>3.5120030000000001E-3</v>
       </c>
       <c r="AP10" s="11">
         <f>BNVFE!F16</f>
-        <v>3.5347819999999997E-4</v>
+        <v>3.5347819999999998E-3</v>
       </c>
       <c r="AQ10" s="11">
         <f>BNVFE!G16</f>
-        <v>3.5577100000000001E-4</v>
+        <v>3.55771E-3</v>
       </c>
       <c r="AR10" s="11">
         <f>BNVFE!H16</f>
-        <v>3.5807850000000002E-4</v>
+        <v>3.580785E-3</v>
       </c>
       <c r="AS10" s="11">
         <f>BNVFE!I16</f>
-        <v>3.6040100000000005E-4</v>
+        <v>3.6040100000000004E-3</v>
       </c>
       <c r="AT10" s="11">
         <f>BNVFE!J16</f>
-        <v>3.6273859999999997E-4</v>
+        <v>3.6273859999999998E-3</v>
       </c>
       <c r="AU10" s="11">
         <f>BNVFE!K16</f>
-        <v>3.6509140000000003E-4</v>
+        <v>3.6509140000000003E-3</v>
       </c>
       <c r="AV10" s="11">
         <f>BNVFE!L16</f>
-        <v>3.6745939999999997E-4</v>
+        <v>3.6745939999999998E-3</v>
       </c>
       <c r="AW10" s="11">
         <f>BNVFE!M16</f>
-        <v>3.6984279999999995E-4</v>
+        <v>3.6984279999999997E-3</v>
       </c>
       <c r="AX10" s="11">
         <f>BNVFE!N16</f>
-        <v>3.7224160000000003E-4</v>
+        <v>3.7224160000000001E-3</v>
       </c>
       <c r="AY10" s="11">
         <f>BNVFE!O16</f>
-        <v>3.7465600000000001E-4</v>
+        <v>3.7465599999999999E-3</v>
       </c>
       <c r="AZ10" s="11">
         <f>BNVFE!P16</f>
-        <v>3.77086E-4</v>
+        <v>3.77086E-3</v>
       </c>
       <c r="BA10" s="11">
         <f>BNVFE!Q16</f>
-        <v>3.7953179999999996E-4</v>
+        <v>3.7953179999999998E-3</v>
       </c>
       <c r="BB10" s="11">
         <f>BNVFE!R16</f>
-        <v>3.8199350000000002E-4</v>
+        <v>3.819935E-3</v>
       </c>
       <c r="BC10" s="11">
         <f>BNVFE!S16</f>
-        <v>3.8447119999999996E-4</v>
+        <v>3.8447119999999997E-3</v>
       </c>
       <c r="BD10" s="11">
         <f>BNVFE!T16</f>
-        <v>3.8696489999999999E-4</v>
+        <v>3.8696489999999997E-3</v>
       </c>
       <c r="BE10" s="11">
         <f>BNVFE!U16</f>
-        <v>3.8947480000000001E-4</v>
+        <v>3.894748E-3</v>
       </c>
       <c r="BF10" s="11">
         <f>BNVFE!V16</f>
-        <v>3.9200089999999997E-4</v>
+        <v>3.9200089999999995E-3</v>
       </c>
       <c r="BG10" s="11">
         <f>BNVFE!W16</f>
-        <v>3.9454349999999997E-4</v>
+        <v>3.9454349999999997E-3</v>
       </c>
       <c r="BH10" s="11">
         <f>BNVFE!X16</f>
-        <v>3.9710250000000004E-4</v>
+        <v>3.9710250000000004E-3</v>
       </c>
       <c r="BI10" s="11">
         <f>BNVFE!Y16</f>
-        <v>3.996782E-4</v>
+        <v>3.9967819999999999E-3</v>
       </c>
       <c r="BJ10" s="11">
         <f>BNVFE!Z16</f>
-        <v>4.0227050000000004E-4</v>
+        <v>4.0227050000000006E-3</v>
       </c>
       <c r="BK10" s="11">
         <f>BNVFE!AA16</f>
-        <v>4.0487970000000005E-4</v>
+        <v>4.0487970000000007E-3</v>
       </c>
       <c r="BL10" s="11">
         <f>BNVFE!AB16</f>
-        <v>4.0750580000000001E-4</v>
+        <v>4.0750580000000003E-3</v>
       </c>
       <c r="BM10" s="11">
         <f>BNVFE!AC16</f>
-        <v>4.1014889999999997E-4</v>
+        <v>4.1014889999999998E-3</v>
       </c>
       <c r="BN10" s="11">
         <f>BNVFE!AD16</f>
-        <v>4.1280910000000002E-4</v>
+        <v>4.1280910000000004E-3</v>
       </c>
       <c r="BO10" s="11">
         <f>BNVFE!AE16</f>
-        <v>4.154866E-4</v>
+        <v>4.1548660000000001E-3</v>
       </c>
       <c r="BP10" s="11">
         <f>BNVFE!AF16</f>
-        <v>4.1818150000000001E-4</v>
+        <v>4.1818150000000002E-3</v>
       </c>
       <c r="BQ10" s="11">
         <f>BNVFE!AG16</f>
-        <v>4.2089390000000002E-4</v>
+        <v>4.2089390000000001E-3</v>
       </c>
       <c r="BR10" s="11">
         <f>BNVFE!AH16</f>
-        <v>4.2362379999999998E-4</v>
+        <v>4.2362379999999998E-3</v>
       </c>
       <c r="BS10" s="11"/>
       <c r="BT10" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\VA\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E5ED713-10EA-4219-8773-94881F1DB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E86AAE2-D6C7-42D5-8472-13DDEE823470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="555" windowWidth="19605" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="730" windowWidth="9800" windowHeight="10070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1777,133 +1777,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.170827862483609E-4</c:v>
+                  <c:v>3.1934654476143933E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.199157108645295E-4</c:v>
+                  <c:v>3.2444322789068635E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.227486354806981E-4</c:v>
+                  <c:v>3.2953991101993338E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.255815600968667E-4</c:v>
+                  <c:v>3.346365941491804E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.284144847130353E-4</c:v>
+                  <c:v>3.3973327727842743E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.312474093292039E-4</c:v>
+                  <c:v>3.4482996040767445E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3408033394537249E-4</c:v>
+                  <c:v>3.4992664353692148E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3691325856154109E-4</c:v>
+                  <c:v>3.550233266661685E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3974618317770969E-4</c:v>
+                  <c:v>3.6012000979541552E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4257910779387829E-4</c:v>
+                  <c:v>3.6521669292466255E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.4541203241004689E-4</c:v>
+                  <c:v>3.7031337605390957E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4824495702621549E-4</c:v>
+                  <c:v>3.754100591831566E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.5107788164238408E-4</c:v>
+                  <c:v>3.8050674231240362E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5391080625855263E-4</c:v>
+                  <c:v>3.8560342544165043E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.6152338546126896E-4</c:v>
+                  <c:v>3.938977091004229E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.6806778318324615E-4</c:v>
+                  <c:v>4.0102815590911211E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.7326311577328699E-4</c:v>
+                  <c:v>4.0668872915977704E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8684273091170592E-4</c:v>
+                  <c:v>4.2148439524556525E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.9133628030331842E-4</c:v>
+                  <c:v>4.2638034079782157E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.9460271712590122E-4</c:v>
+                  <c:v>4.2993928617474374E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.0654622240144441E-4</c:v>
+                  <c:v>4.4295232919176118E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.0753465089361259E-4</c:v>
+                  <c:v>4.4402927119422075E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.0771889354095417E-4</c:v>
+                  <c:v>4.4423001272194757E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.0791884576015625E-4</c:v>
+                  <c:v>4.4444787060954387E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.0852284515353123E-4</c:v>
+                  <c:v>4.4510595798899477E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.09583671112226E-4</c:v>
+                  <c:v>4.4626178063197816E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.1078673798239525E-4</c:v>
+                  <c:v>4.4757258182247277E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.122748024320864E-4</c:v>
+                  <c:v>4.4919390205042781E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.1373149805260076E-4</c:v>
+                  <c:v>4.5078104437884211E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.1495700440447459E-4</c:v>
+                  <c:v>4.5211629450069859E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.1601549646964788E-4</c:v>
+                  <c:v>4.5326957425061224E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.1779365223495714E-4</c:v>
+                  <c:v>4.5520696339484528E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.1809544457369974E-4</c:v>
+                  <c:v>4.5553578115777672E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.1838332983416382E-4</c:v>
+                  <c:v>4.5584944646724456E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.1848122624012197E-4</c:v>
+                  <c:v>4.559561094704881E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.1826563698301188E-4</c:v>
+                  <c:v>4.5572121425237108E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.1769414168042572E-4</c:v>
+                  <c:v>4.550985416964502E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1714393092982577E-4</c:v>
+                  <c:v>4.5449905971852166E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1708664938544884E-4</c:v>
+                  <c:v>4.5443664862698183E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.165029094218215E-4</c:v>
+                  <c:v>4.5380063490385911E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1616572999280917E-4</c:v>
+                  <c:v>4.5343326114607497E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.1755377409260071E-4</c:v>
+                  <c:v>4.5494560422822621E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.1711981834238049E-4</c:v>
+                  <c:v>4.5447278785524218E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,136 +3236,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.5108389563240119E-5</c:v>
+                  <c:v>5.0412726378568952E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.7552820431472588E-5</c:v>
+                  <c:v>5.4271492176534604E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.9997251299705058E-5</c:v>
+                  <c:v>5.8130257974500256E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.2441682167937527E-5</c:v>
+                  <c:v>6.1989023772465041E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4886113036169997E-5</c:v>
+                  <c:v>6.5847789570430693E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.7330543904402466E-5</c:v>
+                  <c:v>6.9706555368396345E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.9774974772634936E-5</c:v>
+                  <c:v>7.3565321166361129E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.2219405640867405E-5</c:v>
+                  <c:v>7.7424086964326781E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.4663836509099875E-5</c:v>
+                  <c:v>8.1282852762291566E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.7108267377332344E-5</c:v>
+                  <c:v>8.5141618560257218E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.9552698245564814E-5</c:v>
+                  <c:v>8.900038435822287E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.0199712911379728E-4</c:v>
+                  <c:v>9.2859150156187655E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.0444155998202975E-4</c:v>
+                  <c:v>9.6717915954153307E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.0688599085026222E-4</c:v>
+                  <c:v>1.0057668175211809E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.0748894488887501E-4</c:v>
+                  <c:v>1.0420515928406728E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.1376628742778099E-4</c:v>
+                  <c:v>1.0877081887028839E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.1487084665170681E-4</c:v>
+                  <c:v>1.119228749342E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.1675219072501874E-4</c:v>
+                  <c:v>1.1596328986495364E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1821814758141852E-4</c:v>
+                  <c:v>1.1990275277656129E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1769306557695523E-4</c:v>
+                  <c:v>1.2199635295884858E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.1740735707916262E-4</c:v>
+                  <c:v>1.243467097653028E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1551151797500483E-4</c:v>
+                  <c:v>1.2468075205096364E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.1449785838376007E-4</c:v>
+                  <c:v>1.2577381385553893E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.13287341804607E-4</c:v>
+                  <c:v>1.2646319222836433E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1212406398402511E-4</c:v>
+                  <c:v>1.2698406877407795E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1076186329973974E-4</c:v>
+                  <c:v>1.2710494044541212E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.0947685788155618E-4</c:v>
+                  <c:v>1.2713124547346271E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.0833659526703707E-4</c:v>
+                  <c:v>1.2714496314152464E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.0725258337875167E-4</c:v>
+                  <c:v>1.2712313200368365E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.0627237374881068E-4</c:v>
+                  <c:v>1.271005238267318E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.053872190542009E-4</c:v>
+                  <c:v>1.2708001023750603E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.0457070988285631E-4</c:v>
+                  <c:v>1.2705407014004141E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.0382785746559407E-4</c:v>
+                  <c:v>1.2702629811717708E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.0317553743970813E-4</c:v>
+                  <c:v>1.2701194080551808E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.0260660677729319E-4</c:v>
+                  <c:v>1.2701796387221964E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.0212195692865432E-4</c:v>
+                  <c:v>1.2701802056749482E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.0164270384030296E-4</c:v>
+                  <c:v>1.270327910946451E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0120623842325044E-4</c:v>
+                  <c:v>1.2702817221538397E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.0086620530512349E-4</c:v>
+                  <c:v>1.2698131801807758E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.0054219744424832E-4</c:v>
+                  <c:v>1.2695571200958938E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.9850684341711718E-5</c:v>
+                  <c:v>1.2640538596243631E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.9621972535475967E-5</c:v>
+                  <c:v>1.2643551327178303E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.9483752435656976E-5</c:v>
+                  <c:v>1.2650241733350927E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.9383928406132565E-5</c:v>
+                  <c:v>1.2663654108394285E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,91 +3699,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.177387347221569E-3</c:v>
+                  <c:v>1.1604234453908705E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.1740372877780075E-3</c:v>
+                  <c:v>1.1579662228857668E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.1706872283344459E-3</c:v>
+                  <c:v>1.1555090003806633E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.1673371688908844E-3</c:v>
+                  <c:v>1.1530517778755595E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.163987109447323E-3</c:v>
+                  <c:v>1.1505945553704558E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.1606370500037615E-3</c:v>
+                  <c:v>1.1481373328653521E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.1572869905602E-3</c:v>
+                  <c:v>1.1456801103602485E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.1539369311166386E-3</c:v>
+                  <c:v>1.1432228878551448E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1505868716730771E-3</c:v>
+                  <c:v>1.1407656653500411E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.1472368122295155E-3</c:v>
+                  <c:v>1.1383084428449376E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.143886752785954E-3</c:v>
+                  <c:v>1.1358512203398338E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.1405366933423926E-3</c:v>
+                  <c:v>1.1333939978347303E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1371866338988309E-3</c:v>
+                  <c:v>1.1309367753296266E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1338365744552694E-3</c:v>
+                  <c:v>1.1284795528245229E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.130486515011708E-3</c:v>
+                  <c:v>1.1260223303194191E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1271364555681463E-3</c:v>
+                  <c:v>1.1235651078143154E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1237863961245848E-3</c:v>
+                  <c:v>1.1211078853092119E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.1204363366810234E-3</c:v>
+                  <c:v>1.1186506628041082E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>1.1137362177939013E-3</c:v>
@@ -3801,34 +3801,34 @@
                   <c:v>1.2984724640643824E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.3325458991476347E-3</c:v>
+                  <c:v>1.3325458991476349E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
                   <c:v>1.3625499159680566E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.3753174198569201E-3</c:v>
+                  <c:v>1.3753174198569197E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
                   <c:v>1.3946841343267524E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.4146533498165595E-3</c:v>
+                  <c:v>1.4146533498165597E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.4334182752321722E-3</c:v>
+                  <c:v>1.433418275232172E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
                   <c:v>1.4445909758303492E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.4455847020325701E-3</c:v>
+                  <c:v>1.4455847020325705E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.4457021763821076E-3</c:v>
+                  <c:v>1.4457021763821074E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.4456854451868699E-3</c:v>
+                  <c:v>1.4456854451868704E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
                   <c:v>1.4457034223221783E-3</c:v>
@@ -3840,22 +3840,22 @@
                   <c:v>1.4455629870770495E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.4452171497116701E-3</c:v>
+                  <c:v>1.4452171497116699E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.4450916657473916E-3</c:v>
+                  <c:v>1.4450916657473914E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
                   <c:v>1.4448529792281048E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.443856049179987E-3</c:v>
+                  <c:v>1.4438560491799872E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.4432142120520614E-3</c:v>
+                  <c:v>1.4432142120520612E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.443266541535037E-3</c:v>
+                  <c:v>1.4432665415350372E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
                   <c:v>1.4434251319069122E-3</c:v>
@@ -4240,148 +4240,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.7819056047563108E-4</c:v>
+                  <c:v>7.7875573937035282E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.7597634894858872E-4</c:v>
+                  <c:v>7.771067067380322E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.7376213742154636E-4</c:v>
+                  <c:v>7.7545767410571158E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.71547925894504E-4</c:v>
+                  <c:v>7.7380864147339097E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.6933371436746164E-4</c:v>
+                  <c:v>7.7215960884107035E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.6711950284041929E-4</c:v>
+                  <c:v>7.7051057620874973E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.6490529131337693E-4</c:v>
+                  <c:v>7.6886154357642912E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.6269107978633457E-4</c:v>
+                  <c:v>7.672125109441085E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>7.6047686825929221E-4</c:v>
+                  <c:v>7.6556347831178788E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>7.5826265673224985E-4</c:v>
+                  <c:v>7.6391444567946727E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>7.5604844520520749E-4</c:v>
+                  <c:v>7.6226541304714665E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.5383423367816514E-4</c:v>
+                  <c:v>7.6061638041482603E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.5162002215112278E-4</c:v>
+                  <c:v>7.5896734778250542E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>7.4940581062408042E-4</c:v>
+                  <c:v>7.573183151501848E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.4719159909703806E-4</c:v>
+                  <c:v>7.5566928251786418E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.449773875699957E-4</c:v>
+                  <c:v>7.5402024988554357E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.4276317604295334E-4</c:v>
+                  <c:v>7.5237121725322295E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>7.4054896451591099E-4</c:v>
+                  <c:v>7.5072218462090233E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>7.3612054146182692E-4</c:v>
+                  <c:v>7.4742411935626142E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.8447318350072194E-4</c:v>
+                  <c:v>7.9651924557390657E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>8.0913266389472246E-4</c:v>
+                  <c:v>8.2155738726285784E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>8.3445529729440947E-4</c:v>
+                  <c:v>8.4726886507457174E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>8.582213975349269E-4</c:v>
+                  <c:v>8.7139990821531331E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>8.8074213007663328E-4</c:v>
+                  <c:v>8.9426646028002797E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.0057319308330108E-4</c:v>
+                  <c:v>9.1440204130079723E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.0901183566816969E-4</c:v>
+                  <c:v>9.2297026436659075E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.2181220627128113E-4</c:v>
+                  <c:v>9.3596719243283541E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.3501079807791388E-4</c:v>
+                  <c:v>9.4936845663098554E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.4741341804908898E-4</c:v>
+                  <c:v>9.6196152636282171E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>9.5479798028431191E-4</c:v>
+                  <c:v>9.6945948303515201E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>9.5545478057360543E-4</c:v>
+                  <c:v>9.7012636889170394E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>9.5553242488507497E-4</c:v>
+                  <c:v>9.7020520547872228E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>9.5552136645283517E-4</c:v>
+                  <c:v>9.7019397723754094E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>9.5553324838534815E-4</c:v>
+                  <c:v>9.7020604162434225E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>9.5550160244627959E-4</c:v>
+                  <c:v>9.7017390974266364E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>9.5544042814027313E-4</c:v>
+                  <c:v>9.7011179606804271E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>9.5521184799302321E-4</c:v>
+                  <c:v>9.6987970593383536E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>9.5512890975122625E-4</c:v>
+                  <c:v>9.6979549412497463E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>9.5497115062746795E-4</c:v>
+                  <c:v>9.6963531251407814E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>9.5431223276604333E-4</c:v>
+                  <c:v>9.6896627656878928E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>9.5388801248246955E-4</c:v>
+                  <c:v>9.6853554212517003E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>9.5392259949394229E-4</c:v>
+                  <c:v>9.6857066024120565E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>9.5402741931442593E-4</c:v>
+                  <c:v>9.6867708963368051E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>9.5426270510675759E-4</c:v>
+                  <c:v>9.6891598838222154E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.5454316577121671E-4</c:v>
+                  <c:v>9.6920075569048212E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.5490315303348411E-4</c:v>
+                  <c:v>9.6956627077574963E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.5518761355641295E-4</c:v>
+                  <c:v>9.6985509936273564E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.555246604539279E-4</c:v>
+                  <c:v>9.701973218200204E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,10 +7795,10 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.40625" customWidth="1"/>
+    <col min="2" max="2" width="107.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7809,7 +7809,7 @@
         <v>99</v>
       </c>
       <c r="C1" s="31">
-        <v>45321</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8032,12 +8032,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9031,12 +9031,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9908,12 +9908,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10785,14 +10785,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30">
+    <row r="1" spans="1:32">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -11691,12 +11691,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -12568,12 +12568,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -13559,12 +13559,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -14436,12 +14436,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -15435,12 +15435,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30">
+    <row r="1" spans="1:31">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -16210,14 +16210,14 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.40625" customWidth="1"/>
+    <col min="2" max="2" width="16.40625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -16391,94 +16391,94 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16496,94 +16496,94 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
@@ -16616,34 +16616,34 @@
         <v>1.2984724640643824E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="J10" s="4">
         <v>1.3625499159680566E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="L10" s="4">
         <v>1.3946841343267524E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="O10" s="4">
         <v>1.4445909758303492E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="S10" s="4">
         <v>1.4457034223221783E-3</v>
@@ -16655,22 +16655,22 @@
         <v>1.4455629870770495E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="X10" s="4">
         <v>1.4448529792281048E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="AB10" s="4">
         <v>1.4434251319069122E-3</v>
@@ -16706,94 +16706,94 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -17846,94 +17846,94 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.0610370953958444E-3</v>
+        <v>1.1058184387710214E-3</v>
       </c>
       <c r="C24">
-        <v>1.1182929641066262E-3</v>
+        <v>1.1654653618777037E-3</v>
       </c>
       <c r="D24">
-        <v>1.1230378075595187E-3</v>
+        <v>1.1704178038241025E-3</v>
       </c>
       <c r="E24">
-        <v>1.1207737467721995E-3</v>
+        <v>1.1680699023993095E-3</v>
       </c>
       <c r="F24">
-        <v>1.1241462933302886E-3</v>
+        <v>1.1715925157363262E-3</v>
       </c>
       <c r="G24">
-        <v>1.1243227034620279E-3</v>
+        <v>1.1717836975623729E-3</v>
       </c>
       <c r="H24">
-        <v>1.1197764855285623E-3</v>
+        <v>1.1670454732039669E-3</v>
       </c>
       <c r="I24">
-        <v>1.1191149559385343E-3</v>
+        <v>1.1663553647253712E-3</v>
       </c>
       <c r="J24">
-        <v>1.1130469624480827E-3</v>
+        <v>1.1600295837550369E-3</v>
       </c>
       <c r="K24">
-        <v>1.1088287076252618E-3</v>
+        <v>1.1556233631186427E-3</v>
       </c>
       <c r="L24">
-        <v>1.1076057889551705E-3</v>
+        <v>1.1543479301738477E-3</v>
       </c>
       <c r="M24">
-        <v>1.1071053032327867E-3</v>
+        <v>1.1538248111999468E-3</v>
       </c>
       <c r="N24">
-        <v>1.1067724143381994E-3</v>
+        <v>1.1534771013398996E-3</v>
       </c>
       <c r="O24">
-        <v>1.1066615139372906E-3</v>
+        <v>1.153358383316175E-3</v>
       </c>
       <c r="P24">
-        <v>1.1066769292084788E-3</v>
+        <v>1.1533777970732827E-3</v>
       </c>
       <c r="Q24">
-        <v>1.1066795967218581E-3</v>
+        <v>1.1533839998503657E-3</v>
       </c>
       <c r="R24">
-        <v>1.1064406824033406E-3</v>
+        <v>1.1531365054505626E-3</v>
       </c>
       <c r="S24">
-        <v>1.10616658964172E-3</v>
+        <v>1.1528517648706005E-3</v>
       </c>
       <c r="T24">
-        <v>1.1060290826740075E-3</v>
+        <v>1.1527114348871379E-3</v>
       </c>
       <c r="U24">
-        <v>1.1055011555537056E-3</v>
+        <v>1.1521628742468084E-3</v>
       </c>
       <c r="V24">
-        <v>1.1050415873555949E-3</v>
+        <v>1.1516853990217147E-3</v>
       </c>
       <c r="W24">
-        <v>1.1045586465345543E-3</v>
+        <v>1.1511845126241146E-3</v>
       </c>
       <c r="X24">
-        <v>1.1038843213708662E-3</v>
+        <v>1.1504833870552749E-3</v>
       </c>
       <c r="Y24">
-        <v>1.1032661366839319E-3</v>
+        <v>1.1498404422001507E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1026899310228654E-3</v>
+        <v>1.1492400691721339E-3</v>
       </c>
       <c r="AA24">
-        <v>1.1033241851303997E-3</v>
+        <v>1.1499032994117962E-3</v>
       </c>
       <c r="AB24">
-        <v>1.1025809057094401E-3</v>
+        <v>1.1491304009395679E-3</v>
       </c>
       <c r="AC24">
-        <v>1.1023701654874632E-3</v>
+        <v>1.148913547482614E-3</v>
       </c>
       <c r="AD24">
-        <v>1.1025099635140992E-3</v>
+        <v>1.1490606826052038E-3</v>
       </c>
       <c r="AE24">
-        <v>1.1022449653531074E-3</v>
+        <v>1.1487858957225897E-3</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -17941,94 +17941,94 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3.9757641638912632E-4</v>
+        <v>4.1435623124899391E-4</v>
       </c>
       <c r="C25">
-        <v>3.9900747239960505E-4</v>
+        <v>4.1583860682125711E-4</v>
       </c>
       <c r="D25">
-        <v>4.094728037527083E-4</v>
+        <v>4.2674810809389702E-4</v>
       </c>
       <c r="E25">
-        <v>4.1042134222259559E-4</v>
+        <v>4.2774094105362768E-4</v>
       </c>
       <c r="F25">
-        <v>4.2303467685595353E-4</v>
+        <v>4.4088946807188358E-4</v>
       </c>
       <c r="G25">
-        <v>4.2712563186039055E-4</v>
+        <v>4.4515587089355332E-4</v>
       </c>
       <c r="H25">
-        <v>4.2901230740863917E-4</v>
+        <v>4.4712215141194824E-4</v>
       </c>
       <c r="I25">
-        <v>4.4013468861937947E-4</v>
+        <v>4.5871378319881849E-4</v>
       </c>
       <c r="J25">
-        <v>4.4145313646605977E-4</v>
+        <v>4.60087233889707E-4</v>
       </c>
       <c r="K25">
-        <v>4.4134933786440692E-4</v>
+        <v>4.5997510943360454E-4</v>
       </c>
       <c r="L25">
-        <v>4.4091962109341271E-4</v>
+        <v>4.5952689761791997E-4</v>
       </c>
       <c r="M25">
-        <v>4.4021823423990848E-4</v>
+        <v>4.5879531018905696E-4</v>
       </c>
       <c r="N25">
-        <v>4.4027827540505136E-4</v>
+        <v>4.5885757750912214E-4</v>
       </c>
       <c r="O25">
-        <v>4.4040955993276986E-4</v>
+        <v>4.5899315341134275E-4</v>
       </c>
       <c r="P25">
-        <v>4.4116372836744042E-4</v>
+        <v>4.5978047950904734E-4</v>
       </c>
       <c r="Q25">
-        <v>4.4149861084351322E-4</v>
+        <v>4.6013085920391559E-4</v>
       </c>
       <c r="R25">
-        <v>4.4225600784943527E-4</v>
+        <v>4.6092082071518263E-4</v>
       </c>
       <c r="S25">
-        <v>4.4285604557792939E-4</v>
+        <v>4.615465505005841E-4</v>
       </c>
       <c r="T25">
-        <v>4.4414588143789507E-4</v>
+        <v>4.6289202003053275E-4</v>
       </c>
       <c r="U25">
-        <v>4.4411604405746724E-4</v>
+        <v>4.6286158567069468E-4</v>
       </c>
       <c r="V25">
-        <v>4.4420971921594975E-4</v>
+        <v>4.6295981398202245E-4</v>
       </c>
       <c r="W25">
-        <v>4.4397500702864155E-4</v>
+        <v>4.6271617508682986E-4</v>
       </c>
       <c r="X25">
-        <v>4.4370861117360116E-4</v>
+        <v>4.6243920306310218E-4</v>
       </c>
       <c r="Y25">
-        <v>4.424879140459794E-4</v>
+        <v>4.6116751148015295E-4</v>
       </c>
       <c r="Z25">
-        <v>4.4177355237873966E-4</v>
+        <v>4.6042305602918797E-4</v>
       </c>
       <c r="AA25">
-        <v>4.4054153352135982E-4</v>
+        <v>4.591399062500133E-4</v>
       </c>
       <c r="AB25">
-        <v>4.3982519474178468E-4</v>
+        <v>4.5839402783031833E-4</v>
       </c>
       <c r="AC25">
-        <v>4.3880580213641828E-4</v>
+        <v>4.573327059931574E-4</v>
       </c>
       <c r="AD25">
-        <v>4.4035893908705087E-4</v>
+        <v>4.5895199125989522E-4</v>
       </c>
       <c r="AE25">
-        <v>4.3940968502460365E-4</v>
+        <v>4.579632154985259E-4</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -18036,94 +18036,94 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>3.4525981498377545E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="C26">
-        <v>3.5982944807231638E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="D26">
-        <v>3.6710644959195353E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="E26">
-        <v>3.7373493890990666E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="F26">
-        <v>3.9582578415611009E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="G26">
-        <v>4.3494713071778808E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="H26">
-        <v>4.4227847691112512E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="I26">
-        <v>4.5901794912486538E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="J26">
-        <v>4.6412939868974872E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="K26">
-        <v>4.6774364798041294E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="L26">
-        <v>4.6966309910348734E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="M26">
-        <v>4.7260846794834008E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="N26">
-        <v>4.7526441798452414E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="O26">
-        <v>4.7788153153438258E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="P26">
-        <v>4.8072409114320114E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="Q26">
-        <v>4.8317943716800202E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="R26">
-        <v>4.8470967915637789E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="S26">
-        <v>4.8594611468298545E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="T26">
-        <v>4.8792763254902827E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="U26">
-        <v>4.8771717870415681E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="V26">
-        <v>4.8811136392356582E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="W26">
-        <v>4.8843918429084768E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="X26">
-        <v>4.8810682276656785E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="Y26">
-        <v>4.8747689393500613E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="Z26">
-        <v>4.8672999513277174E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AA26">
-        <v>4.8843454079791745E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AB26">
-        <v>4.8748772875184347E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AC26">
-        <v>4.8711906355556337E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AD26">
-        <v>4.8876138897384217E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AE26">
-        <v>4.8839502633604009E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -18131,94 +18131,94 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>3.8826950759574409E-4</v>
+        <v>4.0465652197743196E-4</v>
       </c>
       <c r="C27">
-        <v>3.989339915927411E-4</v>
+        <v>4.1576202640994142E-4</v>
       </c>
       <c r="D27">
-        <v>4.0175941665032688E-4</v>
+        <v>4.1870929984394776E-4</v>
       </c>
       <c r="E27">
-        <v>4.046076403132251E-4</v>
+        <v>4.2168190349906829E-4</v>
       </c>
       <c r="F27">
-        <v>4.1514273478187707E-4</v>
+        <v>4.3266443515270633E-4</v>
       </c>
       <c r="G27">
-        <v>4.1963901427461011E-4</v>
+        <v>4.3735322098718013E-4</v>
       </c>
       <c r="H27">
-        <v>4.2143164929997338E-4</v>
+        <v>4.3922149191073594E-4</v>
       </c>
       <c r="I27">
-        <v>4.2796953665692094E-4</v>
+        <v>4.4603511227335165E-4</v>
       </c>
       <c r="J27">
-        <v>4.2869137838688967E-4</v>
+        <v>4.4678679157952655E-4</v>
       </c>
       <c r="K27">
-        <v>4.2889294118354267E-4</v>
+        <v>4.4699302940114473E-4</v>
       </c>
       <c r="L27">
-        <v>4.2958514978309507E-4</v>
+        <v>4.4771409957447328E-4</v>
       </c>
       <c r="M27">
-        <v>4.3016225956684587E-4</v>
+        <v>4.4831497643516992E-4</v>
       </c>
       <c r="N27">
-        <v>4.314632453320266E-4</v>
+        <v>4.496705619988588E-4</v>
       </c>
       <c r="O27">
-        <v>4.3270248083989658E-4</v>
+        <v>4.5096086515454705E-4</v>
       </c>
       <c r="P27">
-        <v>4.3430279078009501E-4</v>
+        <v>4.5263001592613935E-4</v>
       </c>
       <c r="Q27">
-        <v>4.3530324098676928E-4</v>
+        <v>4.5367403060863823E-4</v>
       </c>
       <c r="R27">
-        <v>4.3666804491927715E-4</v>
+        <v>4.5509702541521833E-4</v>
       </c>
       <c r="S27">
-        <v>4.3784695384923824E-4</v>
+        <v>4.5632605270766956E-4</v>
       </c>
       <c r="T27">
-        <v>4.3919387063071915E-4</v>
+        <v>4.5773099888512522E-4</v>
       </c>
       <c r="U27">
-        <v>4.3965998782187011E-4</v>
+        <v>4.5821744528746784E-4</v>
       </c>
       <c r="V27">
-        <v>4.4023054662472997E-4</v>
+        <v>4.5881268049317148E-4</v>
       </c>
       <c r="W27">
-        <v>4.4040065556194612E-4</v>
+        <v>4.5899094233070158E-4</v>
       </c>
       <c r="X27">
-        <v>4.4071018775672388E-4</v>
+        <v>4.5931420503415025E-4</v>
       </c>
       <c r="Y27">
-        <v>4.4012557028617579E-4</v>
+        <v>4.5870544153793057E-4</v>
       </c>
       <c r="Z27">
-        <v>4.3984103857540357E-4</v>
+        <v>4.584089610106891E-4</v>
       </c>
       <c r="AA27">
-        <v>4.3927502996579274E-4</v>
+        <v>4.5781993462527175E-4</v>
       </c>
       <c r="AB27">
-        <v>4.3896293494925283E-4</v>
+        <v>4.5749536457941731E-4</v>
       </c>
       <c r="AC27">
-        <v>4.3836887632577525E-4</v>
+        <v>4.5687733265413878E-4</v>
       </c>
       <c r="AD27">
-        <v>4.3967475364455565E-4</v>
+        <v>4.5823891780242144E-4</v>
       </c>
       <c r="AE27">
-        <v>4.3902895392029714E-4</v>
+        <v>4.5756640849424067E-4</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -18226,94 +18226,94 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.2864085446168573E-4</v>
+        <v>6.5517280333083554E-4</v>
       </c>
       <c r="C28">
-        <v>5.8065173143116884E-4</v>
+        <v>6.0514507559113824E-4</v>
       </c>
       <c r="D28">
-        <v>5.7715727565658991E-4</v>
+        <v>6.0150704320725845E-4</v>
       </c>
       <c r="E28">
-        <v>5.8939802003144003E-4</v>
+        <v>6.1427035538190694E-4</v>
       </c>
       <c r="F28">
-        <v>6.1132283966645277E-4</v>
+        <v>6.3712460549070139E-4</v>
       </c>
       <c r="G28">
-        <v>6.2116495269514782E-4</v>
+        <v>6.4738616664415639E-4</v>
       </c>
       <c r="H28">
-        <v>6.2859863293007745E-4</v>
+        <v>6.5513359005477795E-4</v>
       </c>
       <c r="I28">
-        <v>6.4471041145104213E-4</v>
+        <v>6.7192511645025751E-4</v>
       </c>
       <c r="J28">
-        <v>6.4840312593372079E-4</v>
+        <v>6.7577275142821603E-4</v>
       </c>
       <c r="K28">
-        <v>6.5182617183108646E-4</v>
+        <v>6.7933446138261709E-4</v>
       </c>
       <c r="L28">
-        <v>6.5274851137244263E-4</v>
+        <v>6.8029519215282537E-4</v>
       </c>
       <c r="M28">
-        <v>6.5479808482626608E-4</v>
+        <v>6.8243036537951835E-4</v>
       </c>
       <c r="N28">
-        <v>6.5728685533569657E-4</v>
+        <v>6.8502370209035806E-4</v>
       </c>
       <c r="O28">
-        <v>6.599953694386326E-4</v>
+        <v>6.8784464147818671E-4</v>
       </c>
       <c r="P28">
-        <v>6.6271823685959863E-4</v>
+        <v>6.9068440837210285E-4</v>
       </c>
       <c r="Q28">
-        <v>6.6541147575940635E-4</v>
+        <v>6.9349335772620044E-4</v>
       </c>
       <c r="R28">
-        <v>6.6758238321629323E-4</v>
+        <v>6.9575678906731286E-4</v>
       </c>
       <c r="S28">
-        <v>6.695223998790733E-4</v>
+        <v>6.9777923827096409E-4</v>
       </c>
       <c r="T28">
-        <v>6.7209439570581602E-4</v>
+        <v>7.0046159489822399E-4</v>
       </c>
       <c r="U28">
-        <v>6.7286737744009942E-4</v>
+        <v>7.0126820554068138E-4</v>
       </c>
       <c r="V28">
-        <v>6.7344823507195376E-4</v>
+        <v>7.0187448889172854E-4</v>
       </c>
       <c r="W28">
-        <v>6.73909086850441E-4</v>
+        <v>7.0235628151829209E-4</v>
       </c>
       <c r="X28">
-        <v>6.740064696202369E-4</v>
+        <v>7.0245879124624332E-4</v>
       </c>
       <c r="Y28">
-        <v>6.7364356730673243E-4</v>
+        <v>7.0208138504586923E-4</v>
       </c>
       <c r="Z28">
-        <v>6.7322262507433497E-4</v>
+        <v>7.0164276868927991E-4</v>
       </c>
       <c r="AA28">
-        <v>6.7344500418278937E-4</v>
+        <v>7.0187587901977887E-4</v>
       </c>
       <c r="AB28">
-        <v>6.7281217685356582E-4</v>
+        <v>7.0121740957167211E-4</v>
       </c>
       <c r="AC28">
-        <v>6.7245517568083519E-4</v>
+        <v>7.0084703451029598E-4</v>
       </c>
       <c r="AD28">
-        <v>6.7397575425436052E-4</v>
+        <v>7.0243269074363234E-4</v>
       </c>
       <c r="AE28">
-        <v>6.7349435170381685E-4</v>
+        <v>7.0193181770471214E-4</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -18321,94 +18321,94 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>3.4585801076062443E-4</v>
+        <v>3.6045503701553509E-4</v>
       </c>
       <c r="C29">
-        <v>3.4495574783075341E-4</v>
+        <v>3.5950684514816466E-4</v>
       </c>
       <c r="D29">
-        <v>3.6039991749266362E-4</v>
+        <v>3.7560487909735457E-4</v>
       </c>
       <c r="E29">
-        <v>3.6434083049787565E-4</v>
+        <v>3.7971585214712964E-4</v>
       </c>
       <c r="F29">
-        <v>3.7594665871961683E-4</v>
+        <v>3.9181403193273731E-4</v>
       </c>
       <c r="G29">
-        <v>3.8265282942463545E-4</v>
+        <v>3.9880573963794092E-4</v>
       </c>
       <c r="H29">
-        <v>3.8491153807264589E-4</v>
+        <v>4.0115976169978224E-4</v>
       </c>
       <c r="I29">
-        <v>3.948653271158722E-4</v>
+        <v>4.1153349812879397E-4</v>
       </c>
       <c r="J29">
-        <v>3.9594612256427204E-4</v>
+        <v>4.1265933176568687E-4</v>
       </c>
       <c r="K29">
-        <v>3.9619175896624695E-4</v>
+        <v>4.129117958327599E-4</v>
       </c>
       <c r="L29">
-        <v>3.9654376773871745E-4</v>
+        <v>4.1327833609856163E-4</v>
       </c>
       <c r="M29">
-        <v>3.9707573055230652E-4</v>
+        <v>4.1383220593268312E-4</v>
       </c>
       <c r="N29">
-        <v>3.9834863581642401E-4</v>
+        <v>4.1515854913946708E-4</v>
       </c>
       <c r="O29">
-        <v>3.9959695124185265E-4</v>
+        <v>4.1645840924083266E-4</v>
       </c>
       <c r="P29">
-        <v>4.0092020917552979E-4</v>
+        <v>4.1783871648228943E-4</v>
       </c>
       <c r="Q29">
-        <v>4.0164593001903277E-4</v>
+        <v>4.185963043514945E-4</v>
       </c>
       <c r="R29">
-        <v>4.025864972614837E-4</v>
+        <v>4.1957711242621983E-4</v>
       </c>
       <c r="S29">
-        <v>4.0337312378417004E-4</v>
+        <v>4.2039727289771742E-4</v>
       </c>
       <c r="T29">
-        <v>4.0442495213179318E-4</v>
+        <v>4.2149458289914189E-4</v>
       </c>
       <c r="U29">
-        <v>4.0454932437130627E-4</v>
+        <v>4.2162480789881447E-4</v>
       </c>
       <c r="V29">
-        <v>4.0464803339247029E-4</v>
+        <v>4.2172822917568159E-4</v>
       </c>
       <c r="W29">
-        <v>4.0439328301694171E-4</v>
+        <v>4.2146361886612633E-4</v>
       </c>
       <c r="X29">
-        <v>4.040545754555679E-4</v>
+        <v>4.2111122291148745E-4</v>
       </c>
       <c r="Y29">
-        <v>4.0293590438237893E-4</v>
+        <v>4.1994581639741166E-4</v>
       </c>
       <c r="Z29">
-        <v>4.0211529090881346E-4</v>
+        <v>4.190906180766014E-4</v>
       </c>
       <c r="AA29">
-        <v>4.0078697353040108E-4</v>
+        <v>4.1770702521979762E-4</v>
       </c>
       <c r="AB29">
-        <v>4.0014215791000135E-4</v>
+        <v>4.170356261122462E-4</v>
       </c>
       <c r="AC29">
-        <v>3.9916649340924858E-4</v>
+        <v>4.1601977841646405E-4</v>
       </c>
       <c r="AD29">
-        <v>3.9985648048380197E-4</v>
+        <v>4.1673941788640924E-4</v>
       </c>
       <c r="AE29">
-        <v>3.9882869849444967E-4</v>
+        <v>4.1566874700402494E-4</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -18416,94 +18416,94 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <v>5.5949994465194052E-4</v>
+        <v>5.8311378364830837E-4</v>
       </c>
       <c r="C30">
-        <v>5.490709016341414E-4</v>
+        <v>5.7223208730528745E-4</v>
       </c>
       <c r="D30">
-        <v>5.4591562691943185E-4</v>
+        <v>5.6894733626181731E-4</v>
       </c>
       <c r="E30">
-        <v>5.4428202142592678E-4</v>
+        <v>5.6725048162098066E-4</v>
       </c>
       <c r="F30">
-        <v>5.4687829275625965E-4</v>
+        <v>5.6996008314341522E-4</v>
       </c>
       <c r="G30">
-        <v>5.4645085655929157E-4</v>
+        <v>5.6951816703823988E-4</v>
       </c>
       <c r="H30">
-        <v>5.4701855850944456E-4</v>
+        <v>5.7010978594149338E-4</v>
       </c>
       <c r="I30">
-        <v>5.5159545353608997E-4</v>
+        <v>5.7487956261865754E-4</v>
       </c>
       <c r="J30">
-        <v>5.5116986450326347E-4</v>
+        <v>5.7443519462267441E-4</v>
       </c>
       <c r="K30">
-        <v>5.5082515994957833E-4</v>
+        <v>5.7407101696939681E-4</v>
       </c>
       <c r="L30">
-        <v>5.5045116908780244E-4</v>
+        <v>5.7368079332420063E-4</v>
       </c>
       <c r="M30">
-        <v>5.5016894781847396E-4</v>
+        <v>5.7338591052819412E-4</v>
       </c>
       <c r="N30">
-        <v>5.5030632856499669E-4</v>
+        <v>5.7352870427450646E-4</v>
       </c>
       <c r="O30">
-        <v>5.5080345075069956E-4</v>
+        <v>5.7404524281558721E-4</v>
       </c>
       <c r="P30">
-        <v>5.5167571643641449E-4</v>
+        <v>5.7495598374617473E-4</v>
       </c>
       <c r="Q30">
-        <v>5.5236107717376317E-4</v>
+        <v>5.7567197447162301E-4</v>
       </c>
       <c r="R30">
-        <v>5.5273978734272802E-4</v>
+        <v>5.7606741774479436E-4</v>
       </c>
       <c r="S30">
-        <v>5.5274410279881891E-4</v>
+        <v>5.7607237499356242E-4</v>
       </c>
       <c r="T30">
-        <v>5.5289670193281145E-4</v>
+        <v>5.762329043721763E-4</v>
       </c>
       <c r="U30">
-        <v>5.5265714178147211E-4</v>
+        <v>5.7598405732017636E-4</v>
       </c>
       <c r="V30">
-        <v>5.5244896195009953E-4</v>
+        <v>5.7576783576552626E-4</v>
       </c>
       <c r="W30">
-        <v>5.5221137170350255E-4</v>
+        <v>5.7552143636232329E-4</v>
       </c>
       <c r="X30">
-        <v>5.5188530920952062E-4</v>
+        <v>5.7518244213933473E-4</v>
       </c>
       <c r="Y30">
-        <v>5.5130828970691593E-4</v>
+        <v>5.7458173195686134E-4</v>
       </c>
       <c r="Z30">
-        <v>5.5089526377585969E-4</v>
+        <v>5.7415134865799545E-4</v>
       </c>
       <c r="AA30">
-        <v>5.5094868459087108E-4</v>
+        <v>5.7420812373722705E-4</v>
       </c>
       <c r="AB30">
-        <v>5.5070873103541993E-4</v>
+        <v>5.7395891913116653E-4</v>
       </c>
       <c r="AC30">
-        <v>5.5038144396247959E-4</v>
+        <v>5.7361920437307709E-4</v>
       </c>
       <c r="AD30">
-        <v>5.5068737415113456E-4</v>
+        <v>5.7393876788858417E-4</v>
       </c>
       <c r="AE30">
-        <v>5.5020714130888889E-4</v>
+        <v>5.7343895733650446E-4</v>
       </c>
     </row>
   </sheetData>
@@ -18519,7 +18519,7 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18896,9 +18896,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19005,11 +19005,11 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.40625" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="B16">
         <f>TREND(C16:D16,C13:D13,B13)</f>
-        <v>3.1424986163219263E-4</v>
+        <v>3.142498616321935E-4</v>
       </c>
       <c r="C16">
         <f>C15*$B$2/$B$9</f>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19179,7 +19179,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="29.5">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="29.5">
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
@@ -19289,11 +19289,11 @@
       <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" style="24"/>
+    <col min="15" max="15" width="11.40625" customWidth="1"/>
+    <col min="40" max="40" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19539,175 +19539,175 @@
       </c>
       <c r="AB2" s="4">
         <f>($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AA2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" ref="AC2:AN2" si="0">($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AB2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="AL2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="AN2" s="26">
         <f t="shared" si="0"/>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="AO2" s="10">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="AP2" s="10">
         <f>BNVFE!E8</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="AQ2" s="10">
         <f>BNVFE!F8</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="AR2" s="10">
         <f>BNVFE!G8</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="AS2" s="10">
         <f>BNVFE!H8</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="AT2" s="10">
         <f>BNVFE!I8</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="AU2" s="10">
         <f>BNVFE!J8</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="AV2" s="10">
         <f>BNVFE!K8</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="AW2" s="10">
         <f>BNVFE!L8</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="AX2" s="10">
         <f>BNVFE!M8</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="AY2" s="10">
         <f>BNVFE!N8</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="AZ2" s="10">
         <f>BNVFE!O8</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="BA2" s="10">
         <f>BNVFE!P8</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="BB2" s="10">
         <f>BNVFE!Q8</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="BC2" s="10">
         <f>BNVFE!R8</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="BD2" s="10">
         <f>BNVFE!S8</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="BE2" s="10">
         <f>BNVFE!T8</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="BF2" s="10">
         <f>BNVFE!U8</f>
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="BG2" s="10">
         <f>BNVFE!V8</f>
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="BH2" s="10">
         <f>BNVFE!W8</f>
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="BI2" s="10">
         <f>BNVFE!X8</f>
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="BJ2" s="10">
         <f>BNVFE!Y8</f>
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="BK2" s="10">
         <f>BNVFE!Z8</f>
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="BL2" s="10">
         <f>BNVFE!AA8</f>
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="BM2" s="10">
         <f>BNVFE!AB8</f>
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="BN2" s="10">
         <f>BNVFE!AC8</f>
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="BO2" s="10">
         <f>BNVFE!AD8</f>
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="BP2" s="10">
         <f>BNVFE!AE8</f>
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="BQ2" s="10">
         <f>BNVFE!AF8</f>
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="BR2" s="10">
         <f>BNVFE!AG8</f>
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="BS2" s="10"/>
       <c r="BT2" s="4"/>
@@ -19745,179 +19745,179 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="4" cm="1">
         <f t="array" ref="AA3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AA1)</f>
-        <v>7.5108389563240119E-5</v>
+        <v>5.0412726378568952E-5</v>
       </c>
       <c r="AB3" s="4" cm="1">
         <f t="array" ref="AB3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AB1)</f>
-        <v>7.7552820431472588E-5</v>
+        <v>5.4271492176534604E-5</v>
       </c>
       <c r="AC3" s="4" cm="1">
         <f t="array" ref="AC3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AC1)</f>
-        <v>7.9997251299705058E-5</v>
+        <v>5.8130257974500256E-5</v>
       </c>
       <c r="AD3" s="4" cm="1">
         <f t="array" ref="AD3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AD1)</f>
-        <v>8.2441682167937527E-5</v>
+        <v>6.1989023772465041E-5</v>
       </c>
       <c r="AE3" s="4" cm="1">
         <f t="array" ref="AE3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AE1)</f>
-        <v>8.4886113036169997E-5</v>
+        <v>6.5847789570430693E-5</v>
       </c>
       <c r="AF3" s="4" cm="1">
         <f t="array" ref="AF3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AF1)</f>
-        <v>8.7330543904402466E-5</v>
+        <v>6.9706555368396345E-5</v>
       </c>
       <c r="AG3" s="4" cm="1">
         <f t="array" ref="AG3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AG1)</f>
-        <v>8.9774974772634936E-5</v>
+        <v>7.3565321166361129E-5</v>
       </c>
       <c r="AH3" s="4" cm="1">
         <f t="array" ref="AH3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AH1)</f>
-        <v>9.2219405640867405E-5</v>
+        <v>7.7424086964326781E-5</v>
       </c>
       <c r="AI3" s="4" cm="1">
         <f t="array" ref="AI3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AI1)</f>
-        <v>9.4663836509099875E-5</v>
+        <v>8.1282852762291566E-5</v>
       </c>
       <c r="AJ3" s="4" cm="1">
         <f t="array" ref="AJ3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AJ1)</f>
-        <v>9.7108267377332344E-5</v>
+        <v>8.5141618560257218E-5</v>
       </c>
       <c r="AK3" s="4" cm="1">
         <f t="array" ref="AK3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AK1)</f>
-        <v>9.9552698245564814E-5</v>
+        <v>8.900038435822287E-5</v>
       </c>
       <c r="AL3" s="4" cm="1">
         <f t="array" ref="AL3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AL1)</f>
-        <v>1.0199712911379728E-4</v>
+        <v>9.2859150156187655E-5</v>
       </c>
       <c r="AM3" s="4" cm="1">
         <f t="array" ref="AM3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AM1)</f>
-        <v>1.0444155998202975E-4</v>
+        <v>9.6717915954153307E-5</v>
       </c>
       <c r="AN3" s="26" cm="1">
         <f t="array" ref="AN3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AN1)</f>
-        <v>1.0688599085026222E-4</v>
+        <v>1.0057668175211809E-4</v>
       </c>
       <c r="AO3" s="10">
         <f>BNVFE!D9</f>
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="AP3" s="10">
         <f>BNVFE!E9</f>
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="AQ3" s="10">
         <f>BNVFE!F9</f>
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="AR3" s="10">
         <f>BNVFE!G9</f>
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="AS3" s="10">
         <f>BNVFE!H9</f>
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="AT3" s="10">
         <f>BNVFE!I9</f>
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="AU3" s="10">
         <f>BNVFE!J9</f>
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="AV3" s="10">
         <f>BNVFE!K9</f>
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="AW3" s="10">
         <f>BNVFE!L9</f>
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="AX3" s="10">
         <f>BNVFE!M9</f>
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="AY3" s="10">
         <f>BNVFE!N9</f>
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="AZ3" s="10">
         <f>BNVFE!O9</f>
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="BA3" s="10">
         <f>BNVFE!P9</f>
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="BB3" s="10">
         <f>BNVFE!Q9</f>
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="BC3" s="10">
         <f>BNVFE!R9</f>
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="BD3" s="10">
         <f>BNVFE!S9</f>
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="BE3" s="10">
         <f>BNVFE!T9</f>
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="BF3" s="10">
         <f>BNVFE!U9</f>
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="BG3" s="10">
         <f>BNVFE!V9</f>
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="BH3" s="10">
         <f>BNVFE!W9</f>
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="BI3" s="10">
         <f>BNVFE!X9</f>
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="BJ3" s="10">
         <f>BNVFE!Y9</f>
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="BK3" s="10">
         <f>BNVFE!Z9</f>
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="BL3" s="10">
         <f>BNVFE!AA9</f>
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="BM3" s="10">
         <f>BNVFE!AB9</f>
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="BN3" s="10">
         <f>BNVFE!AC9</f>
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="BO3" s="10">
         <f>BNVFE!AD9</f>
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="BP3" s="10">
         <f>BNVFE!AE9</f>
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="BQ3" s="10">
         <f>BNVFE!AF9</f>
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="BR3" s="10">
         <f>BNVFE!AG9</f>
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="BS3" s="10"/>
       <c r="BT3" s="4"/>
@@ -19940,119 +19940,119 @@
       <c r="K4" s="9"/>
       <c r="L4" s="4">
         <f>L5/M5*M4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="1"/>
-        <v>1.177387347221569E-3</v>
+        <v>1.1604234453908705E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1740372877780075E-3</v>
+        <v>1.1579662228857668E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1706872283344459E-3</v>
+        <v>1.1555090003806633E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1673371688908844E-3</v>
+        <v>1.1530517778755595E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="1"/>
-        <v>1.163987109447323E-3</v>
+        <v>1.1505945553704558E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1606370500037615E-3</v>
+        <v>1.1481373328653521E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1572869905602E-3</v>
+        <v>1.1456801103602485E-3</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1539369311166386E-3</v>
+        <v>1.1432228878551448E-3</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1505868716730771E-3</v>
+        <v>1.1407656653500411E-3</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1472368122295155E-3</v>
+        <v>1.1383084428449376E-3</v>
       </c>
       <c r="AG4" s="4">
         <f>AG5/AH5*AH4</f>
-        <v>1.143886752785954E-3</v>
+        <v>1.1358512203398338E-3</v>
       </c>
       <c r="AH4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1405366933423926E-3</v>
+        <v>1.1333939978347303E-3</v>
       </c>
       <c r="AI4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1371866338988309E-3</v>
+        <v>1.1309367753296266E-3</v>
       </c>
       <c r="AJ4" s="4">
         <f>AJ5/AK5*AK4</f>
-        <v>1.1338365744552694E-3</v>
+        <v>1.1284795528245229E-3</v>
       </c>
       <c r="AK4" s="19">
         <f>AK5/AL5*AL4</f>
-        <v>1.130486515011708E-3</v>
+        <v>1.1260223303194191E-3</v>
       </c>
       <c r="AL4" s="19">
         <f>AL5/AM5*AM4</f>
-        <v>1.1271364555681463E-3</v>
+        <v>1.1235651078143154E-3</v>
       </c>
       <c r="AM4" s="19">
         <f>AM5/AN5*AN4</f>
-        <v>1.1237863961245848E-3</v>
+        <v>1.1211078853092119E-3</v>
       </c>
       <c r="AN4" s="27">
         <f>AN5/AO5*AO4</f>
-        <v>1.1204363366810234E-3</v>
+        <v>1.1186506628041082E-3</v>
       </c>
       <c r="AO4" s="10">
         <f>BNVFE!D10</f>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="AT4" s="10">
         <f>BNVFE!I10</f>
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="AU4" s="10">
         <f>BNVFE!J10</f>
@@ -20084,7 +20084,7 @@
       </c>
       <c r="AV4" s="10">
         <f>BNVFE!K10</f>
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="AW4" s="10">
         <f>BNVFE!L10</f>
@@ -20092,11 +20092,11 @@
       </c>
       <c r="AX4" s="10">
         <f>BNVFE!M10</f>
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="AY4" s="10">
         <f>BNVFE!N10</f>
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="AZ4" s="10">
         <f>BNVFE!O10</f>
@@ -20104,15 +20104,15 @@
       </c>
       <c r="BA4" s="10">
         <f>BNVFE!P10</f>
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="BB4" s="10">
         <f>BNVFE!Q10</f>
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="BC4" s="10">
         <f>BNVFE!R10</f>
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="BD4" s="10">
         <f>BNVFE!S10</f>
@@ -20128,11 +20128,11 @@
       </c>
       <c r="BG4" s="10">
         <f>BNVFE!V10</f>
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="BH4" s="10">
         <f>BNVFE!W10</f>
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="BI4" s="10">
         <f>BNVFE!X10</f>
@@ -20140,15 +20140,15 @@
       </c>
       <c r="BJ4" s="10">
         <f>BNVFE!Y10</f>
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="BK4" s="10">
         <f>BNVFE!Z10</f>
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="BL4" s="10">
         <f>BNVFE!AA10</f>
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="BM4" s="10">
         <f>BNVFE!AB10</f>
@@ -20239,195 +20239,195 @@
       </c>
       <c r="W5" s="4">
         <f>($AO$5-$V$5)/COUNT($V$1:$AO$1)+V5</f>
-        <v>7.7819056047563108E-4</v>
+        <v>7.7875573937035282E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" ref="X5:AN5" si="3">($AO$5-$V$5)/COUNT($V$1:$AO$1)+W5</f>
-        <v>7.7597634894858872E-4</v>
+        <v>7.771067067380322E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="3"/>
-        <v>7.7376213742154636E-4</v>
+        <v>7.7545767410571158E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="3"/>
-        <v>7.71547925894504E-4</v>
+        <v>7.7380864147339097E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6933371436746164E-4</v>
+        <v>7.7215960884107035E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6711950284041929E-4</v>
+        <v>7.7051057620874973E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6490529131337693E-4</v>
+        <v>7.6886154357642912E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6269107978633457E-4</v>
+        <v>7.672125109441085E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6047686825929221E-4</v>
+        <v>7.6556347831178788E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5826265673224985E-4</v>
+        <v>7.6391444567946727E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5604844520520749E-4</v>
+        <v>7.6226541304714665E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5383423367816514E-4</v>
+        <v>7.6061638041482603E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5162002215112278E-4</v>
+        <v>7.5896734778250542E-4</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4940581062408042E-4</v>
+        <v>7.573183151501848E-4</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4719159909703806E-4</v>
+        <v>7.5566928251786418E-4</v>
       </c>
       <c r="AL5" s="4">
         <f t="shared" si="3"/>
-        <v>7.449773875699957E-4</v>
+        <v>7.5402024988554357E-4</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4276317604295334E-4</v>
+        <v>7.5237121725322295E-4</v>
       </c>
       <c r="AN5" s="26">
         <f t="shared" si="3"/>
-        <v>7.4054896451591099E-4</v>
+        <v>7.5072218462090233E-4</v>
       </c>
       <c r="AO5" s="10">
         <f>BNVFE!D11</f>
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="AP5" s="10">
         <f>BNVFE!E11</f>
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="AQ5" s="10">
         <f>BNVFE!F11</f>
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="AR5" s="10">
         <f>BNVFE!G11</f>
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="AS5" s="10">
         <f>BNVFE!H11</f>
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="AT5" s="10">
         <f>BNVFE!I11</f>
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="AU5" s="10">
         <f>BNVFE!J11</f>
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="AV5" s="10">
         <f>BNVFE!K11</f>
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="AW5" s="10">
         <f>BNVFE!L11</f>
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="AX5" s="10">
         <f>BNVFE!M11</f>
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="AY5" s="10">
         <f>BNVFE!N11</f>
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="AZ5" s="10">
         <f>BNVFE!O11</f>
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="BA5" s="10">
         <f>BNVFE!P11</f>
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="BB5" s="10">
         <f>BNVFE!Q11</f>
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="BC5" s="10">
         <f>BNVFE!R11</f>
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="BD5" s="10">
         <f>BNVFE!S11</f>
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="BE5" s="10">
         <f>BNVFE!T11</f>
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="BF5" s="10">
         <f>BNVFE!U11</f>
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="BG5" s="10">
         <f>BNVFE!V11</f>
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="BH5" s="10">
         <f>BNVFE!W11</f>
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="BI5" s="10">
         <f>BNVFE!X11</f>
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="BJ5" s="10">
         <f>BNVFE!Y11</f>
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="BK5" s="10">
         <f>BNVFE!Z11</f>
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="BL5" s="10">
         <f>BNVFE!AA11</f>
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="BM5" s="10">
         <f>BNVFE!AB11</f>
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="BN5" s="10">
         <f>BNVFE!AC11</f>
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="BO5" s="10">
         <f>BNVFE!AD11</f>
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="BP5" s="10">
         <f>BNVFE!AE11</f>
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="BQ5" s="10">
         <f>BNVFE!AF11</f>
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="BR5" s="10">
         <f>BNVFE!AG11</f>
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="BS5" s="10"/>
       <c r="BT5" s="4"/>
@@ -22743,12 +22743,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -22976,123 +22976,123 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.6512977295439592E-4</v>
+        <v>3.4315885705159878E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5474795033263841E-4</v>
+        <v>3.4251537077170018E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5999582362156076E-4</v>
+        <v>3.5067496258556929E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.575411527957111E-4</v>
+        <v>3.5195903261955489E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.5098955393113139E-4</v>
+        <v>3.5537454196456301E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.2529070551256162E-4</v>
+        <v>3.6001444402488291E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.2405957424546739E-4</v>
+        <v>3.639117399264578E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2305318872919765E-4</v>
+        <v>3.6765602654358315E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2314699001954232E-4</v>
+        <v>3.7314346130715945E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.2324770853401079E-4</v>
+        <v>3.7816127565462235E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.2427274517001246E-4</v>
+        <v>3.8287720134892478E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.2437797979064292E-4</v>
+        <v>3.8695589546632644E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.2523361399085606E-4</v>
+        <v>3.9124659466938441E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.2615971146515569E-4</v>
+        <v>3.9544274917153121E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.3177243986842866E-4</v>
+        <v>4.0318106889032553E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3631690935380739E-4</v>
+        <v>4.0934602784305208E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.4057057772530629E-4</v>
+        <v>4.1460859761082873E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.5254040910253097E-4</v>
+        <v>4.2918095492519738E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5622167214823523E-4</v>
+        <v>4.335787303895307E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5932586621187509E-4</v>
+        <v>4.3685345470599412E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6998069835868409E-4</v>
+        <v>4.4986152668336464E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.7043547142435307E-4</v>
+        <v>4.506125079279828E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.7063277045978053E-4</v>
+        <v>4.5077860462753374E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.7027223527136152E-4</v>
+        <v>4.5037480829452432E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.707899458345789E-4</v>
+        <v>4.5090752346333351E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6942231456915355E-4</v>
+        <v>4.5088043127990992E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.7062339495815715E-4</v>
+        <v>4.5210293408135845E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7138471662628673E-4</v>
+        <v>4.5305688916845286E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7275932113182964E-4</v>
+        <v>4.5475075705116326E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7333739446942469E-4</v>
+        <v>4.5558862387767087E-4</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -23103,123 +23103,123 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -23230,123 +23230,123 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.5658241110255779E-4</v>
+        <v>3.3512581471667653E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.546826203139623E-4</v>
+        <v>3.4245229349232932E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5321445226457391E-4</v>
+        <v>3.4406917165453311E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.524765095404888E-4</v>
+        <v>3.4697346123362365E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4444165282567749E-4</v>
+        <v>3.4874483652143026E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1958904086234162E-4</v>
+        <v>3.5370414497766343E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1833343353394986E-4</v>
+        <v>3.5748141045927891E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.1412412398046098E-4</v>
+        <v>3.5749415666950872E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.1380528787726191E-4</v>
+        <v>3.6235643503264504E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.1412454613579944E-4</v>
+        <v>3.6748826347409249E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.1593684912226372E-4</v>
+        <v>3.7303479369352893E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.1696816235110396E-4</v>
+        <v>3.7811660081257293E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1872195023581305E-4</v>
+        <v>3.8341325223429322E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.204519818383183E-4</v>
+        <v>3.8852258026095287E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.2661274550379422E-4</v>
+        <v>3.9691083411764322E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3159751139569607E-4</v>
+        <v>4.0360184206400415E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.3626742360268452E-4</v>
+        <v>4.0936996335181616E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.4855286672866461E-4</v>
+        <v>4.2432654051018792E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5224997356011041E-4</v>
+        <v>4.2874453818290829E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5572055564458207E-4</v>
+        <v>4.3247026795349556E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6666645963201293E-4</v>
+        <v>4.4583172593973757E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.6745317163350868E-4</v>
+        <v>4.4698471930671959E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.6812816732604984E-4</v>
+        <v>4.4773240473439335E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.6829543482855682E-4</v>
+        <v>4.4797035817470312E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.6916794586512564E-4</v>
+        <v>4.4893505361214171E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6836027015493497E-4</v>
+        <v>4.4958420464541509E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.6989680254038607E-4</v>
+        <v>4.5121660426941369E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7101492304657024E-4</v>
+        <v>4.5260577332722303E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7218016517873024E-4</v>
+        <v>4.5404421104897877E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7301391239035468E-4</v>
+        <v>4.5519387436306075E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -23357,123 +23357,123 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.7733679111085859E-4</v>
+        <v>5.4259676434598647E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.1624349374592988E-4</v>
+        <v>4.9844215168280475E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.0741882465691354E-4</v>
+        <v>4.9428094904465346E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.1345781970387209E-4</v>
+        <v>5.0544144667222896E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.0721121114026969E-4</v>
+        <v>5.1354790995754805E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>4.7306733810797443E-4</v>
+        <v>5.235657577332682E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>4.7481949081841583E-4</v>
+        <v>5.332117943345761E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>4.7320913259414843E-4</v>
+        <v>5.3854348287996328E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>4.7463592657213656E-4</v>
+        <v>5.480703765526247E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>4.7740258867597427E-4</v>
+        <v>5.5850410433932053E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>4.8006153857130626E-4</v>
+        <v>5.6682105141791681E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>4.8249268977570829E-4</v>
+        <v>5.7557356682662623E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>4.8553787759081645E-4</v>
+        <v>5.8408796944263018E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>4.8878116836815273E-4</v>
+        <v>5.9260835157877673E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.9839012649989111E-4</v>
+        <v>6.0566050635881105E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>5.0688524375738135E-4</v>
+        <v>6.1695221183796919E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>5.1408893015787694E-4</v>
+        <v>6.2584880879500203E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>5.3298064486994104E-4</v>
+        <v>6.4884800781915975E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.3904493880410056E-4</v>
+        <v>6.5610387706092899E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.4440423055981968E-4</v>
+        <v>6.6186403829994044E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.6091264450523141E-4</v>
+        <v>6.8201670982440869E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.6228352121743142E-4</v>
+        <v>6.8398414084949516E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.6300211186441568E-4</v>
+        <v>6.847459982390736E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.6370242333199415E-4</v>
+        <v>6.8565057452186899E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.6505007903216167E-4</v>
+        <v>6.8714196442322276E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.6472680383080583E-4</v>
+        <v>6.892498228308697E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.6695236229259763E-4</v>
+        <v>6.9159375787861133E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.6913462321645978E-4</v>
+        <v>6.942944886231706E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>5.7051355681803149E-4</v>
+        <v>6.9600264074737327E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>5.7222367877689934E-4</v>
+        <v>6.98292220994049E-4</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -23484,123 +23484,123 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.1763216261773128E-4</v>
+        <v>2.9851931548825495E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0669186158966625E-4</v>
+        <v>2.9611637385514933E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1685245989931227E-4</v>
+        <v>3.0864864876083039E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1739782303062078E-4</v>
+        <v>3.1244244159283816E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.1192088323962313E-4</v>
+        <v>3.1581777796216959E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>2.9142107044187574E-4</v>
+        <v>3.2252933414421414E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>2.9074753100539563E-4</v>
+        <v>3.2650305158812983E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>2.8982606084405671E-4</v>
+        <v>3.298413438909791E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>2.8983551626977824E-4</v>
+        <v>3.3467812200296891E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>2.9017394439876564E-4</v>
+        <v>3.3946891525767797E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>2.9163668386046073E-4</v>
+        <v>3.443429612582203E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>2.925881148990673E-4</v>
+        <v>3.4903323609280015E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>2.9426018427939119E-4</v>
+        <v>3.5398645802132289E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>2.9593459855706646E-4</v>
+        <v>3.5879720000574574E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.0150773383604229E-4</v>
+        <v>3.6640237644490118E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.0595864748126056E-4</v>
+        <v>3.7239565881871939E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.1002205402131999E-4</v>
+        <v>3.774190063766538E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.2110959644743808E-4</v>
+        <v>3.9091723865015179E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.2436399554231139E-4</v>
+        <v>3.9480284431652184E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.2731318390816493E-4</v>
+        <v>3.9793376599498131E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.3702991066531066E-4</v>
+        <v>4.0979648620174003E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.3741002097795717E-4</v>
+        <v>4.1043903049645998E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.3750948921623593E-4</v>
+        <v>4.1049272682690713E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.3717526117842833E-4</v>
+        <v>4.1011782453415828E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.375039228412405E-4</v>
+        <v>4.1042930024698523E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.3608556774951192E-4</v>
+        <v>4.1019288699596694E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.3718406040280117E-4</v>
+        <v>4.1131214355959064E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.378358588691025E-4</v>
+        <v>4.1213021542511836E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.3847440572982264E-4</v>
+        <v>4.1292459644126167E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.3885840983958386E-4</v>
+        <v>4.135134570368764E-4</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
@@ -23782,12 +23782,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -24781,12 +24781,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\VA\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E86AAE2-D6C7-42D5-8472-13DDEE823470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0C145-5EB0-4280-9DA6-AA87E9CED957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="730" windowWidth="9800" windowHeight="10070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
   <si>
     <t>Sources:</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>energy consumption that more closely matches EIA's AEO trajectory: freight LDVs, passenger HDVs, freight HDVs, passenger ships, passenger motorbikes.</t>
-  </si>
-  <si>
-    <t>Virginia</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1293,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1338,7 +1335,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7789,30 +7785,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.40625" customWidth="1"/>
-    <col min="2" max="2" width="107.40625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="31">
-        <v>45467</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7820,58 +7810,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="B8" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="B14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -8032,12 +8022,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9031,12 +9021,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9908,12 +9898,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10785,14 +10775,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="10.40625" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -11691,12 +11681,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -12568,12 +12558,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -13559,12 +13549,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -14436,12 +14426,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -15435,12 +15425,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -16213,11 +16203,11 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.40625" customWidth="1"/>
-    <col min="2" max="2" width="16.40625" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -18519,7 +18509,7 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18896,9 +18886,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.40625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19005,11 +18995,11 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.40625" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19179,7 +19169,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29.5">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -19197,7 +19187,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29.5">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
@@ -19289,11 +19279,11 @@
       <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.40625" customWidth="1"/>
-    <col min="40" max="40" width="8.7265625" style="24"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -22743,12 +22733,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -23782,12 +23772,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -24781,12 +24771,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
